--- a/photos.xlsx
+++ b/photos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B8E500-9DCC-45AC-9CAD-9ED699D521FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD33140-B331-474A-BFA4-9500116799CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="844">
   <si>
     <t>taxon</t>
   </si>
@@ -1963,27 +1963,15 @@
     <t>Zoropsis spinimana</t>
   </si>
   <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/93002_P1802282.jpg</t>
-  </si>
-  <si>
     <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/79560_P1663592.jpg</t>
   </si>
   <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45664_P1638416.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/57837_P1661468.jpg</t>
-  </si>
-  <si>
     <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/87632_P1710683.jpg</t>
   </si>
   <si>
     <t>https://inaturalist-open-data.s3.amazonaws.com/photos/170022520/original.jpg</t>
   </si>
   <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/49188_IMG_20220915_231117.jpg</t>
-  </si>
-  <si>
     <t>https://inaturalist-open-data.s3.amazonaws.com/photos/79099930/original.jpeg</t>
   </si>
   <si>
@@ -2137,9 +2125,6 @@
     <t>https://inaturalist-open-data.s3.amazonaws.com/photos/225178519/original.jpg</t>
   </si>
   <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/95091_P1835392.jpg</t>
-  </si>
-  <si>
     <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/46557_g959.jpg</t>
   </si>
   <si>
@@ -2546,6 +2531,27 @@
   </si>
   <si>
     <t>https://inaturalist-open-data.s3.amazonaws.com/photos/164944987/original.jpg</t>
+  </si>
+  <si>
+    <t>www/media/araneus_diadematus.webp</t>
+  </si>
+  <si>
+    <t>www/media/araneus_marmoreus.webp</t>
+  </si>
+  <si>
+    <t>www/media/araneus_quadratus_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/araneus_quadratus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/agelena_labyrinthica.webp</t>
+  </si>
+  <si>
+    <t>www/media/amaurobius_ferox.webp</t>
+  </si>
+  <si>
+    <t>www/media/anyphaena_accentuata.webp</t>
   </si>
 </sst>
 </file>
@@ -2930,3875 +2936,3881 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C30" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>839</v>
+      </c>
+      <c r="C32" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C35" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C37" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C43" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C49" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C55" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C60" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C62" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>79</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C101" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C105" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C107" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C108" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>108</v>
       </c>
       <c r="C111" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>149</v>
       </c>
       <c r="C152" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>203</v>
       </c>
       <c r="C206" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>218</v>
       </c>
       <c r="B221" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C221" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>219</v>
       </c>
       <c r="B222" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="C222" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>223</v>
       </c>
       <c r="B226" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>242</v>
       </c>
       <c r="C246" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>243</v>
       </c>
       <c r="B247" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C247" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>244</v>
       </c>
       <c r="B248" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>246</v>
       </c>
       <c r="B250" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C250" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>260</v>
       </c>
       <c r="B264" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>274</v>
       </c>
       <c r="B278" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>275</v>
       </c>
       <c r="C279" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>276</v>
       </c>
       <c r="B280" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C280" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>283</v>
       </c>
       <c r="C287" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>328</v>
       </c>
       <c r="B332" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C332" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C335" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>372</v>
       </c>
       <c r="B380" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>377</v>
       </c>
       <c r="B385" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>382</v>
       </c>
       <c r="B390" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>384</v>
       </c>
       <c r="B392" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>393</v>
       </c>
       <c r="B401" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>402</v>
       </c>
       <c r="B410" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>409</v>
       </c>
       <c r="C417" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>418</v>
       </c>
       <c r="C426" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>426</v>
       </c>
       <c r="B434" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C434" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>427</v>
       </c>
       <c r="C435" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>428</v>
       </c>
       <c r="B436" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C436" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>430</v>
       </c>
       <c r="B438" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C438" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>435</v>
       </c>
       <c r="B444" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>444</v>
       </c>
       <c r="B454" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>445</v>
       </c>
       <c r="C455" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>447</v>
       </c>
       <c r="B457" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C457" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>448</v>
       </c>
       <c r="C458" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>454</v>
       </c>
       <c r="B464" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C464" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>459</v>
       </c>
       <c r="B469" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>461</v>
       </c>
       <c r="B471" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C471" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>463</v>
       </c>
       <c r="B473" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C473" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>467</v>
       </c>
       <c r="B476" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>468</v>
       </c>
       <c r="C477" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>469</v>
       </c>
       <c r="B478" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>474</v>
       </c>
       <c r="C483" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>477</v>
       </c>
       <c r="B486" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C486" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>478</v>
       </c>
       <c r="B487" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C487" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>466</v>
       </c>
       <c r="B489" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C489" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>480</v>
       </c>
       <c r="B490" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C490" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>494</v>
       </c>
       <c r="C504" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>496</v>
       </c>
       <c r="B506" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C506" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>497</v>
       </c>
       <c r="B507" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C507" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>499</v>
       </c>
       <c r="B509" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C509" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>500</v>
       </c>
       <c r="C510" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>502</v>
       </c>
       <c r="C512" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>503</v>
       </c>
       <c r="B513" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C513" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>504</v>
       </c>
       <c r="B514" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C514" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>513</v>
       </c>
       <c r="C523" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>514</v>
       </c>
       <c r="C524" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>516</v>
       </c>
       <c r="B525" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C525" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>522</v>
       </c>
       <c r="B532" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C532" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>524</v>
       </c>
       <c r="C533" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>526</v>
       </c>
       <c r="B536" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>528</v>
       </c>
       <c r="C538" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>529</v>
       </c>
       <c r="B539" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C539" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>530</v>
       </c>
       <c r="B540" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C540" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>542</v>
       </c>
       <c r="C552" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>546</v>
       </c>
       <c r="C556" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>547</v>
       </c>
       <c r="B559" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C559" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>553</v>
       </c>
       <c r="B563" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C563" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>554</v>
       </c>
       <c r="B564" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>555</v>
       </c>
       <c r="B565" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>558</v>
       </c>
       <c r="B568" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C568" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>561</v>
       </c>
       <c r="B571" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C571" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>565</v>
       </c>
       <c r="B575" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="C575" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>567</v>
       </c>
       <c r="C577" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>571</v>
       </c>
       <c r="C581" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>573</v>
       </c>
       <c r="C583" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>579</v>
       </c>
       <c r="B589" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="C589" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>583</v>
       </c>
       <c r="B593" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C593" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>584</v>
       </c>
       <c r="B594" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="C594" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>586</v>
       </c>
       <c r="C596" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>591</v>
       </c>
       <c r="C601" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>592</v>
       </c>
       <c r="B602" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>600</v>
       </c>
       <c r="B610" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C610" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>602</v>
       </c>
       <c r="B612" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C612" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>605</v>
       </c>
       <c r="B615" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C615" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>608</v>
       </c>
       <c r="B618" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>609</v>
       </c>
       <c r="B619" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C619" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>613</v>
       </c>
       <c r="B623" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>616</v>
       </c>
       <c r="C626" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>617</v>
       </c>
       <c r="B627" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C627" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>619</v>
       </c>
       <c r="B629" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>621</v>
       </c>
       <c r="B631" t="s">
+        <v>824</v>
+      </c>
+      <c r="C631" t="s">
         <v>829</v>
       </c>
-      <c r="C631" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>626</v>
       </c>
       <c r="C636" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>629</v>
       </c>
       <c r="B639" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>630</v>
       </c>
       <c r="B640" t="s">
+        <v>822</v>
+      </c>
+      <c r="C640" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="C640" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>631</v>
       </c>
       <c r="C641" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>633</v>
       </c>
       <c r="B643" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>636</v>
       </c>
       <c r="C646" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>640</v>
       </c>
       <c r="C650" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>644</v>
       </c>
       <c r="B654" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C654" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>646</v>
       </c>
       <c r="B656" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C656" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD33140-B331-474A-BFA4-9500116799CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145E0451-82A3-42C8-B961-9E743842C836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="659">
   <si>
     <t>taxon</t>
   </si>
@@ -1963,576 +1963,15 @@
     <t>Zoropsis spinimana</t>
   </si>
   <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/79560_P1663592.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/87632_P1710683.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/170022520/original.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/79099930/original.jpeg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/328806724/original.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/388672931/original.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/370594043/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/92650_P1802168.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45258_rect58_04.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/58407_P1661506.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/59017_P1661925.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/82918_P1662900.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/442093819/original.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/79100177/original.jpeg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/88719_P1732556.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/88488_P1732105.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45012_P1636003.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/58081_P1661472.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/90535_P1766557.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45005_P1636078_02.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45299_rect582.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/48458_P1628508.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/34062971/original.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/345567970/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/86959_P1709828.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/226888388/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45606_P1638690.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/48288_photos_20210923171104_1.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45608_P1638799.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/86338_P1709185.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/47486_photos_20220618092245.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/388322363/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/49293_P1647058.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45348_image10.jpg</t>
-  </si>
-  <si>
-    <t>https://cardobs.mnhn.fr/cardObs/photos/download/15369_26112023104942_3153_1.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/91720_P1638658.jpg</t>
-  </si>
-  <si>
     <t>Thyreosthenius parasiticus</t>
   </si>
   <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/82906_P1662798.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/46135_P1640880.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45250_P1629428_02.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/92496_P1766843.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/384431070/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/46295_P1641513.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/329962329/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45246_P1630438_03.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45267_rect82_03.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/91588_P1766768.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/92619_P1801918.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/92310_P1801153.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/75324667/original.png</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/57388_P1660307_cr.jpg</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
     <t>femelle</t>
   </si>
   <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/225178519/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/46557_g959.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/92385_IMG_20240707_123854.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/87684_P1721550.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/164071730/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/49530_P1639224.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/90459_P1711003.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/328569562/original.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/388670964/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/83002_P1662757.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/46120_P1640650.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/46122_P1640713.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/313178149/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/49083_P1647003.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/83674_P1676689.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/83820_P1676776.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/224272635/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/57840_P1661525.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/128087625/original.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/130929112/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/94297_IMG_20240909_084830.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/95175_2024-10-06-22-45-17.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/384437007/original.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/96665150/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/95040_P1824880.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/225083974/original.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/225088849/original.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/76530568/original.png</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/76546564/original.png</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/392410024/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/88755_P1732638.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/47752_photos_20220623175101.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/89750_P1755535.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/118387627/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/58871_P1662214.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45690_P1500375.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/101381114/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45315_P1632248.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/46022_P1640491.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/79368826/original.jpeg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/83030_P1663104.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/85740_P1698731.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/57834_P1661364.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/57841_P1661489.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/75343149/original.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/37451658/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/59047_P1662425.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/67675081/original.png</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/75367338/original.png</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/91713_P1766633.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/58879_P1662219.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/76430906/original.png</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/46722_photos_20220510165510_1.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/33355256/original.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/71839773/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/94079_P1824342.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45265_rect70_03.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/73564233/original.png</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/93726353/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/88323_P1721755.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/79101896/original.jpeg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/75540812/original.png</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/71035949/original.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/94735383/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45328_rect989.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/219997141/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/58517_P1662006.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/76409637/original.png</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/90364_P1755582.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/80227343/original.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/101235971/original.jpeg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/89753_P1755516.jpg</t>
-  </si>
-  <si>
-    <t>https://cardobs.mnhn.fr/cardObs/photos/download/15369_15072023152500_segestria_bavarica_dorsal.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/46159_P1641073.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/386064694/original.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/437207501/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/57980_P1661182.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/91698_P1789606.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/435531484/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/57831_P1661085.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/91690_P1766621.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/94740_P1824494.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/92844_P1766922.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/83176_P1676232.jpg</t>
-  </si>
-  <si>
-    <t>https://cardobs.mnhn.fr/cardObs/photos/download/15369_24112023213836_2823_1.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/83183_P1676184.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/88722_P1732535.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45316_P1632114.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/435576075/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/83252_P1676045.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45446_rect1069.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45447_image44.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/79099952/original.jpeg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/119152183/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/88326_P1721746.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/75357757/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45347_rect1045.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/92388_IMG_20240707_130838.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/94652_P1824522.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/79100486/original.jpeg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/85757_P1698779.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/100809677/original.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/79171443/original.jpeg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/91247_IMG_20240617_184117.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/47764_photos_20220629135438.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/79458175/original.jpeg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/118973964/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/80593_P1662397.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/28696403/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/49963_P1647766.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/57977_P1661428.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/313425661/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/82971_P1662881.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/91063_P1767092.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45226_P1557949.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45319_P1632043.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/46619_P1643636.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/59005_P1662503.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/92996_P1802262.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/46020_P1640295.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/49194_P1647080.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/46609_P1642384.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/58638_P1662135.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/59002_P1662594.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/386090556/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/58641_P1661888.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/91054_P1766672.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/46721_photos_20220510172519.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/57407_P1660322_cr.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/381172122/original.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/436496224/original.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/95344_P1835369.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45234_image24_03.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/45260_rect82.jpg</t>
-  </si>
-  <si>
-    <t>https://geonature.arb-idf.fr/geonature/api//media/attachments/4/56820_IMG_20230221_091826.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/44094008/original.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/164944987/original.jpg</t>
-  </si>
-  <si>
     <t>www/media/araneus_diadematus.webp</t>
   </si>
   <si>
@@ -2552,6 +1991,12 @@
   </si>
   <si>
     <t>www/media/anyphaena_accentuata.webp</t>
+  </si>
+  <si>
+    <t>www/media/argiope_bruennichi.webp</t>
+  </si>
+  <si>
+    <t>www/media/cercidia_prominens.webp</t>
   </si>
 </sst>
 </file>
@@ -2615,6 +2060,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}" name="Tableau1" displayName="Tableau1" ref="A1:C656" totalsRowShown="0">
+  <autoFilter ref="A1:C656" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8CF3FEBE-EC73-416E-8610-F705B8D6D336}" name="taxon"/>
+    <tableColumn id="2" xr3:uid="{DBDA5D0E-A4B2-4E10-A6AF-85502F963E80}" name="male"/>
+    <tableColumn id="3" xr3:uid="{84160676-7B2A-4A0C-94B1-2901F12B1A91}" name="femelle"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2936,13 +2393,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C656"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2950,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>698</v>
+        <v>648</v>
       </c>
       <c r="C1" t="s">
-        <v>699</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2961,16 +2420,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>841</v>
+        <v>654</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>647</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3062,7 +2518,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>842</v>
+        <v>655</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3075,7 +2531,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>843</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3087,9 +2543,6 @@
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>648</v>
-      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3110,19 +2563,13 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
-        <v>649</v>
-      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>700</v>
-      </c>
       <c r="C30" t="s">
-        <v>837</v>
+        <v>650</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3130,7 +2577,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>838</v>
+        <v>651</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3138,10 +2585,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>839</v>
+        <v>652</v>
       </c>
       <c r="C32" t="s">
-        <v>840</v>
+        <v>653</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3158,12 +2605,6 @@
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
-        <v>702</v>
-      </c>
-      <c r="C35" t="s">
-        <v>701</v>
-      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -3174,19 +2615,13 @@
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
-        <v>650</v>
-      </c>
-      <c r="C37" t="s">
-        <v>703</v>
-      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>704</v>
+        <v>657</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3194,16 +2629,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
-        <v>705</v>
-      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -3219,12 +2651,6 @@
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
-        <v>706</v>
-      </c>
-      <c r="C43" t="s">
-        <v>707</v>
-      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -3251,655 +2677,563 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
-        <v>708</v>
-      </c>
-      <c r="C49" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="C51" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55" t="s">
-        <v>710</v>
-      </c>
-      <c r="C55" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="C57" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>711</v>
-      </c>
-      <c r="C60" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>714</v>
-      </c>
-      <c r="C62" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="C67" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>70</v>
       </c>
-      <c r="C73" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>80</v>
       </c>
-      <c r="C83" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>86</v>
       </c>
-      <c r="B89" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>89</v>
       </c>
-      <c r="C92" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>95</v>
       </c>
-      <c r="B98" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>98</v>
       </c>
-      <c r="B101" t="s">
-        <v>715</v>
-      </c>
-      <c r="C101" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>100</v>
       </c>
-      <c r="B103" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>102</v>
       </c>
-      <c r="B105" t="s">
-        <v>664</v>
-      </c>
-      <c r="C105" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>104</v>
       </c>
-      <c r="B107" t="s">
-        <v>716</v>
-      </c>
-      <c r="C107" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>105</v>
       </c>
-      <c r="B108" t="s">
-        <v>719</v>
-      </c>
-      <c r="C108" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>108</v>
       </c>
-      <c r="C111" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>110</v>
       </c>
-      <c r="B113" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
-      <c r="C133" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
-      <c r="C135" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>149</v>
       </c>
-      <c r="C152" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -4064,542 +3398,482 @@
         <v>189</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>196</v>
       </c>
-      <c r="B199" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>203</v>
       </c>
-      <c r="C206" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>214</v>
       </c>
-      <c r="B217" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>218</v>
       </c>
-      <c r="B221" t="s">
-        <v>673</v>
-      </c>
-      <c r="C221" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>219</v>
       </c>
-      <c r="B222" t="s">
-        <v>720</v>
-      </c>
-      <c r="C222" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>223</v>
       </c>
-      <c r="B226" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>242</v>
       </c>
-      <c r="C246" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>243</v>
       </c>
-      <c r="B247" t="s">
-        <v>675</v>
-      </c>
-      <c r="C247" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>244</v>
       </c>
-      <c r="B248" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>246</v>
       </c>
-      <c r="B250" t="s">
-        <v>725</v>
-      </c>
-      <c r="C250" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>260</v>
       </c>
-      <c r="B264" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>274</v>
       </c>
-      <c r="B278" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>275</v>
       </c>
-      <c r="C279" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>276</v>
       </c>
-      <c r="B280" t="s">
-        <v>728</v>
-      </c>
-      <c r="C280" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>283</v>
       </c>
-      <c r="C287" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>284</v>
       </c>
@@ -4764,91 +4038,82 @@
         <v>316</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>328</v>
       </c>
-      <c r="B332" t="s">
-        <v>729</v>
-      </c>
-      <c r="C332" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>683</v>
-      </c>
-      <c r="C335" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>330</v>
       </c>
@@ -5013,1588 +4278,1282 @@
         <v>360</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>372</v>
       </c>
-      <c r="B380" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>377</v>
       </c>
-      <c r="B385" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>382</v>
       </c>
-      <c r="B390" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>384</v>
       </c>
-      <c r="B392" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>393</v>
       </c>
-      <c r="B401" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>402</v>
       </c>
-      <c r="B410" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>409</v>
       </c>
-      <c r="C417" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>418</v>
       </c>
-      <c r="C426" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>426</v>
       </c>
-      <c r="B434" t="s">
-        <v>730</v>
-      </c>
-      <c r="C434" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>427</v>
       </c>
-      <c r="C435" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>428</v>
       </c>
-      <c r="B436" t="s">
-        <v>692</v>
-      </c>
-      <c r="C436" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>430</v>
       </c>
-      <c r="B438" t="s">
-        <v>734</v>
-      </c>
-      <c r="C438" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>435</v>
       </c>
-      <c r="B444" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>444</v>
       </c>
-      <c r="B454" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>445</v>
       </c>
-      <c r="C455" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>447</v>
       </c>
-      <c r="B457" t="s">
-        <v>735</v>
-      </c>
-      <c r="C457" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>448</v>
       </c>
-      <c r="C458" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>454</v>
       </c>
-      <c r="B464" t="s">
-        <v>738</v>
-      </c>
-      <c r="C464" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>459</v>
       </c>
-      <c r="B469" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>461</v>
       </c>
-      <c r="B471" t="s">
-        <v>740</v>
-      </c>
-      <c r="C471" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>463</v>
       </c>
-      <c r="B473" t="s">
-        <v>742</v>
-      </c>
-      <c r="C473" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>467</v>
       </c>
-      <c r="B476" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>468</v>
       </c>
-      <c r="C477" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>469</v>
       </c>
-      <c r="B478" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>474</v>
       </c>
-      <c r="C483" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>477</v>
       </c>
-      <c r="B486" t="s">
-        <v>747</v>
-      </c>
-      <c r="C486" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>478</v>
       </c>
-      <c r="B487" t="s">
-        <v>751</v>
-      </c>
-      <c r="C487" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>466</v>
       </c>
-      <c r="B489" t="s">
-        <v>752</v>
-      </c>
-      <c r="C489" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>480</v>
       </c>
-      <c r="B490" t="s">
-        <v>755</v>
-      </c>
-      <c r="C490" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>494</v>
       </c>
-      <c r="C504" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>496</v>
       </c>
-      <c r="B506" t="s">
-        <v>760</v>
-      </c>
-      <c r="C506" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>497</v>
       </c>
-      <c r="B507" t="s">
-        <v>757</v>
-      </c>
-      <c r="C507" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>499</v>
       </c>
-      <c r="B509" t="s">
-        <v>761</v>
-      </c>
-      <c r="C509" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>500</v>
       </c>
-      <c r="C510" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>502</v>
       </c>
-      <c r="C512" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>503</v>
       </c>
-      <c r="B513" t="s">
-        <v>766</v>
-      </c>
-      <c r="C513" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>504</v>
       </c>
-      <c r="B514" t="s">
-        <v>768</v>
-      </c>
-      <c r="C514" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>513</v>
       </c>
-      <c r="C523" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>514</v>
       </c>
-      <c r="C524" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>516</v>
       </c>
-      <c r="B525" t="s">
-        <v>770</v>
-      </c>
-      <c r="C525" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>522</v>
       </c>
-      <c r="B532" t="s">
-        <v>773</v>
-      </c>
-      <c r="C532" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>524</v>
       </c>
-      <c r="C533" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>526</v>
       </c>
-      <c r="B536" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>528</v>
       </c>
-      <c r="C538" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>529</v>
       </c>
-      <c r="B539" t="s">
-        <v>778</v>
-      </c>
-      <c r="C539" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>530</v>
       </c>
-      <c r="B540" t="s">
-        <v>777</v>
-      </c>
-      <c r="C540" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>542</v>
       </c>
-      <c r="C552" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>546</v>
       </c>
-      <c r="C556" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>547</v>
       </c>
-      <c r="B559" t="s">
-        <v>783</v>
-      </c>
-      <c r="C559" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>553</v>
       </c>
-      <c r="B563" t="s">
-        <v>787</v>
-      </c>
-      <c r="C563" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>554</v>
       </c>
-      <c r="B564" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>555</v>
       </c>
-      <c r="B565" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>558</v>
       </c>
-      <c r="B568" t="s">
-        <v>791</v>
-      </c>
-      <c r="C568" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>561</v>
       </c>
-      <c r="B571" t="s">
-        <v>792</v>
-      </c>
-      <c r="C571" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>565</v>
       </c>
-      <c r="B575" t="s">
-        <v>794</v>
-      </c>
-      <c r="C575" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>567</v>
       </c>
-      <c r="C577" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>571</v>
       </c>
-      <c r="C581" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>573</v>
       </c>
-      <c r="C583" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>579</v>
       </c>
-      <c r="B589" t="s">
-        <v>800</v>
-      </c>
-      <c r="C589" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>583</v>
       </c>
-      <c r="B593" t="s">
-        <v>802</v>
-      </c>
-      <c r="C593" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>584</v>
       </c>
-      <c r="B594" t="s">
-        <v>801</v>
-      </c>
-      <c r="C594" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>586</v>
       </c>
-      <c r="C596" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>591</v>
       </c>
-      <c r="C601" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>592</v>
       </c>
-      <c r="B602" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>600</v>
       </c>
-      <c r="B610" t="s">
-        <v>808</v>
-      </c>
-      <c r="C610" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>602</v>
       </c>
-      <c r="B612" t="s">
-        <v>810</v>
-      </c>
-      <c r="C612" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>605</v>
       </c>
-      <c r="B615" t="s">
-        <v>812</v>
-      </c>
-      <c r="C615" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>608</v>
       </c>
-      <c r="B618" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>609</v>
       </c>
-      <c r="B619" t="s">
-        <v>815</v>
-      </c>
-      <c r="C619" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>613</v>
       </c>
-      <c r="B623" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>614</v>
       </c>
@@ -6608,20 +5567,11 @@
       <c r="A626" t="s">
         <v>616</v>
       </c>
-      <c r="C626" t="s">
-        <v>818</v>
-      </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>617</v>
       </c>
-      <c r="B627" t="s">
-        <v>819</v>
-      </c>
-      <c r="C627" t="s">
-        <v>820</v>
-      </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
@@ -6632,9 +5582,6 @@
       <c r="A629" t="s">
         <v>619</v>
       </c>
-      <c r="B629" t="s">
-        <v>821</v>
-      </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
@@ -6645,12 +5592,6 @@
       <c r="A631" t="s">
         <v>621</v>
       </c>
-      <c r="B631" t="s">
-        <v>824</v>
-      </c>
-      <c r="C631" t="s">
-        <v>829</v>
-      </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
@@ -6676,9 +5617,6 @@
       <c r="A636" t="s">
         <v>626</v>
       </c>
-      <c r="C636" t="s">
-        <v>830</v>
-      </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
@@ -6694,132 +5632,99 @@
       <c r="A639" t="s">
         <v>629</v>
       </c>
-      <c r="B639" t="s">
-        <v>825</v>
-      </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>630</v>
       </c>
-      <c r="B640" t="s">
-        <v>822</v>
-      </c>
-      <c r="C640" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C640" s="1"/>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>631</v>
       </c>
-      <c r="C641" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>633</v>
       </c>
-      <c r="B643" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>636</v>
       </c>
-      <c r="C646" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>640</v>
       </c>
-      <c r="C650" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>644</v>
       </c>
-      <c r="B654" t="s">
-        <v>833</v>
-      </c>
-      <c r="C654" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>646</v>
       </c>
-      <c r="B656" t="s">
-        <v>834</v>
-      </c>
-      <c r="C656" t="s">
-        <v>835</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B82" r:id="rId1" xr:uid="{90A7AB64-9086-49EB-9ED9-D71B18321B6C}"/>
-    <hyperlink ref="C640" r:id="rId2" xr:uid="{47C200D2-424A-47F6-9C2D-7CB05DF18E8F}"/>
-  </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145E0451-82A3-42C8-B961-9E743842C836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C585311E-7B67-4A91-84AE-5B9E34BE0A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="664">
   <si>
     <t>taxon</t>
   </si>
@@ -1997,6 +1997,21 @@
   </si>
   <si>
     <t>www/media/cercidia_prominens.webp</t>
+  </si>
+  <si>
+    <t>www/media/cyclosa_conica.webp</t>
+  </si>
+  <si>
+    <t>www/media/gibbaranea_gibbosa.webp</t>
+  </si>
+  <si>
+    <t>www/media/larinioides_cornutus.webp</t>
+  </si>
+  <si>
+    <t>www/media/larinioides_sclopetarius.webp</t>
+  </si>
+  <si>
+    <t>www/media/mangora_acalypha.webp</t>
   </si>
 </sst>
 </file>
@@ -2393,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2636,6 +2651,9 @@
       <c r="A40" t="s">
         <v>40</v>
       </c>
+      <c r="C40" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -2651,6 +2669,9 @@
       <c r="A43" t="s">
         <v>43</v>
       </c>
+      <c r="C43" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -2677,82 +2698,91 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C585311E-7B67-4A91-84AE-5B9E34BE0A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91890E17-46EC-4E9F-B303-A845406D3965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="668">
   <si>
     <t>taxon</t>
   </si>
@@ -2012,6 +2012,18 @@
   </si>
   <si>
     <t>www/media/mangora_acalypha.webp</t>
+  </si>
+  <si>
+    <t>www/media/nuctenea_umbratica.webp</t>
+  </si>
+  <si>
+    <t>www/media/zilla_diodia_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/zilla_diodia_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/zygiella_x-notata.webp</t>
   </si>
 </sst>
 </file>
@@ -2408,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2751,6 +2763,9 @@
       <c r="A57" t="s">
         <v>56</v>
       </c>
+      <c r="C57" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -2766,6 +2781,12 @@
       <c r="A60" t="s">
         <v>59</v>
       </c>
+      <c r="B60" t="s">
+        <v>665</v>
+      </c>
+      <c r="C60" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -2775,6 +2796,9 @@
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91890E17-46EC-4E9F-B303-A845406D3965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437E93AE-AAD6-4275-BDF3-6CBA7533A4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="680">
   <si>
     <t>taxon</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Cyclosa oculata</t>
   </si>
   <si>
-    <t>Gibbaranea</t>
-  </si>
-  <si>
     <t>Gibbaranea gibbosa</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>Cheiracanthium elegans</t>
   </si>
   <si>
-    <t>Cheiracanthium</t>
-  </si>
-  <si>
     <t>Cheiracanthium mildei</t>
   </si>
   <si>
@@ -286,18 +280,12 @@
     <t>Clubiona trivialis</t>
   </si>
   <si>
-    <t>Porrhoclubiona</t>
-  </si>
-  <si>
     <t>Porrhoclubiona leucaspis</t>
   </si>
   <si>
     <t>Cryphoeca silvicola</t>
   </si>
   <si>
-    <t>Archaeodictyna</t>
-  </si>
-  <si>
     <t>Argenna patula</t>
   </si>
   <si>
@@ -406,9 +394,6 @@
     <t>Haplodrassus cognatus</t>
   </si>
   <si>
-    <t>Haplodrassus</t>
-  </si>
-  <si>
     <t>Haplodrassus kulczynskii</t>
   </si>
   <si>
@@ -457,9 +442,6 @@
     <t>Phaeocedus braccatus</t>
   </si>
   <si>
-    <t>Poecilochroa</t>
-  </si>
-  <si>
     <t>Poecilochroa variana</t>
   </si>
   <si>
@@ -574,9 +556,6 @@
     <t>Baryphyma trifrons</t>
   </si>
   <si>
-    <t>Bathyphantes</t>
-  </si>
-  <si>
     <t>Bathyphantes gracilis</t>
   </si>
   <si>
@@ -709,9 +688,6 @@
     <t>Gonatium rubens</t>
   </si>
   <si>
-    <t>Gongylidiellum</t>
-  </si>
-  <si>
     <t>Gongylidiellum vivum</t>
   </si>
   <si>
@@ -724,9 +700,6 @@
     <t>Hylyphantes nigritus</t>
   </si>
   <si>
-    <t>Hypomma</t>
-  </si>
-  <si>
     <t>Hypomma cornutum</t>
   </si>
   <si>
@@ -769,9 +742,6 @@
     <t>Macrargus rufus</t>
   </si>
   <si>
-    <t>Mansuphantes</t>
-  </si>
-  <si>
     <t>Maso gallicus</t>
   </si>
   <si>
@@ -781,24 +751,15 @@
     <t>Mecopisthes silus</t>
   </si>
   <si>
-    <t>Megalepthyphantes</t>
-  </si>
-  <si>
     <t>Mermessus trilobatus</t>
   </si>
   <si>
-    <t>Metopobactrus</t>
-  </si>
-  <si>
     <t>Micrargus herbigradus</t>
   </si>
   <si>
     <t>Micrargus subaequalis</t>
   </si>
   <si>
-    <t>Microctenonyx</t>
-  </si>
-  <si>
     <t>Microlinyphia impigra</t>
   </si>
   <si>
@@ -823,15 +784,9 @@
     <t>Moebelia penicillata</t>
   </si>
   <si>
-    <t>Monocephalus</t>
-  </si>
-  <si>
     <t>Monocephalus fuscipes</t>
   </si>
   <si>
-    <t>Nematogmus</t>
-  </si>
-  <si>
     <t>Neriene clathrata</t>
   </si>
   <si>
@@ -895,9 +850,6 @@
     <t>Panamomops sulcifrons</t>
   </si>
   <si>
-    <t>Parapelecopsis</t>
-  </si>
-  <si>
     <t>Pelecopsis parallela</t>
   </si>
   <si>
@@ -925,9 +877,6 @@
     <t>Porrhomma egeria</t>
   </si>
   <si>
-    <t>Porrhomma</t>
-  </si>
-  <si>
     <t>Porrhomma oblitum</t>
   </si>
   <si>
@@ -937,9 +886,6 @@
     <t>Prinerigone vagans</t>
   </si>
   <si>
-    <t>Pseudomaro</t>
-  </si>
-  <si>
     <t>Saaristoa abnormis</t>
   </si>
   <si>
@@ -1003,9 +949,6 @@
     <t>Tenuiphantes mengei</t>
   </si>
   <si>
-    <t>Tenuiphantes</t>
-  </si>
-  <si>
     <t>Tenuiphantes tenuis</t>
   </si>
   <si>
@@ -1015,9 +958,6 @@
     <t>Tiso vagans</t>
   </si>
   <si>
-    <t>Trematocephalus</t>
-  </si>
-  <si>
     <t>Trichoncus affinis</t>
   </si>
   <si>
@@ -1033,9 +973,6 @@
     <t>Trichopternoides thorelli</t>
   </si>
   <si>
-    <t>Troglohyphantes</t>
-  </si>
-  <si>
     <t>Troxochrus scabriculus</t>
   </si>
   <si>
@@ -1054,9 +991,6 @@
     <t>Walckenaeria capito</t>
   </si>
   <si>
-    <t>Walckenaeria</t>
-  </si>
-  <si>
     <t>Walckenaeria cucullata</t>
   </si>
   <si>
@@ -1159,9 +1093,6 @@
     <t>Hogna radiata</t>
   </si>
   <si>
-    <t>Hygrolycosa</t>
-  </si>
-  <si>
     <t>Pardosa agrestis</t>
   </si>
   <si>
@@ -1273,9 +1204,6 @@
     <t>Nesticus cellulanus</t>
   </si>
   <si>
-    <t>Ischnothyreus</t>
-  </si>
-  <si>
     <t>Oonops domesticus</t>
   </si>
   <si>
@@ -1288,9 +1216,6 @@
     <t>Triaeris stenaspis</t>
   </si>
   <si>
-    <t>Oxyopes</t>
-  </si>
-  <si>
     <t>Oxyopes lineatus</t>
   </si>
   <si>
@@ -1315,9 +1240,6 @@
     <t>Philodromus dispar</t>
   </si>
   <si>
-    <t>Philodromus</t>
-  </si>
-  <si>
     <t>Philodromus longipalpis</t>
   </si>
   <si>
@@ -1333,9 +1255,6 @@
     <t>Philodromus rufus</t>
   </si>
   <si>
-    <t>Pulchellodromus</t>
-  </si>
-  <si>
     <t>Rhysodromus histrio</t>
   </si>
   <si>
@@ -1411,9 +1330,6 @@
     <t>Ballus rufipes</t>
   </si>
   <si>
-    <t>Carrhotus</t>
-  </si>
-  <si>
     <t>Chalcoscirtus infimus</t>
   </si>
   <si>
@@ -1459,9 +1375,6 @@
     <t>Icius subinermis</t>
   </si>
   <si>
-    <t>Leptorchestes</t>
-  </si>
-  <si>
     <t>Marpissa muscosa</t>
   </si>
   <si>
@@ -1666,9 +1579,6 @@
     <t>Enoplognatha ovata</t>
   </si>
   <si>
-    <t>Enoplognatha</t>
-  </si>
-  <si>
     <t>Enoplognatha mordax</t>
   </si>
   <si>
@@ -1696,9 +1606,6 @@
     <t>Euryopis quinqueguttata</t>
   </si>
   <si>
-    <t>Heterotheridion</t>
-  </si>
-  <si>
     <t>Kochiura aulica</t>
   </si>
   <si>
@@ -1723,9 +1630,6 @@
     <t>Parasteatoda simulans</t>
   </si>
   <si>
-    <t>Parasteatoda</t>
-  </si>
-  <si>
     <t>Pholcomma gibbum</t>
   </si>
   <si>
@@ -1810,9 +1714,6 @@
     <t>Theridion varians</t>
   </si>
   <si>
-    <t>Theridiosoma</t>
-  </si>
-  <si>
     <t>Bassaniodes robustus</t>
   </si>
   <si>
@@ -2020,10 +1921,145 @@
     <t>www/media/zilla_diodia_male.webp</t>
   </si>
   <si>
+    <t>www/media/cheiracanthium_mildei_male.webp</t>
+  </si>
+  <si>
     <t>www/media/zilla_diodia_femelle.webp</t>
   </si>
   <si>
     <t>www/media/zygiella_x-notata.webp</t>
+  </si>
+  <si>
+    <t>Gibbaranea bituberculata</t>
+  </si>
+  <si>
+    <t>Cheiracanthium erraticum</t>
+  </si>
+  <si>
+    <t>Cheiracanthium punctorium</t>
+  </si>
+  <si>
+    <t>Cheiracanthium virescens</t>
+  </si>
+  <si>
+    <t>Porrhoclubiona genevensis</t>
+  </si>
+  <si>
+    <t>Archaeodictyna ammophila</t>
+  </si>
+  <si>
+    <t>Haplodrassus dalmatensis</t>
+  </si>
+  <si>
+    <t>Poecilochroa albomaculata</t>
+  </si>
+  <si>
+    <t>Bathyphantes approximatus</t>
+  </si>
+  <si>
+    <t>Gongylidiellum latebricola</t>
+  </si>
+  <si>
+    <t>Gongylidiellum murcidum</t>
+  </si>
+  <si>
+    <t>Hypomma bituberculatum</t>
+  </si>
+  <si>
+    <t>Mansuphantes mansuetus</t>
+  </si>
+  <si>
+    <t>Megalepthyphantes nebulosus</t>
+  </si>
+  <si>
+    <t>Metopobactrus prominulus</t>
+  </si>
+  <si>
+    <t>Microctenonyx subitaneus</t>
+  </si>
+  <si>
+    <t>Monocephalus castaneipes</t>
+  </si>
+  <si>
+    <t>Nematogmus sanguinolentus</t>
+  </si>
+  <si>
+    <t>Parapelecopsis nemoralis</t>
+  </si>
+  <si>
+    <t>Porrhomma microphthalmum</t>
+  </si>
+  <si>
+    <t>Pseudomaro aenigmaticus</t>
+  </si>
+  <si>
+    <t>Tenuiphantes tenebricola</t>
+  </si>
+  <si>
+    <t>Tenuiphantes zimmermanni</t>
+  </si>
+  <si>
+    <t>Trematocephalus cristatus</t>
+  </si>
+  <si>
+    <t>Troglohyphantes lucifuga</t>
+  </si>
+  <si>
+    <t>Walckenaeria corniculans</t>
+  </si>
+  <si>
+    <t>Walckenaeria dysderoides</t>
+  </si>
+  <si>
+    <t>Walckenaeria monoceros</t>
+  </si>
+  <si>
+    <t>Hygrolycosa rubrofasciata</t>
+  </si>
+  <si>
+    <t>Ischnothyreus lymphaseus</t>
+  </si>
+  <si>
+    <t>Oxyopes heterophthalmus</t>
+  </si>
+  <si>
+    <t>Philodromus emarginatus</t>
+  </si>
+  <si>
+    <t>Philodromus margaritatus</t>
+  </si>
+  <si>
+    <t>Pulchellodromus bistigma</t>
+  </si>
+  <si>
+    <t>Pulchellodromus pulchellus</t>
+  </si>
+  <si>
+    <t>Carrhotus xanthogramma</t>
+  </si>
+  <si>
+    <t>Leptorchestes berolinensis</t>
+  </si>
+  <si>
+    <t>Enoplognatha mandibularis</t>
+  </si>
+  <si>
+    <t>Heterotheridion nigrovariegatum</t>
+  </si>
+  <si>
+    <t>Parasteatoda tepidariorum</t>
+  </si>
+  <si>
+    <t>Theridiosoma gemmosum</t>
+  </si>
+  <si>
+    <t>www/media/clubiona_comta.webp</t>
+  </si>
+  <si>
+    <t>www/media/porrhoclubiona_leucaspis.webp</t>
+  </si>
+  <si>
+    <t>www/media/cheiracanthium_mildei_femelle.webp</t>
   </si>
 </sst>
 </file>
@@ -2420,8 +2456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2436,10 +2472,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>648</v>
+        <v>615</v>
       </c>
       <c r="C1" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2447,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2545,7 +2581,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2558,7 +2594,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2596,7 +2632,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>650</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2604,7 +2640,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2612,10 +2648,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>652</v>
+        <v>619</v>
       </c>
       <c r="C32" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2648,7 +2684,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2656,7 +2692,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2664,7 +2700,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2674,84 +2710,84 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>636</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2761,3016 +2797,3028 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>665</v>
+        <v>632</v>
       </c>
       <c r="C60" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>667</v>
+        <v>635</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B67" t="s">
+        <v>633</v>
+      </c>
+      <c r="C67" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="C73" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="C92" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>642</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>643</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>184</v>
+        <v>644</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>229</v>
+        <v>645</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>229</v>
+        <v>646</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>234</v>
+        <v>647</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>249</v>
+        <v>648</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>253</v>
+        <v>649</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>255</v>
+        <v>650</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>258</v>
+        <v>651</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>267</v>
+        <v>652</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>269</v>
+        <v>653</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>291</v>
+        <v>654</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>301</v>
+        <v>655</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>305</v>
+        <v>656</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>327</v>
+        <v>657</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>327</v>
+        <v>658</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>647</v>
+        <v>614</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>331</v>
+        <v>659</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>337</v>
+        <v>660</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>344</v>
+        <v>661</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>344</v>
+        <v>662</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>344</v>
+        <v>663</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>379</v>
+        <v>664</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>417</v>
+        <v>665</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>422</v>
+        <v>666</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>431</v>
+        <v>667</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>431</v>
+        <v>668</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>437</v>
+        <v>669</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>437</v>
+        <v>670</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>463</v>
+        <v>671</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>479</v>
+        <v>672</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>496</v>
+        <v>467</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>498</v>
+        <v>469</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>509</v>
+        <v>480</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>510</v>
+        <v>481</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>511</v>
+        <v>482</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>512</v>
+        <v>483</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>548</v>
+        <v>673</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>558</v>
+        <v>674</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>559</v>
+        <v>528</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>560</v>
+        <v>529</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>563</v>
+        <v>532</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>567</v>
+        <v>675</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>570</v>
+        <v>538</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>571</v>
+        <v>539</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>572</v>
+        <v>540</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>573</v>
+        <v>541</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>574</v>
+        <v>542</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>575</v>
+        <v>543</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>576</v>
+        <v>544</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>577</v>
+        <v>545</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>581</v>
+        <v>549</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>582</v>
+        <v>550</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>584</v>
+        <v>552</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>587</v>
+        <v>555</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>588</v>
+        <v>556</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>589</v>
+        <v>557</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>590</v>
+        <v>558</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>591</v>
+        <v>559</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>592</v>
+        <v>560</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>593</v>
+        <v>561</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>595</v>
+        <v>563</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>596</v>
+        <v>676</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>598</v>
+        <v>565</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>599</v>
+        <v>566</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>600</v>
+        <v>567</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>601</v>
+        <v>568</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>603</v>
+        <v>570</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>604</v>
+        <v>571</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>605</v>
+        <v>572</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>606</v>
+        <v>573</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>607</v>
+        <v>574</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>608</v>
+        <v>575</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>609</v>
+        <v>576</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>610</v>
+        <v>577</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>612</v>
+        <v>579</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>613</v>
+        <v>580</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>616</v>
+        <v>583</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>617</v>
+        <v>584</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>619</v>
+        <v>586</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>620</v>
+        <v>587</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>622</v>
+        <v>589</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>629</v>
+        <v>596</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>630</v>
+        <v>597</v>
       </c>
       <c r="C640" s="1"/>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>631</v>
+        <v>598</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>632</v>
+        <v>599</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>633</v>
+        <v>600</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>634</v>
+        <v>601</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>635</v>
+        <v>602</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>637</v>
+        <v>604</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>638</v>
+        <v>605</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>641</v>
+        <v>608</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>642</v>
+        <v>609</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>644</v>
+        <v>611</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>645</v>
+        <v>612</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437E93AE-AAD6-4275-BDF3-6CBA7533A4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94EB137-3701-4BB4-8BB6-C84FFF8CD15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="684">
   <si>
     <t>taxon</t>
   </si>
@@ -2060,6 +2060,18 @@
   </si>
   <si>
     <t>www/media/cheiracanthium_mildei_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/brigittea_civica.webp</t>
+  </si>
+  <si>
+    <t>www/media/nigma_walckenaeri.webp</t>
+  </si>
+  <si>
+    <t>www/media/nigma_flavescens_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/nigma_flavescens_femelle.webp</t>
   </si>
 </sst>
 </file>
@@ -2456,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3020,82 +3032,94 @@
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>682</v>
+      </c>
+      <c r="C105" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>105</v>
       </c>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94EB137-3701-4BB4-8BB6-C84FFF8CD15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10370142-99BF-406A-B2A1-2F859EA60E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="691">
   <si>
     <t>taxon</t>
   </si>
@@ -2071,7 +2071,28 @@
     <t>www/media/nigma_flavescens_male.webp</t>
   </si>
   <si>
+    <t>www/media/harpactea_hombergi_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/eresus_kollari_male.webp</t>
+  </si>
+  <si>
     <t>www/media/nigma_flavescens_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/dysdera_crocata_femelle.webp</t>
+  </si>
+  <si>
+    <t>id à vue</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -2095,12 +2116,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2116,9 +2143,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2138,10 +2166,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}" name="Tableau1" displayName="Tableau1" ref="A1:C656" totalsRowShown="0">
-  <autoFilter ref="A1:C656" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}" name="Tableau1" displayName="Tableau1" ref="A1:D656" totalsRowShown="0">
+  <autoFilter ref="A1:D656" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8CF3FEBE-EC73-416E-8610-F705B8D6D336}" name="taxon"/>
+    <tableColumn id="4" xr3:uid="{666FCC22-DD53-4830-B712-02B264DDA363}" name="id à vue"/>
     <tableColumn id="2" xr3:uid="{DBDA5D0E-A4B2-4E10-A6AF-85502F963E80}" name="male"/>
     <tableColumn id="3" xr3:uid="{84160676-7B2A-4A0C-94B1-2901F12B1A91}" name="femelle"/>
   </tableColumns>
@@ -2466,3383 +2495,5361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C656"/>
+  <dimension ref="A1:D656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B226" sqref="B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C1" t="s">
         <v>615</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
+        <v>688</v>
+      </c>
+      <c r="D2" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s">
+        <v>688</v>
+      </c>
+      <c r="D21" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s">
+        <v>688</v>
+      </c>
+      <c r="D23" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s">
+        <v>688</v>
+      </c>
+      <c r="D30" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s">
+        <v>688</v>
+      </c>
+      <c r="D31" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
+        <v>688</v>
+      </c>
+      <c r="C32" t="s">
         <v>619</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B38" t="s">
+        <v>688</v>
+      </c>
+      <c r="D38" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
+        <v>688</v>
+      </c>
+      <c r="C39" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B40" t="s">
+        <v>688</v>
+      </c>
+      <c r="D40" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B43" t="s">
+        <v>688</v>
+      </c>
+      <c r="D43" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B49" t="s">
+        <v>688</v>
+      </c>
+      <c r="D49" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B51" t="s">
+        <v>688</v>
+      </c>
+      <c r="D51" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B55" t="s">
+        <v>688</v>
+      </c>
+      <c r="D55" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B57" t="s">
+        <v>688</v>
+      </c>
+      <c r="D57" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>688</v>
+      </c>
+      <c r="C60" t="s">
         <v>632</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="C62" t="s">
+      <c r="B62" t="s">
+        <v>688</v>
+      </c>
+      <c r="D62" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
       <c r="B67" t="s">
+        <v>688</v>
+      </c>
+      <c r="C67" t="s">
         <v>633</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>68</v>
       </c>
-      <c r="C73" t="s">
+      <c r="B73" t="s">
+        <v>688</v>
+      </c>
+      <c r="D73" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>689</v>
+      </c>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>86</v>
       </c>
-      <c r="C92" t="s">
+      <c r="B92" t="s">
+        <v>688</v>
+      </c>
+      <c r="D92" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>91</v>
       </c>
       <c r="B98" t="s">
+        <v>688</v>
+      </c>
+      <c r="C98" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>98</v>
       </c>
       <c r="B105" t="s">
+        <v>688</v>
+      </c>
+      <c r="C105" t="s">
         <v>682</v>
       </c>
-      <c r="C105" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>100</v>
       </c>
-      <c r="C107" t="s">
+      <c r="B107" t="s">
+        <v>688</v>
+      </c>
+      <c r="D107" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>688</v>
+      </c>
+      <c r="D108" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>688</v>
+      </c>
+      <c r="C111" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>688</v>
+      </c>
+      <c r="C113" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B341" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B356" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B361" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B365" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B368" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B371" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B379" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B380" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B381" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B383" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B386" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B393" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B395" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B397" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B398" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B400" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B401" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B402" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B403" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B404" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B405" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B406" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B407" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B408" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B409" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B410" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B411" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B412" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B413" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B414" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B415" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B416" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B417" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B418" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B419" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B420" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B421" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B422" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B423" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B424" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B425" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B426" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B427" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B428" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B429" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B430" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B431" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B432" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B433" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B434" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B435" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B436" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B437" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B438" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B439" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B440" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B441" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B442" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B443" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B444" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B445" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B446" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B447" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B448" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B449" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B450" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B451" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B452" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B453" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B454" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B455" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B456" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B457" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B458" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B459" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B460" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B461" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B462" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B463" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B464" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B465" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B466" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B467" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B468" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B469" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B470" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B471" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B472" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B473" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B474" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B475" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B476" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B477" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B478" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B479" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B480" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B481" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B482" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B483" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B484" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B485" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B486" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B487" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B488" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B489" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B490" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B491" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B492" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B493" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B494" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B495" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B496" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B497" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B498" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B499" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B500" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B501" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B502" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B503" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B504" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B505" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B506" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B507" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B508" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B509" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B510" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B511" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B512" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B513" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B514" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B515" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B516" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B517" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B518" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B519" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B520" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B521" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B522" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B523" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B524" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B525" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B526" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B527" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B528" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B529" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B530" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B531" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B532" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B533" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B534" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B535" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B536" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B537" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B538" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B539" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B540" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B541" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B542" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B543" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B544" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B545" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B546" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B547" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B548" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B549" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B550" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B551" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B552" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B553" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B554" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B555" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B556" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B557" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B558" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B559" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B560" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B561" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B562" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B563" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B564" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B565" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B566" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B567" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B568" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B569" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B570" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B571" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B572" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B573" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B574" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B575" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B576" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B577" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B578" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B579" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B580" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B581" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B582" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B583" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B584" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B585" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B586" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B587" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B588" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B589" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B590" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B591" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B592" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B593" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B594" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B595" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B596" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B597" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B598" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B599" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B600" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B601" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B602" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B603" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B604" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B605" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B606" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B607" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B608" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B609" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B610" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B611" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B612" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B613" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B614" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B615" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B616" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B617" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B618" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B619" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B620" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B621" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B622" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B623" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B624" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B625" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B626" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B627" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B628" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B629" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B630" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B631" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B632" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B633" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B634" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B635" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B636" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B637" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B638" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B639" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>597</v>
       </c>
-      <c r="C640" s="1"/>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B640" t="s">
+        <v>689</v>
+      </c>
+      <c r="D640" s="1"/>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B641" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B642" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B643" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B644" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B645" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B646" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B647" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B648" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B649" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B650" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B651" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B652" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B653" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B654" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B655" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>613</v>
+      </c>
+      <c r="B656" t="s">
+        <v>688</v>
       </c>
     </row>
   </sheetData>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10370142-99BF-406A-B2A1-2F859EA60E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E222DA-559F-4DFB-9C36-972DEF3D07A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="692">
   <si>
     <t>taxon</t>
   </si>
@@ -1873,63 +1873,6 @@
     <t>femelle</t>
   </si>
   <si>
-    <t>www/media/araneus_diadematus.webp</t>
-  </si>
-  <si>
-    <t>www/media/araneus_marmoreus.webp</t>
-  </si>
-  <si>
-    <t>www/media/araneus_quadratus_male.webp</t>
-  </si>
-  <si>
-    <t>www/media/araneus_quadratus_femelle.webp</t>
-  </si>
-  <si>
-    <t>www/media/agelena_labyrinthica.webp</t>
-  </si>
-  <si>
-    <t>www/media/amaurobius_ferox.webp</t>
-  </si>
-  <si>
-    <t>www/media/anyphaena_accentuata.webp</t>
-  </si>
-  <si>
-    <t>www/media/argiope_bruennichi.webp</t>
-  </si>
-  <si>
-    <t>www/media/cercidia_prominens.webp</t>
-  </si>
-  <si>
-    <t>www/media/cyclosa_conica.webp</t>
-  </si>
-  <si>
-    <t>www/media/gibbaranea_gibbosa.webp</t>
-  </si>
-  <si>
-    <t>www/media/larinioides_cornutus.webp</t>
-  </si>
-  <si>
-    <t>www/media/larinioides_sclopetarius.webp</t>
-  </si>
-  <si>
-    <t>www/media/mangora_acalypha.webp</t>
-  </si>
-  <si>
-    <t>www/media/nuctenea_umbratica.webp</t>
-  </si>
-  <si>
-    <t>www/media/zilla_diodia_male.webp</t>
-  </si>
-  <si>
-    <t>www/media/cheiracanthium_mildei_male.webp</t>
-  </si>
-  <si>
-    <t>www/media/zilla_diodia_femelle.webp</t>
-  </si>
-  <si>
-    <t>www/media/zygiella_x-notata.webp</t>
-  </si>
-  <si>
     <t>Gibbaranea bituberculata</t>
   </si>
   <si>
@@ -2053,36 +1996,6 @@
     <t>Theridiosoma gemmosum</t>
   </si>
   <si>
-    <t>www/media/clubiona_comta.webp</t>
-  </si>
-  <si>
-    <t>www/media/porrhoclubiona_leucaspis.webp</t>
-  </si>
-  <si>
-    <t>www/media/cheiracanthium_mildei_femelle.webp</t>
-  </si>
-  <si>
-    <t>www/media/brigittea_civica.webp</t>
-  </si>
-  <si>
-    <t>www/media/nigma_walckenaeri.webp</t>
-  </si>
-  <si>
-    <t>www/media/nigma_flavescens_male.webp</t>
-  </si>
-  <si>
-    <t>www/media/harpactea_hombergi_male.webp</t>
-  </si>
-  <si>
-    <t>www/media/eresus_kollari_male.webp</t>
-  </si>
-  <si>
-    <t>www/media/nigma_flavescens_femelle.webp</t>
-  </si>
-  <si>
-    <t>www/media/dysdera_crocata_femelle.webp</t>
-  </si>
-  <si>
     <t>id à vue</t>
   </si>
   <si>
@@ -2093,6 +2006,96 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>www/media/fiches/agelena_labyrinthica.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/amaurobius_ferox.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/anyphaena_accentuata.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/araneus_diadematus.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/araneus_marmoreus.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/araneus_quadratus_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/araneus_quadratus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/argiope_bruennichi.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/cercidia_prominens.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/cyclosa_conica.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/gibbaranea_gibbosa.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/larinioides_cornutus.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/larinioides_sclopetarius.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/mangora_acalypha.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/nuctenea_umbratica.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/zilla_diodia_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/zilla_diodia_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/zygiella_x-notata.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/cheiracanthium_mildei_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/cheiracanthium_mildei_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/clubiona_comta.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/porrhoclubiona_leucaspis.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/brigittea_civica.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/nigma_flavescens_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/nigma_flavescens_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/nigma_walckenaeri.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/dysdera_crocata_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/harpactea_hombergi_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/eresus_kollari_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/frontinellina_frutetorum.webp</t>
   </si>
 </sst>
 </file>
@@ -2167,7 +2170,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}" name="Tableau1" displayName="Tableau1" ref="A1:D656" totalsRowShown="0">
-  <autoFilter ref="A1:D656" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}"/>
+  <autoFilter ref="A1:D656" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="?"/>
+        <filter val="oui"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8CF3FEBE-EC73-416E-8610-F705B8D6D336}" name="taxon"/>
     <tableColumn id="4" xr3:uid="{666FCC22-DD53-4830-B712-02B264DDA363}" name="id à vue"/>
@@ -2497,8 +2507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>687</v>
+        <v>658</v>
       </c>
       <c r="C1" t="s">
         <v>615</v>
@@ -2528,10 +2538,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="D2" t="s">
-        <v>621</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2539,95 +2549,95 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2635,23 +2645,23 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2659,7 +2669,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2667,7 +2677,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>690</v>
+        <v>661</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2675,7 +2685,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2683,10 +2693,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="D21" t="s">
-        <v>622</v>
+        <v>663</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2694,7 +2704,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2702,26 +2712,26 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="D23" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2729,7 +2739,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2737,7 +2747,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2745,7 +2755,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2753,7 +2763,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2761,10 +2771,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="D30" t="s">
-        <v>617</v>
+        <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2772,10 +2782,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="D31" t="s">
-        <v>618</v>
+        <v>666</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2783,53 +2793,53 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="C32" t="s">
-        <v>619</v>
+        <v>667</v>
       </c>
       <c r="D32" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2837,10 +2847,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="D38" t="s">
-        <v>624</v>
+        <v>669</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2848,10 +2858,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="C39" t="s">
-        <v>625</v>
+        <v>670</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2859,10 +2869,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="D40" t="s">
-        <v>626</v>
+        <v>671</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2870,15 +2880,15 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="B42" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2886,18 +2896,18 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="D43" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2905,31 +2915,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2937,18 +2947,18 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="D49" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2956,34 +2966,34 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="D51" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2991,10 +3001,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="D55" t="s">
-        <v>630</v>
+        <v>675</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3002,7 +3012,7 @@
         <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3010,10 +3020,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="D57" t="s">
-        <v>631</v>
+        <v>676</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3021,7 +3031,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3029,7 +3039,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3037,13 +3047,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="C60" t="s">
-        <v>632</v>
+        <v>677</v>
       </c>
       <c r="D60" t="s">
-        <v>634</v>
+        <v>678</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3051,7 +3061,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3059,10 +3069,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="D62" t="s">
-        <v>635</v>
+        <v>679</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3070,7 +3080,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3078,7 +3088,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3086,15 +3096,15 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="B66" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3102,53 +3112,53 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="C67" t="s">
-        <v>633</v>
+        <v>680</v>
       </c>
       <c r="D67" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="B69" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="B70" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3156,10 +3166,10 @@
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="D73" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3167,144 +3177,144 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>84</v>
       </c>
       <c r="B89" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="B91" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3312,42 +3322,42 @@
         <v>86</v>
       </c>
       <c r="B92" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="D92" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>87</v>
       </c>
       <c r="B93" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="B94" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3355,7 +3365,7 @@
         <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3363,58 +3373,58 @@
         <v>91</v>
       </c>
       <c r="B98" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="C98" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3422,13 +3432,13 @@
         <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="C105" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D105" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3436,7 +3446,7 @@
         <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3444,10 +3454,10 @@
         <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="D107" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3455,10 +3465,10 @@
         <v>101</v>
       </c>
       <c r="B108" t="s">
+        <v>659</v>
+      </c>
+      <c r="D108" t="s">
         <v>688</v>
-      </c>
-      <c r="D108" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3466,15 +3476,15 @@
         <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>103</v>
       </c>
       <c r="B110" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3482,10 +3492,10 @@
         <v>104</v>
       </c>
       <c r="B111" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="C111" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3493,7 +3503,7 @@
         <v>105</v>
       </c>
       <c r="B112" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3501,10 +3511,10 @@
         <v>106</v>
       </c>
       <c r="B113" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="C113" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3512,7 +3522,7 @@
         <v>107</v>
       </c>
       <c r="B114" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3520,167 +3530,167 @@
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>110</v>
       </c>
       <c r="B116" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>111</v>
       </c>
       <c r="B117" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>112</v>
       </c>
       <c r="B118" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>113</v>
       </c>
       <c r="B119" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>114</v>
       </c>
       <c r="B120" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>115</v>
       </c>
       <c r="B121" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>116</v>
       </c>
       <c r="B122" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>117</v>
       </c>
       <c r="B123" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>118</v>
       </c>
       <c r="B124" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>119</v>
       </c>
       <c r="B125" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>120</v>
       </c>
       <c r="B126" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>121</v>
       </c>
       <c r="B127" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>122</v>
       </c>
       <c r="B128" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>123</v>
       </c>
       <c r="B129" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="B130" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>124</v>
       </c>
       <c r="B131" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>125</v>
       </c>
       <c r="B132" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>126</v>
       </c>
       <c r="B133" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>127</v>
       </c>
       <c r="B134" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>128</v>
       </c>
       <c r="B135" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3688,15 +3698,15 @@
         <v>129</v>
       </c>
       <c r="B136" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>130</v>
       </c>
       <c r="B137" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3704,15 +3714,15 @@
         <v>131</v>
       </c>
       <c r="B138" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>132</v>
       </c>
       <c r="B139" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3720,7 +3730,7 @@
         <v>133</v>
       </c>
       <c r="B140" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3728,39 +3738,39 @@
         <v>134</v>
       </c>
       <c r="B141" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>135</v>
       </c>
       <c r="B142" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>136</v>
       </c>
       <c r="B143" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>137</v>
       </c>
       <c r="B144" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>138</v>
       </c>
       <c r="B145" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3768,7 +3778,7 @@
         <v>108</v>
       </c>
       <c r="B146" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3776,15 +3786,15 @@
         <v>139</v>
       </c>
       <c r="B147" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="B148" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3792,7 +3802,7 @@
         <v>140</v>
       </c>
       <c r="B149" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3800,15 +3810,15 @@
         <v>141</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>142</v>
       </c>
       <c r="B151" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3816,79 +3826,79 @@
         <v>143</v>
       </c>
       <c r="B152" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>144</v>
       </c>
       <c r="B153" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>145</v>
       </c>
       <c r="B154" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>146</v>
       </c>
       <c r="B155" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>147</v>
       </c>
       <c r="B156" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>148</v>
       </c>
       <c r="B157" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>149</v>
       </c>
       <c r="B158" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>150</v>
       </c>
       <c r="B159" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>151</v>
       </c>
       <c r="B160" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>152</v>
       </c>
       <c r="B161" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3896,703 +3906,706 @@
         <v>153</v>
       </c>
       <c r="B162" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>154</v>
       </c>
       <c r="B163" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>155</v>
       </c>
       <c r="B164" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>156</v>
       </c>
       <c r="B165" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>157</v>
       </c>
       <c r="B166" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>158</v>
       </c>
       <c r="B167" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>159</v>
       </c>
       <c r="B168" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>160</v>
       </c>
       <c r="B169" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>161</v>
       </c>
       <c r="B170" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>162</v>
       </c>
       <c r="B171" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>163</v>
       </c>
       <c r="B172" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>164</v>
       </c>
       <c r="B173" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>165</v>
       </c>
       <c r="B174" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>166</v>
       </c>
       <c r="B175" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>167</v>
       </c>
       <c r="B176" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>168</v>
       </c>
       <c r="B177" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>169</v>
       </c>
       <c r="B178" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>170</v>
       </c>
       <c r="B179" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>171</v>
       </c>
       <c r="B180" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>172</v>
       </c>
       <c r="B181" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>173</v>
       </c>
       <c r="B182" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>174</v>
       </c>
       <c r="B183" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>175</v>
       </c>
       <c r="B184" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>176</v>
       </c>
       <c r="B185" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>177</v>
       </c>
       <c r="B186" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="B187" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>178</v>
       </c>
       <c r="B188" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>179</v>
       </c>
       <c r="B189" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>180</v>
       </c>
       <c r="B190" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>181</v>
       </c>
       <c r="B191" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>182</v>
       </c>
       <c r="B192" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>183</v>
       </c>
       <c r="B193" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>184</v>
       </c>
       <c r="B194" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>185</v>
       </c>
       <c r="B195" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>186</v>
       </c>
       <c r="B196" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>187</v>
       </c>
       <c r="B197" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>188</v>
       </c>
       <c r="B198" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>189</v>
       </c>
       <c r="B199" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>190</v>
       </c>
       <c r="B200" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>191</v>
       </c>
       <c r="B201" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>192</v>
       </c>
       <c r="B202" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>193</v>
       </c>
       <c r="B203" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>194</v>
       </c>
       <c r="B204" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>195</v>
       </c>
       <c r="B205" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>196</v>
       </c>
       <c r="B206" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>197</v>
       </c>
       <c r="B207" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>198</v>
       </c>
       <c r="B208" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>199</v>
       </c>
       <c r="B209" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>200</v>
       </c>
       <c r="B210" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>201</v>
       </c>
       <c r="B211" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>202</v>
       </c>
       <c r="B212" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>203</v>
       </c>
       <c r="B213" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>204</v>
       </c>
       <c r="B214" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>205</v>
       </c>
       <c r="B215" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>206</v>
       </c>
       <c r="B216" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>207</v>
       </c>
       <c r="B217" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>208</v>
       </c>
       <c r="B218" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>209</v>
       </c>
       <c r="B219" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>210</v>
       </c>
       <c r="B220" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>211</v>
       </c>
       <c r="B221" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>212</v>
       </c>
       <c r="B222" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>213</v>
       </c>
       <c r="B223" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>214</v>
       </c>
       <c r="B224" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>215</v>
       </c>
       <c r="B225" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>216</v>
       </c>
       <c r="B226" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+      <c r="C226" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>217</v>
       </c>
       <c r="B227" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>218</v>
       </c>
       <c r="B228" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>219</v>
       </c>
       <c r="B229" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>220</v>
       </c>
       <c r="B230" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>221</v>
       </c>
       <c r="B231" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="B232" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="B233" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>222</v>
       </c>
       <c r="B234" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>223</v>
       </c>
       <c r="B235" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>224</v>
       </c>
       <c r="B236" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>225</v>
       </c>
       <c r="B237" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="B238" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>226</v>
       </c>
       <c r="B239" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>227</v>
       </c>
       <c r="B240" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>228</v>
       </c>
       <c r="B241" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>229</v>
       </c>
       <c r="B242" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>230</v>
       </c>
       <c r="B243" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>231</v>
       </c>
       <c r="B244" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>232</v>
       </c>
       <c r="B245" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>233</v>
       </c>
       <c r="B246" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>234</v>
       </c>
       <c r="B247" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>235</v>
       </c>
       <c r="B248" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>236</v>
       </c>
       <c r="B249" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -4600,199 +4613,199 @@
         <v>237</v>
       </c>
       <c r="B250" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>238</v>
       </c>
       <c r="B251" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>239</v>
       </c>
       <c r="B252" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="B253" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>240</v>
       </c>
       <c r="B254" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>241</v>
       </c>
       <c r="B255" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>242</v>
       </c>
       <c r="B256" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="B257" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>243</v>
       </c>
       <c r="B258" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="B259" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>244</v>
       </c>
       <c r="B260" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>245</v>
       </c>
       <c r="B261" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="B262" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>246</v>
       </c>
       <c r="B263" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>247</v>
       </c>
       <c r="B264" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>248</v>
       </c>
       <c r="B265" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>249</v>
       </c>
       <c r="B266" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>250</v>
       </c>
       <c r="B267" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>251</v>
       </c>
       <c r="B268" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>252</v>
       </c>
       <c r="B269" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>253</v>
       </c>
       <c r="B270" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="B271" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>254</v>
       </c>
       <c r="B272" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="B273" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>255</v>
       </c>
       <c r="B274" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4800,23 +4813,23 @@
         <v>256</v>
       </c>
       <c r="B275" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>257</v>
       </c>
       <c r="B276" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>258</v>
       </c>
       <c r="B277" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4824,15 +4837,15 @@
         <v>259</v>
       </c>
       <c r="B278" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>260</v>
       </c>
       <c r="B279" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -4840,55 +4853,55 @@
         <v>261</v>
       </c>
       <c r="B280" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>262</v>
       </c>
       <c r="B281" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>263</v>
       </c>
       <c r="B282" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>264</v>
       </c>
       <c r="B283" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>265</v>
       </c>
       <c r="B284" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>266</v>
       </c>
       <c r="B285" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>267</v>
       </c>
       <c r="B286" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -4896,463 +4909,463 @@
         <v>268</v>
       </c>
       <c r="B287" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>269</v>
       </c>
       <c r="B288" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>270</v>
       </c>
       <c r="B289" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>271</v>
       </c>
       <c r="B290" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>272</v>
       </c>
       <c r="B291" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>273</v>
       </c>
       <c r="B292" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>274</v>
       </c>
       <c r="B293" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>275</v>
       </c>
       <c r="B294" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="B295" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>276</v>
       </c>
       <c r="B296" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>277</v>
       </c>
       <c r="B297" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>278</v>
       </c>
       <c r="B298" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>279</v>
       </c>
       <c r="B299" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>280</v>
       </c>
       <c r="B300" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>281</v>
       </c>
       <c r="B301" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>282</v>
       </c>
       <c r="B302" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>283</v>
       </c>
       <c r="B303" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>284</v>
       </c>
       <c r="B304" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="B305" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>285</v>
       </c>
       <c r="B306" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>286</v>
       </c>
       <c r="B307" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>287</v>
       </c>
       <c r="B308" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="B309" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>288</v>
       </c>
       <c r="B310" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>289</v>
       </c>
       <c r="B311" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>290</v>
       </c>
       <c r="B312" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>291</v>
       </c>
       <c r="B313" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>292</v>
       </c>
       <c r="B314" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>293</v>
       </c>
       <c r="B315" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>294</v>
       </c>
       <c r="B316" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>295</v>
       </c>
       <c r="B317" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>296</v>
       </c>
       <c r="B318" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>297</v>
       </c>
       <c r="B319" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>298</v>
       </c>
       <c r="B320" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>299</v>
       </c>
       <c r="B321" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>300</v>
       </c>
       <c r="B322" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>301</v>
       </c>
       <c r="B323" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>302</v>
       </c>
       <c r="B324" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>303</v>
       </c>
       <c r="B325" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>304</v>
       </c>
       <c r="B326" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>305</v>
       </c>
       <c r="B327" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>306</v>
       </c>
       <c r="B328" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>307</v>
       </c>
       <c r="B329" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>308</v>
       </c>
       <c r="B330" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="B331" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>309</v>
       </c>
       <c r="B332" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="B333" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>310</v>
       </c>
       <c r="B334" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>614</v>
       </c>
       <c r="B335" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>311</v>
       </c>
       <c r="B336" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="B337" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>312</v>
       </c>
       <c r="B338" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>313</v>
       </c>
       <c r="B339" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>314</v>
       </c>
       <c r="B340" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>315</v>
       </c>
       <c r="B341" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>316</v>
       </c>
       <c r="B342" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="B343" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>317</v>
       </c>
       <c r="B344" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -5360,191 +5373,191 @@
         <v>318</v>
       </c>
       <c r="B345" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>319</v>
       </c>
       <c r="B346" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>320</v>
       </c>
       <c r="B347" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>321</v>
       </c>
       <c r="B348" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>322</v>
       </c>
       <c r="B349" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="B350" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>323</v>
       </c>
       <c r="B351" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>324</v>
       </c>
       <c r="B352" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="B353" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>325</v>
       </c>
       <c r="B354" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>326</v>
       </c>
       <c r="B355" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>327</v>
       </c>
       <c r="B356" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="B357" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>328</v>
       </c>
       <c r="B358" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>329</v>
       </c>
       <c r="B359" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>330</v>
       </c>
       <c r="B360" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>331</v>
       </c>
       <c r="B361" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>332</v>
       </c>
       <c r="B362" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>333</v>
       </c>
       <c r="B363" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>334</v>
       </c>
       <c r="B364" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>335</v>
       </c>
       <c r="B365" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>336</v>
       </c>
       <c r="B366" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>337</v>
       </c>
       <c r="B367" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>338</v>
       </c>
       <c r="B368" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -5552,7 +5565,7 @@
         <v>339</v>
       </c>
       <c r="B369" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -5560,7 +5573,7 @@
         <v>340</v>
       </c>
       <c r="B370" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -5568,15 +5581,15 @@
         <v>341</v>
       </c>
       <c r="B371" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>342</v>
       </c>
       <c r="B372" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -5584,7 +5597,7 @@
         <v>343</v>
       </c>
       <c r="B373" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -5592,15 +5605,15 @@
         <v>344</v>
       </c>
       <c r="B374" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>345</v>
       </c>
       <c r="B375" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -5608,55 +5621,55 @@
         <v>346</v>
       </c>
       <c r="B376" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>347</v>
       </c>
       <c r="B377" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>348</v>
       </c>
       <c r="B378" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>349</v>
       </c>
       <c r="B379" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>350</v>
       </c>
       <c r="B380" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>351</v>
       </c>
       <c r="B381" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>352</v>
       </c>
       <c r="B382" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -5664,15 +5677,15 @@
         <v>353</v>
       </c>
       <c r="B383" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>354</v>
       </c>
       <c r="B384" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -5680,7 +5693,7 @@
         <v>355</v>
       </c>
       <c r="B385" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -5688,39 +5701,39 @@
         <v>356</v>
       </c>
       <c r="B386" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="B387" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>357</v>
       </c>
       <c r="B388" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>358</v>
       </c>
       <c r="B389" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>359</v>
       </c>
       <c r="B390" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -5728,31 +5741,31 @@
         <v>360</v>
       </c>
       <c r="B391" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>361</v>
       </c>
       <c r="B392" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>362</v>
       </c>
       <c r="B393" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>363</v>
       </c>
       <c r="B394" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -5760,63 +5773,63 @@
         <v>364</v>
       </c>
       <c r="B395" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>365</v>
       </c>
       <c r="B396" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>366</v>
       </c>
       <c r="B397" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>367</v>
       </c>
       <c r="B398" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>368</v>
       </c>
       <c r="B399" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>369</v>
       </c>
       <c r="B400" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>370</v>
       </c>
       <c r="B401" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>371</v>
       </c>
       <c r="B402" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5824,79 +5837,79 @@
         <v>372</v>
       </c>
       <c r="B403" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>373</v>
       </c>
       <c r="B404" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>374</v>
       </c>
       <c r="B405" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>375</v>
       </c>
       <c r="B406" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>376</v>
       </c>
       <c r="B407" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>377</v>
       </c>
       <c r="B408" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>378</v>
       </c>
       <c r="B409" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>379</v>
       </c>
       <c r="B410" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>380</v>
       </c>
       <c r="B411" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>381</v>
       </c>
       <c r="B412" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -5904,55 +5917,55 @@
         <v>382</v>
       </c>
       <c r="B413" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>383</v>
       </c>
       <c r="B414" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>384</v>
       </c>
       <c r="B415" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>385</v>
       </c>
       <c r="B416" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>386</v>
       </c>
       <c r="B417" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>387</v>
       </c>
       <c r="B418" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>388</v>
       </c>
       <c r="B419" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -5960,23 +5973,23 @@
         <v>389</v>
       </c>
       <c r="B420" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>390</v>
       </c>
       <c r="B421" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>391</v>
       </c>
       <c r="B422" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -5984,7 +5997,7 @@
         <v>392</v>
       </c>
       <c r="B423" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -5992,71 +6005,71 @@
         <v>393</v>
       </c>
       <c r="B424" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="B425" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>394</v>
       </c>
       <c r="B426" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>395</v>
       </c>
       <c r="B427" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>396</v>
       </c>
       <c r="B428" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>397</v>
       </c>
       <c r="B429" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="B430" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>398</v>
       </c>
       <c r="B431" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>399</v>
       </c>
       <c r="B432" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -6064,39 +6077,39 @@
         <v>400</v>
       </c>
       <c r="B433" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>401</v>
       </c>
       <c r="B434" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>402</v>
       </c>
       <c r="B435" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>403</v>
       </c>
       <c r="B436" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>404</v>
       </c>
       <c r="B437" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -6104,79 +6117,79 @@
         <v>405</v>
       </c>
       <c r="B438" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="B439" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>406</v>
       </c>
       <c r="B440" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="B441" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>407</v>
       </c>
       <c r="B442" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>408</v>
       </c>
       <c r="B443" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>409</v>
       </c>
       <c r="B444" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>410</v>
       </c>
       <c r="B445" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="B446" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="B447" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -6184,31 +6197,31 @@
         <v>411</v>
       </c>
       <c r="B448" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>412</v>
       </c>
       <c r="B449" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>413</v>
       </c>
       <c r="B450" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>414</v>
       </c>
       <c r="B451" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -6216,23 +6229,23 @@
         <v>415</v>
       </c>
       <c r="B452" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>416</v>
       </c>
       <c r="B453" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>417</v>
       </c>
       <c r="B454" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -6240,7 +6253,7 @@
         <v>418</v>
       </c>
       <c r="B455" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -6248,7 +6261,7 @@
         <v>419</v>
       </c>
       <c r="B456" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -6256,7 +6269,7 @@
         <v>420</v>
       </c>
       <c r="B457" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -6264,47 +6277,47 @@
         <v>421</v>
       </c>
       <c r="B458" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>422</v>
       </c>
       <c r="B459" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>423</v>
       </c>
       <c r="B460" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>424</v>
       </c>
       <c r="B461" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>425</v>
       </c>
       <c r="B462" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>426</v>
       </c>
       <c r="B463" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -6312,7 +6325,7 @@
         <v>427</v>
       </c>
       <c r="B464" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -6320,7 +6333,7 @@
         <v>428</v>
       </c>
       <c r="B465" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -6328,23 +6341,23 @@
         <v>429</v>
       </c>
       <c r="B466" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>430</v>
       </c>
       <c r="B467" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>431</v>
       </c>
       <c r="B468" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -6352,7 +6365,7 @@
         <v>432</v>
       </c>
       <c r="B469" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -6360,7 +6373,7 @@
         <v>433</v>
       </c>
       <c r="B470" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -6368,7 +6381,7 @@
         <v>434</v>
       </c>
       <c r="B471" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -6376,15 +6389,15 @@
         <v>435</v>
       </c>
       <c r="B472" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="B473" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -6392,7 +6405,7 @@
         <v>436</v>
       </c>
       <c r="B474" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -6400,7 +6413,7 @@
         <v>437</v>
       </c>
       <c r="B475" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -6408,7 +6421,7 @@
         <v>439</v>
       </c>
       <c r="B476" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -6416,7 +6429,7 @@
         <v>440</v>
       </c>
       <c r="B477" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -6424,23 +6437,23 @@
         <v>441</v>
       </c>
       <c r="B478" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>442</v>
       </c>
       <c r="B479" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>443</v>
       </c>
       <c r="B480" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -6448,15 +6461,15 @@
         <v>444</v>
       </c>
       <c r="B481" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>445</v>
       </c>
       <c r="B482" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -6464,15 +6477,15 @@
         <v>446</v>
       </c>
       <c r="B483" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>447</v>
       </c>
       <c r="B484" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -6480,7 +6493,7 @@
         <v>448</v>
       </c>
       <c r="B485" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -6488,7 +6501,7 @@
         <v>449</v>
       </c>
       <c r="B486" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -6496,15 +6509,15 @@
         <v>450</v>
       </c>
       <c r="B487" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="B488" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -6512,7 +6525,7 @@
         <v>438</v>
       </c>
       <c r="B489" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -6520,7 +6533,7 @@
         <v>451</v>
       </c>
       <c r="B490" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -6528,23 +6541,23 @@
         <v>452</v>
       </c>
       <c r="B491" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>453</v>
       </c>
       <c r="B492" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>454</v>
       </c>
       <c r="B493" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -6552,7 +6565,7 @@
         <v>455</v>
       </c>
       <c r="B494" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -6560,47 +6573,47 @@
         <v>456</v>
       </c>
       <c r="B495" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>457</v>
       </c>
       <c r="B496" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>458</v>
       </c>
       <c r="B497" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>459</v>
       </c>
       <c r="B498" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>460</v>
       </c>
       <c r="B499" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>461</v>
       </c>
       <c r="B500" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -6608,7 +6621,7 @@
         <v>462</v>
       </c>
       <c r="B501" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -6616,7 +6629,7 @@
         <v>463</v>
       </c>
       <c r="B502" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -6624,7 +6637,7 @@
         <v>464</v>
       </c>
       <c r="B503" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -6632,7 +6645,7 @@
         <v>465</v>
       </c>
       <c r="B504" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -6640,23 +6653,23 @@
         <v>466</v>
       </c>
       <c r="B505" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>467</v>
       </c>
       <c r="B506" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>468</v>
       </c>
       <c r="B507" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -6664,7 +6677,7 @@
         <v>469</v>
       </c>
       <c r="B508" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -6672,23 +6685,23 @@
         <v>470</v>
       </c>
       <c r="B509" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>471</v>
       </c>
       <c r="B510" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>472</v>
       </c>
       <c r="B511" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -6696,7 +6709,7 @@
         <v>473</v>
       </c>
       <c r="B512" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -6704,47 +6717,47 @@
         <v>474</v>
       </c>
       <c r="B513" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>475</v>
       </c>
       <c r="B514" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>476</v>
       </c>
       <c r="B515" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>477</v>
       </c>
       <c r="B516" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>478</v>
       </c>
       <c r="B517" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>479</v>
       </c>
       <c r="B518" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -6752,23 +6765,23 @@
         <v>480</v>
       </c>
       <c r="B519" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>481</v>
       </c>
       <c r="B520" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>482</v>
       </c>
       <c r="B521" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -6776,7 +6789,7 @@
         <v>483</v>
       </c>
       <c r="B522" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -6784,7 +6797,7 @@
         <v>484</v>
       </c>
       <c r="B523" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -6792,7 +6805,7 @@
         <v>485</v>
       </c>
       <c r="B524" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -6800,7 +6813,7 @@
         <v>487</v>
       </c>
       <c r="B525" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -6808,7 +6821,7 @@
         <v>486</v>
       </c>
       <c r="B526" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -6816,7 +6829,7 @@
         <v>488</v>
       </c>
       <c r="B527" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -6824,7 +6837,7 @@
         <v>489</v>
       </c>
       <c r="B528" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
@@ -6832,7 +6845,7 @@
         <v>490</v>
       </c>
       <c r="B529" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -6840,7 +6853,7 @@
         <v>491</v>
       </c>
       <c r="B530" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -6848,7 +6861,7 @@
         <v>492</v>
       </c>
       <c r="B531" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -6856,7 +6869,7 @@
         <v>493</v>
       </c>
       <c r="B532" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -6864,7 +6877,7 @@
         <v>495</v>
       </c>
       <c r="B533" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -6872,7 +6885,7 @@
         <v>494</v>
       </c>
       <c r="B534" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -6880,7 +6893,7 @@
         <v>496</v>
       </c>
       <c r="B535" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
@@ -6888,7 +6901,7 @@
         <v>497</v>
       </c>
       <c r="B536" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -6896,79 +6909,79 @@
         <v>498</v>
       </c>
       <c r="B537" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>499</v>
       </c>
       <c r="B538" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>500</v>
       </c>
       <c r="B539" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>501</v>
       </c>
       <c r="B540" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>502</v>
       </c>
       <c r="B541" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>503</v>
       </c>
       <c r="B542" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>504</v>
       </c>
       <c r="B543" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>505</v>
       </c>
       <c r="B544" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>506</v>
       </c>
       <c r="B545" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>507</v>
       </c>
       <c r="B546" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -6976,7 +6989,7 @@
         <v>508</v>
       </c>
       <c r="B547" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -6984,31 +6997,31 @@
         <v>509</v>
       </c>
       <c r="B548" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>510</v>
       </c>
       <c r="B549" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>511</v>
       </c>
       <c r="B550" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>512</v>
       </c>
       <c r="B551" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -7016,79 +7029,79 @@
         <v>513</v>
       </c>
       <c r="B552" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>514</v>
       </c>
       <c r="B553" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>515</v>
       </c>
       <c r="B554" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>516</v>
       </c>
       <c r="B555" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>517</v>
       </c>
       <c r="B556" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="B557" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>519</v>
       </c>
       <c r="B558" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>518</v>
       </c>
       <c r="B559" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>520</v>
       </c>
       <c r="B560" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>521</v>
       </c>
       <c r="B561" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -7096,7 +7109,7 @@
         <v>522</v>
       </c>
       <c r="B562" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -7104,7 +7117,7 @@
         <v>523</v>
       </c>
       <c r="B563" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -7112,7 +7125,7 @@
         <v>524</v>
       </c>
       <c r="B564" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -7120,31 +7133,31 @@
         <v>525</v>
       </c>
       <c r="B565" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>526</v>
       </c>
       <c r="B566" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>527</v>
       </c>
       <c r="B567" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="B568" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -7152,15 +7165,15 @@
         <v>528</v>
       </c>
       <c r="B569" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>529</v>
       </c>
       <c r="B570" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
@@ -7168,7 +7181,7 @@
         <v>530</v>
       </c>
       <c r="B571" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -7176,23 +7189,23 @@
         <v>531</v>
       </c>
       <c r="B572" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>532</v>
       </c>
       <c r="B573" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>533</v>
       </c>
       <c r="B574" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -7200,7 +7213,7 @@
         <v>534</v>
       </c>
       <c r="B575" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -7208,23 +7221,23 @@
         <v>535</v>
       </c>
       <c r="B576" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="B577" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>536</v>
       </c>
       <c r="B578" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -7232,31 +7245,31 @@
         <v>537</v>
       </c>
       <c r="B579" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>538</v>
       </c>
       <c r="B580" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>539</v>
       </c>
       <c r="B581" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>540</v>
       </c>
       <c r="B582" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -7264,55 +7277,55 @@
         <v>541</v>
       </c>
       <c r="B583" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>542</v>
       </c>
       <c r="B584" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>543</v>
       </c>
       <c r="B585" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>544</v>
       </c>
       <c r="B586" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>545</v>
       </c>
       <c r="B587" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>546</v>
       </c>
       <c r="B588" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>547</v>
       </c>
       <c r="B589" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -7320,7 +7333,7 @@
         <v>548</v>
       </c>
       <c r="B590" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
@@ -7328,7 +7341,7 @@
         <v>549</v>
       </c>
       <c r="B591" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -7336,7 +7349,7 @@
         <v>550</v>
       </c>
       <c r="B592" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -7344,7 +7357,7 @@
         <v>551</v>
       </c>
       <c r="B593" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
@@ -7352,7 +7365,7 @@
         <v>552</v>
       </c>
       <c r="B594" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -7360,7 +7373,7 @@
         <v>553</v>
       </c>
       <c r="B595" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -7368,95 +7381,95 @@
         <v>554</v>
       </c>
       <c r="B596" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>555</v>
       </c>
       <c r="B597" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>556</v>
       </c>
       <c r="B598" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>557</v>
       </c>
       <c r="B599" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>558</v>
       </c>
       <c r="B600" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>559</v>
       </c>
       <c r="B601" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>560</v>
       </c>
       <c r="B602" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>561</v>
       </c>
       <c r="B603" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>562</v>
       </c>
       <c r="B604" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>563</v>
       </c>
       <c r="B605" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="B606" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>564</v>
       </c>
       <c r="B607" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -7464,15 +7477,15 @@
         <v>565</v>
       </c>
       <c r="B608" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>566</v>
       </c>
       <c r="B609" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
@@ -7480,7 +7493,7 @@
         <v>567</v>
       </c>
       <c r="B610" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -7488,7 +7501,7 @@
         <v>568</v>
       </c>
       <c r="B611" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -7496,7 +7509,7 @@
         <v>569</v>
       </c>
       <c r="B612" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -7504,15 +7517,15 @@
         <v>570</v>
       </c>
       <c r="B613" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>571</v>
       </c>
       <c r="B614" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -7520,71 +7533,71 @@
         <v>572</v>
       </c>
       <c r="B615" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>573</v>
       </c>
       <c r="B616" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>574</v>
       </c>
       <c r="B617" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>575</v>
       </c>
       <c r="B618" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>576</v>
       </c>
       <c r="B619" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>577</v>
       </c>
       <c r="B620" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>578</v>
       </c>
       <c r="B621" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>579</v>
       </c>
       <c r="B622" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>580</v>
       </c>
       <c r="B623" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -7592,15 +7605,15 @@
         <v>581</v>
       </c>
       <c r="B624" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>582</v>
       </c>
       <c r="B625" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
@@ -7608,7 +7621,7 @@
         <v>583</v>
       </c>
       <c r="B626" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
@@ -7616,7 +7629,7 @@
         <v>584</v>
       </c>
       <c r="B627" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
@@ -7624,144 +7637,144 @@
         <v>585</v>
       </c>
       <c r="B628" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>586</v>
       </c>
       <c r="B629" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>587</v>
       </c>
       <c r="B630" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>588</v>
       </c>
       <c r="B631" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>589</v>
       </c>
       <c r="B632" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>590</v>
       </c>
       <c r="B633" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>591</v>
       </c>
       <c r="B634" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>592</v>
       </c>
       <c r="B635" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>593</v>
       </c>
       <c r="B636" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>594</v>
       </c>
       <c r="B637" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>595</v>
       </c>
       <c r="B638" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>596</v>
       </c>
       <c r="B639" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>597</v>
       </c>
       <c r="B640" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
       <c r="D640" s="1"/>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>598</v>
       </c>
       <c r="B641" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>599</v>
       </c>
       <c r="B642" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>600</v>
       </c>
       <c r="B643" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>601</v>
       </c>
       <c r="B644" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>602</v>
       </c>
       <c r="B645" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
@@ -7769,7 +7782,7 @@
         <v>603</v>
       </c>
       <c r="B646" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -7777,31 +7790,31 @@
         <v>604</v>
       </c>
       <c r="B647" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>605</v>
       </c>
       <c r="B648" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>606</v>
       </c>
       <c r="B649" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>607</v>
       </c>
       <c r="B650" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -7809,7 +7822,7 @@
         <v>608</v>
       </c>
       <c r="B651" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -7817,31 +7830,31 @@
         <v>609</v>
       </c>
       <c r="B652" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>610</v>
       </c>
       <c r="B653" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>611</v>
       </c>
       <c r="B654" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>612</v>
       </c>
       <c r="B655" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
@@ -7849,7 +7862,7 @@
         <v>613</v>
       </c>
       <c r="B656" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E222DA-559F-4DFB-9C36-972DEF3D07A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E54B89D-BD9D-4B7A-8A93-36E067098CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="697">
   <si>
     <t>taxon</t>
   </si>
@@ -2008,84 +2008,30 @@
     <t>?</t>
   </si>
   <si>
-    <t>www/media/fiches/agelena_labyrinthica.webp</t>
-  </si>
-  <si>
-    <t>www/media/fiches/amaurobius_ferox.webp</t>
-  </si>
-  <si>
-    <t>www/media/fiches/anyphaena_accentuata.webp</t>
-  </si>
-  <si>
-    <t>www/media/fiches/araneus_diadematus.webp</t>
-  </si>
-  <si>
-    <t>www/media/fiches/araneus_marmoreus.webp</t>
-  </si>
-  <si>
     <t>www/media/fiches/araneus_quadratus_male.webp</t>
   </si>
   <si>
     <t>www/media/fiches/araneus_quadratus_femelle.webp</t>
   </si>
   <si>
-    <t>www/media/fiches/argiope_bruennichi.webp</t>
-  </si>
-  <si>
-    <t>www/media/fiches/cercidia_prominens.webp</t>
-  </si>
-  <si>
-    <t>www/media/fiches/cyclosa_conica.webp</t>
-  </si>
-  <si>
-    <t>www/media/fiches/gibbaranea_gibbosa.webp</t>
-  </si>
-  <si>
-    <t>www/media/fiches/larinioides_cornutus.webp</t>
-  </si>
-  <si>
-    <t>www/media/fiches/larinioides_sclopetarius.webp</t>
-  </si>
-  <si>
-    <t>www/media/fiches/mangora_acalypha.webp</t>
-  </si>
-  <si>
-    <t>www/media/fiches/nuctenea_umbratica.webp</t>
-  </si>
-  <si>
     <t>www/media/fiches/zilla_diodia_male.webp</t>
   </si>
   <si>
     <t>www/media/fiches/zilla_diodia_femelle.webp</t>
   </si>
   <si>
-    <t>www/media/fiches/zygiella_x-notata.webp</t>
-  </si>
-  <si>
     <t>www/media/fiches/cheiracanthium_mildei_male.webp</t>
   </si>
   <si>
     <t>www/media/fiches/cheiracanthium_mildei_femelle.webp</t>
   </si>
   <si>
-    <t>www/media/fiches/clubiona_comta.webp</t>
-  </si>
-  <si>
-    <t>www/media/fiches/porrhoclubiona_leucaspis.webp</t>
-  </si>
-  <si>
-    <t>www/media/fiches/brigittea_civica.webp</t>
-  </si>
-  <si>
     <t>www/media/fiches/nigma_flavescens_male.webp</t>
   </si>
   <si>
     <t>www/media/fiches/nigma_flavescens_femelle.webp</t>
   </si>
   <si>
-    <t>www/media/fiches/nigma_walckenaeri.webp</t>
-  </si>
-  <si>
     <t>www/media/fiches/dysdera_crocata_femelle.webp</t>
   </si>
   <si>
@@ -2095,7 +2041,76 @@
     <t>www/media/fiches/eresus_kollari_male.webp</t>
   </si>
   <si>
-    <t>www/media/fiches/frontinellina_frutetorum.webp</t>
+    <t>www/media/fiches/linyphia_triangularis_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/linyphia_triangularis_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/neriene_montana_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/neriene_radiata_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/neriene_radiata_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/agelena_labyrinthica_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/amaurobius_ferox_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/anyphaena_accentuata_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/araneus_diadematus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/araneus_marmoreus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/argiope_bruennichi_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/cercidia_prominens_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/cyclosa_conica_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/gibbaranea_gibbosa_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/larinioides_cornutus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/larinioides_sclopetarius_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/mangora_acalypha_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/nuctenea_umbratica_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/zygiella_x-notata_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/clubiona_comta_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/porrhoclubiona_leucaspis_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/brigittea_civica_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/nigma_walckenaeri_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/frontinellina_frutetorum_male.webp</t>
   </si>
 </sst>
 </file>
@@ -2181,8 +2196,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8CF3FEBE-EC73-416E-8610-F705B8D6D336}" name="taxon"/>
     <tableColumn id="4" xr3:uid="{666FCC22-DD53-4830-B712-02B264DDA363}" name="id à vue"/>
+    <tableColumn id="3" xr3:uid="{84160676-7B2A-4A0C-94B1-2901F12B1A91}" name="femelle"/>
     <tableColumn id="2" xr3:uid="{DBDA5D0E-A4B2-4E10-A6AF-85502F963E80}" name="male"/>
-    <tableColumn id="3" xr3:uid="{84160676-7B2A-4A0C-94B1-2901F12B1A91}" name="femelle"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2507,16 +2522,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C250" sqref="C250"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D250" sqref="D250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2527,10 +2542,10 @@
         <v>658</v>
       </c>
       <c r="C1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D1" t="s">
         <v>615</v>
-      </c>
-      <c r="D1" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2540,8 +2555,8 @@
       <c r="B2" t="s">
         <v>659</v>
       </c>
-      <c r="D2" t="s">
-        <v>662</v>
+      <c r="C2" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2695,8 +2710,8 @@
       <c r="B21" t="s">
         <v>659</v>
       </c>
-      <c r="D21" t="s">
-        <v>663</v>
+      <c r="C21" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2714,8 +2729,8 @@
       <c r="B23" t="s">
         <v>659</v>
       </c>
-      <c r="D23" t="s">
-        <v>664</v>
+      <c r="C23" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2773,8 +2788,8 @@
       <c r="B30" t="s">
         <v>659</v>
       </c>
-      <c r="D30" t="s">
-        <v>665</v>
+      <c r="C30" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2784,8 +2799,8 @@
       <c r="B31" t="s">
         <v>659</v>
       </c>
-      <c r="D31" t="s">
-        <v>666</v>
+      <c r="C31" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2796,10 +2811,10 @@
         <v>659</v>
       </c>
       <c r="C32" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D32" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2849,8 +2864,8 @@
       <c r="B38" t="s">
         <v>659</v>
       </c>
-      <c r="D38" t="s">
-        <v>669</v>
+      <c r="C38" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,8 +2875,8 @@
       <c r="B39" t="s">
         <v>659</v>
       </c>
-      <c r="C39" t="s">
-        <v>670</v>
+      <c r="D39" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2871,8 +2886,8 @@
       <c r="B40" t="s">
         <v>659</v>
       </c>
-      <c r="D40" t="s">
-        <v>671</v>
+      <c r="C40" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2898,8 +2913,8 @@
       <c r="B43" t="s">
         <v>659</v>
       </c>
-      <c r="D43" t="s">
-        <v>672</v>
+      <c r="C43" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2949,8 +2964,8 @@
       <c r="B49" t="s">
         <v>659</v>
       </c>
-      <c r="D49" t="s">
-        <v>673</v>
+      <c r="C49" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2968,8 +2983,8 @@
       <c r="B51" t="s">
         <v>659</v>
       </c>
-      <c r="D51" t="s">
-        <v>674</v>
+      <c r="C51" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3003,8 +3018,8 @@
       <c r="B55" t="s">
         <v>659</v>
       </c>
-      <c r="D55" t="s">
-        <v>675</v>
+      <c r="C55" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3022,8 +3037,8 @@
       <c r="B57" t="s">
         <v>659</v>
       </c>
-      <c r="D57" t="s">
-        <v>676</v>
+      <c r="C57" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3050,10 +3065,10 @@
         <v>659</v>
       </c>
       <c r="C60" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="D60" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3071,8 +3086,8 @@
       <c r="B62" t="s">
         <v>659</v>
       </c>
-      <c r="D62" t="s">
-        <v>679</v>
+      <c r="C62" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3115,10 +3130,10 @@
         <v>659</v>
       </c>
       <c r="C67" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="D67" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
     </row>
     <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3168,8 +3183,8 @@
       <c r="B73" t="s">
         <v>659</v>
       </c>
-      <c r="D73" t="s">
-        <v>682</v>
+      <c r="C73" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3243,7 +3258,7 @@
       <c r="B82" t="s">
         <v>660</v>
       </c>
-      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -3324,8 +3339,8 @@
       <c r="B92" t="s">
         <v>659</v>
       </c>
-      <c r="D92" t="s">
-        <v>683</v>
+      <c r="C92" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3375,8 +3390,8 @@
       <c r="B98" t="s">
         <v>659</v>
       </c>
-      <c r="C98" t="s">
-        <v>684</v>
+      <c r="D98" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3435,10 +3450,10 @@
         <v>659</v>
       </c>
       <c r="C105" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="D105" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3456,8 +3471,8 @@
       <c r="B107" t="s">
         <v>659</v>
       </c>
-      <c r="D107" t="s">
-        <v>687</v>
+      <c r="C107" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3467,8 +3482,8 @@
       <c r="B108" t="s">
         <v>659</v>
       </c>
-      <c r="D108" t="s">
-        <v>688</v>
+      <c r="C108" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3494,8 +3509,8 @@
       <c r="B111" t="s">
         <v>659</v>
       </c>
-      <c r="C111" t="s">
-        <v>689</v>
+      <c r="D111" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3506,18 +3521,18 @@
         <v>659</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>106</v>
       </c>
       <c r="B113" t="s">
         <v>659</v>
       </c>
-      <c r="C113" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>107</v>
       </c>
@@ -3525,7 +3540,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>109</v>
       </c>
@@ -3533,7 +3548,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>110</v>
       </c>
@@ -3541,7 +3556,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>111</v>
       </c>
@@ -3549,7 +3564,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -3557,7 +3572,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>113</v>
       </c>
@@ -3565,7 +3580,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -3573,7 +3588,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>115</v>
       </c>
@@ -3581,7 +3596,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>116</v>
       </c>
@@ -3589,7 +3604,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -3597,7 +3612,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -3605,7 +3620,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>119</v>
       </c>
@@ -3613,7 +3628,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>120</v>
       </c>
@@ -3621,7 +3636,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -3629,7 +3644,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>122</v>
       </c>
@@ -4405,7 +4420,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>215</v>
       </c>
@@ -4413,18 +4428,18 @@
         <v>659</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>216</v>
       </c>
       <c r="B226" t="s">
         <v>659</v>
       </c>
-      <c r="C226" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>217</v>
       </c>
@@ -4432,7 +4447,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>218</v>
       </c>
@@ -4440,7 +4455,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>219</v>
       </c>
@@ -4448,7 +4463,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>220</v>
       </c>
@@ -4456,7 +4471,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>221</v>
       </c>
@@ -4464,7 +4479,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>626</v>
       </c>
@@ -4472,7 +4487,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>627</v>
       </c>
@@ -4480,7 +4495,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>222</v>
       </c>
@@ -4488,7 +4503,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>223</v>
       </c>
@@ -4496,7 +4511,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>224</v>
       </c>
@@ -4504,7 +4519,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>225</v>
       </c>
@@ -4512,7 +4527,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>628</v>
       </c>
@@ -4520,7 +4535,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>226</v>
       </c>
@@ -4528,7 +4543,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>227</v>
       </c>
@@ -4536,7 +4551,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>228</v>
       </c>
@@ -4544,7 +4559,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>229</v>
       </c>
@@ -4552,7 +4567,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>230</v>
       </c>
@@ -4560,7 +4575,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>231</v>
       </c>
@@ -4568,7 +4583,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>232</v>
       </c>
@@ -4576,7 +4591,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>233</v>
       </c>
@@ -4584,7 +4599,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>234</v>
       </c>
@@ -4592,7 +4607,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>235</v>
       </c>
@@ -4600,7 +4615,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>236</v>
       </c>
@@ -4608,15 +4623,21 @@
         <v>660</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>237</v>
       </c>
       <c r="B250" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>673</v>
+      </c>
+      <c r="D250" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>238</v>
       </c>
@@ -4624,7 +4645,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>239</v>
       </c>
@@ -4632,7 +4653,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>629</v>
       </c>
@@ -4640,7 +4661,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>240</v>
       </c>
@@ -4648,7 +4669,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>241</v>
       </c>
@@ -4656,7 +4677,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>242</v>
       </c>
@@ -4792,7 +4813,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>634</v>
       </c>
@@ -4800,7 +4821,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>255</v>
       </c>
@@ -4808,7 +4829,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>256</v>
       </c>
@@ -4816,7 +4837,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>257</v>
       </c>
@@ -4824,7 +4845,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>258</v>
       </c>
@@ -4832,15 +4853,18 @@
         <v>660</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>259</v>
       </c>
       <c r="B278" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D278" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>260</v>
       </c>
@@ -4848,15 +4872,21 @@
         <v>660</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>261</v>
       </c>
       <c r="B280" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C280" t="s">
+        <v>677</v>
+      </c>
+      <c r="D280" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>262</v>
       </c>
@@ -4864,7 +4894,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>263</v>
       </c>
@@ -4872,7 +4902,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>264</v>
       </c>
@@ -4880,7 +4910,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>265</v>
       </c>
@@ -4888,7 +4918,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>266</v>
       </c>
@@ -4896,7 +4926,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>267</v>
       </c>
@@ -4904,7 +4934,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>268</v>
       </c>
@@ -4912,7 +4942,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>269</v>
       </c>
@@ -7608,7 +7638,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>582</v>
       </c>
@@ -7616,7 +7646,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>583</v>
       </c>
@@ -7624,7 +7654,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>584</v>
       </c>
@@ -7632,7 +7662,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>585</v>
       </c>
@@ -7640,7 +7670,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>586</v>
       </c>
@@ -7648,7 +7678,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>587</v>
       </c>
@@ -7656,7 +7686,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>588</v>
       </c>
@@ -7664,7 +7694,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>589</v>
       </c>
@@ -7672,7 +7702,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>590</v>
       </c>
@@ -7680,7 +7710,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>591</v>
       </c>
@@ -7688,7 +7718,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>592</v>
       </c>
@@ -7696,7 +7726,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>593</v>
       </c>
@@ -7704,7 +7734,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>594</v>
       </c>
@@ -7712,7 +7742,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>595</v>
       </c>
@@ -7720,7 +7750,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>596</v>
       </c>
@@ -7728,14 +7758,14 @@
         <v>660</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>597</v>
       </c>
       <c r="B640" t="s">
         <v>660</v>
       </c>
-      <c r="D640" s="1"/>
+      <c r="C640" s="1"/>
     </row>
     <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E54B89D-BD9D-4B7A-8A93-36E067098CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8427A8D6-CAB3-42D7-BB3D-43FDF4BAD3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="701">
   <si>
     <t>taxon</t>
   </si>
@@ -2111,6 +2111,18 @@
   </si>
   <si>
     <t>www/media/fiches/frontinellina_frutetorum_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/ostearius_melanopygius_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/aulonia_albimana_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/philodromus_dispar_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/philodromus_dispar_femelle.webp</t>
   </si>
 </sst>
 </file>
@@ -2522,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D656"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D250" sqref="D250"/>
+    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
+      <selection activeCell="D441" sqref="D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4360,7 +4372,7 @@
       <c r="A217" t="s">
         <v>207</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="2" t="s">
         <v>660</v>
       </c>
     </row>
@@ -4941,6 +4953,9 @@
       <c r="B287" t="s">
         <v>659</v>
       </c>
+      <c r="C287" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
@@ -5718,15 +5733,18 @@
         <v>660</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>355</v>
       </c>
       <c r="B385" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D385" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>356</v>
       </c>
@@ -5734,7 +5752,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>645</v>
       </c>
@@ -5742,7 +5760,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>357</v>
       </c>
@@ -5750,7 +5768,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>358</v>
       </c>
@@ -5758,7 +5776,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>359</v>
       </c>
@@ -5766,7 +5784,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>360</v>
       </c>
@@ -5774,7 +5792,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>361</v>
       </c>
@@ -5782,7 +5800,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>362</v>
       </c>
@@ -5790,7 +5808,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>363</v>
       </c>
@@ -5798,7 +5816,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>364</v>
       </c>
@@ -5806,7 +5824,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>365</v>
       </c>
@@ -5814,7 +5832,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>366</v>
       </c>
@@ -5822,7 +5840,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>367</v>
       </c>
@@ -5830,7 +5848,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>368</v>
       </c>
@@ -5838,7 +5856,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>369</v>
       </c>
@@ -6102,7 +6120,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>400</v>
       </c>
@@ -6110,7 +6128,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>401</v>
       </c>
@@ -6118,7 +6136,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>402</v>
       </c>
@@ -6126,7 +6144,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>403</v>
       </c>
@@ -6134,7 +6152,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>404</v>
       </c>
@@ -6142,15 +6160,21 @@
         <v>660</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>405</v>
       </c>
       <c r="B438" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C438" t="s">
+        <v>700</v>
+      </c>
+      <c r="D438" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>648</v>
       </c>
@@ -6158,7 +6182,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>406</v>
       </c>
@@ -6166,7 +6190,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>649</v>
       </c>
@@ -6174,7 +6198,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>407</v>
       </c>
@@ -6182,7 +6206,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>408</v>
       </c>
@@ -6190,7 +6214,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>409</v>
       </c>
@@ -6198,7 +6222,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>410</v>
       </c>
@@ -6206,7 +6230,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>650</v>
       </c>
@@ -6214,7 +6238,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>651</v>
       </c>
@@ -6222,7 +6246,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>411</v>
       </c>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8427A8D6-CAB3-42D7-BB3D-43FDF4BAD3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA79AEF9-E47C-42B0-832D-107240135B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="704">
   <si>
     <t>taxon</t>
   </si>
@@ -2123,6 +2124,15 @@
   </si>
   <si>
     <t>www/media/fiches/philodromus_dispar_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/holocnemus_pluchei_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/pholcus_phalangioides_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/pholcus_phalangioides_male.webp</t>
   </si>
 </sst>
 </file>
@@ -2534,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
-      <selection activeCell="D441" sqref="D441"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="D458" sqref="D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6254,7 +6264,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>412</v>
       </c>
@@ -6262,7 +6272,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>413</v>
       </c>
@@ -6270,7 +6280,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>414</v>
       </c>
@@ -6278,7 +6288,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>415</v>
       </c>
@@ -6286,7 +6296,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>416</v>
       </c>
@@ -6294,7 +6304,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>417</v>
       </c>
@@ -6302,15 +6312,18 @@
         <v>660</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>418</v>
       </c>
       <c r="B455" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C455" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>419</v>
       </c>
@@ -6318,15 +6331,21 @@
         <v>659</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>420</v>
       </c>
       <c r="B457" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C457" t="s">
+        <v>702</v>
+      </c>
+      <c r="D457" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>421</v>
       </c>
@@ -6334,7 +6353,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>422</v>
       </c>
@@ -6342,7 +6361,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>423</v>
       </c>
@@ -6350,7 +6369,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>424</v>
       </c>
@@ -6358,7 +6377,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>425</v>
       </c>
@@ -6366,7 +6385,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>426</v>
       </c>
@@ -6374,7 +6393,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>427</v>
       </c>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA79AEF9-E47C-42B0-832D-107240135B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F790CD-1D53-4986-9276-A78BE692FB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="707">
   <si>
     <t>taxon</t>
   </si>
@@ -2132,7 +2132,16 @@
     <t>www/media/fiches/pholcus_phalangioides_femelle.webp</t>
   </si>
   <si>
+    <t>www/media/fiches/pisaura_mirabilis_femelle.webp</t>
+  </si>
+  <si>
     <t>www/media/fiches/pholcus_phalangioides_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/psilochorus_simoni_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/pisaura_mirabilis_male.webp</t>
   </si>
 </sst>
 </file>
@@ -2544,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="D458" sqref="D458"/>
+    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="D465" sqref="D465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6342,7 +6351,7 @@
         <v>702</v>
       </c>
       <c r="D457" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -6352,6 +6361,9 @@
       <c r="B458" t="s">
         <v>659</v>
       </c>
+      <c r="D458" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
@@ -6399,6 +6411,12 @@
       </c>
       <c r="B464" t="s">
         <v>659</v>
+      </c>
+      <c r="C464" t="s">
+        <v>703</v>
+      </c>
+      <c r="D464" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F790CD-1D53-4986-9276-A78BE692FB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855AE1C7-BDC0-4FF3-AFE6-2CC4493C355E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23340" yWindow="0" windowWidth="15165" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="708">
   <si>
     <t>taxon</t>
   </si>
@@ -2142,6 +2142,9 @@
   </si>
   <si>
     <t>www/media/fiches/pisaura_mirabilis_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/attulus_pubescens_male.webp</t>
   </si>
 </sst>
 </file>
@@ -2553,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="D465" sqref="D465"/>
+    <sheetView tabSelected="1" topLeftCell="B430" workbookViewId="0">
+      <selection activeCell="D470" sqref="D470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6419,7 +6422,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>428</v>
       </c>
@@ -6427,7 +6430,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>429</v>
       </c>
@@ -6435,7 +6438,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>430</v>
       </c>
@@ -6443,7 +6446,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>431</v>
       </c>
@@ -6451,15 +6454,18 @@
         <v>660</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>432</v>
       </c>
       <c r="B469" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D469" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>433</v>
       </c>
@@ -6467,7 +6473,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>434</v>
       </c>
@@ -6475,7 +6481,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>435</v>
       </c>
@@ -6483,7 +6489,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>652</v>
       </c>
@@ -6491,7 +6497,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>436</v>
       </c>
@@ -6499,7 +6505,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>437</v>
       </c>
@@ -6507,7 +6513,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>439</v>
       </c>
@@ -6515,7 +6521,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>440</v>
       </c>
@@ -6523,7 +6529,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>441</v>
       </c>
@@ -6531,7 +6537,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>442</v>
       </c>
@@ -6539,7 +6545,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>443</v>
       </c>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855AE1C7-BDC0-4FF3-AFE6-2CC4493C355E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E631A780-6D95-4F64-8369-C1AAFEADF7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23340" yWindow="0" windowWidth="15165" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="739">
   <si>
     <t>taxon</t>
   </si>
@@ -2145,6 +2145,99 @@
   </si>
   <si>
     <t>www/media/fiches/attulus_pubescens_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/ballus_chalybeius_male.webp</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/8/122548.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/7/322667.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/7/378147.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/6/431746.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/9/210319.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/9/322729.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/5/334975.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/5/443635.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/2/169872.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/6/423276.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/ant/96649.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/ant/96651.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/0/212190.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/1/212191.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/6/122546.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/ant/96748.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/7/170187.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/3/122613.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/6/122526.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/1/423291.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/ant/96865.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/ant/96870.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/4/322774.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/0/415110.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/1/378201.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/2/378202.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/4/122584.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/1/378221.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/8/400418.jpg</t>
+  </si>
+  <si>
+    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/0/322690.jpg</t>
   </si>
 </sst>
 </file>
@@ -2556,19 +2649,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B430" workbookViewId="0">
-      <selection activeCell="D470" sqref="D470"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2582,7 +2675,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2592,16 +2685,25 @@
       <c r="C2" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2609,7 +2711,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2617,7 +2719,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2625,7 +2727,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2633,7 +2735,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2641,7 +2743,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2649,7 +2751,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2657,7 +2759,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2665,7 +2767,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2673,7 +2775,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2681,7 +2783,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2689,15 +2791,18 @@
         <v>660</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2705,7 +2810,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2713,31 +2818,46 @@
         <v>660</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>713</v>
+      </c>
+      <c r="D18" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>716</v>
+      </c>
+      <c r="D20" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2747,16 +2867,22 @@
       <c r="C21" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2766,8 +2892,11 @@
       <c r="C23" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2775,7 +2904,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2783,39 +2912,57 @@
         <v>660</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>721</v>
+      </c>
+      <c r="D26" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>725</v>
+      </c>
+      <c r="D29" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2825,8 +2972,11 @@
       <c r="C30" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2837,7 +2987,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2851,7 +3001,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2859,7 +3009,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2867,7 +3017,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2875,7 +3025,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2883,7 +3033,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2891,7 +3041,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2901,19 +3051,25 @@
       <c r="C38" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>659</v>
       </c>
+      <c r="C39" t="s">
+        <v>729</v>
+      </c>
       <c r="D39" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2924,23 +3080,32 @@
         <v>685</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>617</v>
       </c>
       <c r="B42" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>731</v>
+      </c>
+      <c r="D42" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2951,7 +3116,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2959,15 +3124,21 @@
         <v>660</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>733</v>
+      </c>
+      <c r="D45" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2975,7 +3146,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2983,7 +3154,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2991,7 +3162,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3001,8 +3172,11 @@
       <c r="C49" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3010,7 +3184,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3021,7 +3195,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3029,7 +3203,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3037,7 +3211,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3045,7 +3219,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3056,15 +3230,18 @@
         <v>689</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>26</v>
       </c>
       <c r="B56" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3075,15 +3252,18 @@
         <v>690</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3091,7 +3271,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3105,7 +3285,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3113,7 +3293,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3124,15 +3304,18 @@
         <v>691</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3140,7 +3323,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3148,7 +3331,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>618</v>
       </c>
@@ -3156,7 +3339,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -3170,7 +3353,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -3178,7 +3361,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>619</v>
       </c>
@@ -3186,7 +3369,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>620</v>
       </c>
@@ -3194,7 +3377,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -3202,7 +3385,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -3210,7 +3393,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -3221,7 +3404,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>69</v>
       </c>
@@ -3229,7 +3412,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -3237,7 +3420,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -3245,7 +3428,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -3253,7 +3436,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -3261,7 +3444,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -3269,7 +3452,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>75</v>
       </c>
@@ -3277,7 +3460,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -3285,7 +3468,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -3294,7 +3477,7 @@
       </c>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -3302,7 +3485,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>79</v>
       </c>
@@ -3310,7 +3493,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -3318,7 +3501,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>81</v>
       </c>
@@ -3326,7 +3509,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -3334,7 +3517,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>83</v>
       </c>
@@ -3342,7 +3525,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -3350,7 +3533,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>85</v>
       </c>
@@ -3358,7 +3541,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>621</v>
       </c>
@@ -3366,7 +3549,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -3377,7 +3560,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -3385,7 +3568,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>622</v>
       </c>
@@ -3393,7 +3576,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -3401,7 +3584,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>89</v>
       </c>
@@ -3409,7 +3592,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>90</v>
       </c>
@@ -3417,7 +3600,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>91</v>
       </c>
@@ -3428,7 +3611,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>92</v>
       </c>
@@ -3436,7 +3619,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>93</v>
       </c>
@@ -3444,7 +3627,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>94</v>
       </c>
@@ -3452,7 +3635,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -3460,7 +3643,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -3468,7 +3651,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>97</v>
       </c>
@@ -3476,7 +3659,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -3490,7 +3673,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>99</v>
       </c>
@@ -3498,7 +3681,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>100</v>
       </c>
@@ -3509,7 +3692,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>101</v>
       </c>
@@ -3520,7 +3703,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>102</v>
       </c>
@@ -3528,7 +3711,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -3536,7 +3719,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>104</v>
       </c>
@@ -3547,7 +3730,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>105</v>
       </c>
@@ -3555,7 +3738,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>106</v>
       </c>
@@ -3566,7 +3749,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>107</v>
       </c>
@@ -3574,7 +3757,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>109</v>
       </c>
@@ -3582,7 +3765,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>110</v>
       </c>
@@ -3590,7 +3773,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>111</v>
       </c>
@@ -3598,7 +3781,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -3606,7 +3789,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>113</v>
       </c>
@@ -3614,7 +3797,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -3622,7 +3805,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>115</v>
       </c>
@@ -3630,7 +3813,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>116</v>
       </c>
@@ -3638,7 +3821,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -3646,7 +3829,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -3654,7 +3837,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>119</v>
       </c>
@@ -3662,7 +3845,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>120</v>
       </c>
@@ -3670,7 +3853,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -3678,7 +3861,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>122</v>
       </c>
@@ -3686,7 +3869,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -3694,7 +3877,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>623</v>
       </c>
@@ -3702,7 +3885,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>124</v>
       </c>
@@ -3710,7 +3893,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>125</v>
       </c>
@@ -3718,7 +3901,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>126</v>
       </c>
@@ -3726,7 +3909,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>127</v>
       </c>
@@ -3734,7 +3917,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>128</v>
       </c>
@@ -3742,7 +3925,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>129</v>
       </c>
@@ -3750,7 +3933,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>130</v>
       </c>
@@ -3758,7 +3941,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>131</v>
       </c>
@@ -3766,7 +3949,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>132</v>
       </c>
@@ -3774,7 +3957,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>133</v>
       </c>
@@ -3782,7 +3965,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>134</v>
       </c>
@@ -3790,7 +3973,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>135</v>
       </c>
@@ -3798,7 +3981,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>136</v>
       </c>
@@ -3806,7 +3989,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>137</v>
       </c>
@@ -3814,7 +3997,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>138</v>
       </c>
@@ -3822,7 +4005,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>108</v>
       </c>
@@ -3830,7 +4013,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>139</v>
       </c>
@@ -3838,7 +4021,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>624</v>
       </c>
@@ -3846,7 +4029,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>140</v>
       </c>
@@ -3854,7 +4037,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>141</v>
       </c>
@@ -3862,7 +4045,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>142</v>
       </c>
@@ -3870,7 +4053,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>143</v>
       </c>
@@ -3878,7 +4061,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>144</v>
       </c>
@@ -3886,7 +4069,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>145</v>
       </c>
@@ -3894,7 +4077,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>146</v>
       </c>
@@ -3902,7 +4085,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>147</v>
       </c>
@@ -3910,7 +4093,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>148</v>
       </c>
@@ -3918,7 +4101,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>149</v>
       </c>
@@ -3926,7 +4109,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -3934,7 +4117,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>151</v>
       </c>
@@ -3942,7 +4125,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>152</v>
       </c>
@@ -3950,7 +4133,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>153</v>
       </c>
@@ -3958,7 +4141,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>154</v>
       </c>
@@ -3966,7 +4149,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>155</v>
       </c>
@@ -3974,7 +4157,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>156</v>
       </c>
@@ -3982,7 +4165,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>157</v>
       </c>
@@ -3990,7 +4173,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>158</v>
       </c>
@@ -3998,7 +4181,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>159</v>
       </c>
@@ -4006,7 +4189,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -4014,7 +4197,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -4022,7 +4205,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>162</v>
       </c>
@@ -4030,7 +4213,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>163</v>
       </c>
@@ -4038,7 +4221,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>164</v>
       </c>
@@ -4046,7 +4229,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>165</v>
       </c>
@@ -4054,7 +4237,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>166</v>
       </c>
@@ -4062,7 +4245,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>167</v>
       </c>
@@ -4070,7 +4253,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>168</v>
       </c>
@@ -4078,7 +4261,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>169</v>
       </c>
@@ -4086,7 +4269,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>170</v>
       </c>
@@ -4094,7 +4277,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>171</v>
       </c>
@@ -4102,7 +4285,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>172</v>
       </c>
@@ -4110,7 +4293,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>173</v>
       </c>
@@ -4118,7 +4301,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>174</v>
       </c>
@@ -4126,7 +4309,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>175</v>
       </c>
@@ -4134,7 +4317,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>176</v>
       </c>
@@ -4142,7 +4325,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>177</v>
       </c>
@@ -4150,7 +4333,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>625</v>
       </c>
@@ -4158,7 +4341,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>178</v>
       </c>
@@ -4166,7 +4349,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -4174,7 +4357,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>180</v>
       </c>
@@ -4182,7 +4365,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>181</v>
       </c>
@@ -4190,7 +4373,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>182</v>
       </c>
@@ -4198,7 +4381,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>183</v>
       </c>
@@ -4206,7 +4389,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>184</v>
       </c>
@@ -4214,7 +4397,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>185</v>
       </c>
@@ -4222,7 +4405,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>186</v>
       </c>
@@ -4230,7 +4413,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>187</v>
       </c>
@@ -4238,7 +4421,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>188</v>
       </c>
@@ -4246,7 +4429,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>189</v>
       </c>
@@ -4254,7 +4437,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>190</v>
       </c>
@@ -4262,7 +4445,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>191</v>
       </c>
@@ -4270,7 +4453,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>192</v>
       </c>
@@ -4278,7 +4461,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>193</v>
       </c>
@@ -4286,7 +4469,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>194</v>
       </c>
@@ -4294,7 +4477,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>195</v>
       </c>
@@ -4302,7 +4485,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>196</v>
       </c>
@@ -4310,7 +4493,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>197</v>
       </c>
@@ -4318,7 +4501,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>198</v>
       </c>
@@ -4326,7 +4509,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>199</v>
       </c>
@@ -4334,7 +4517,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>200</v>
       </c>
@@ -4342,7 +4525,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>201</v>
       </c>
@@ -4350,7 +4533,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>202</v>
       </c>
@@ -4358,7 +4541,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>203</v>
       </c>
@@ -4366,7 +4549,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>204</v>
       </c>
@@ -4374,7 +4557,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>205</v>
       </c>
@@ -4382,7 +4565,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>206</v>
       </c>
@@ -4390,7 +4573,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>207</v>
       </c>
@@ -4398,7 +4581,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>208</v>
       </c>
@@ -4406,7 +4589,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>209</v>
       </c>
@@ -4414,7 +4597,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>210</v>
       </c>
@@ -4422,7 +4605,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>211</v>
       </c>
@@ -4430,7 +4613,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>212</v>
       </c>
@@ -4438,7 +4621,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>213</v>
       </c>
@@ -4446,7 +4629,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>214</v>
       </c>
@@ -4454,7 +4637,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>215</v>
       </c>
@@ -4462,7 +4645,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>216</v>
       </c>
@@ -4473,7 +4656,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>217</v>
       </c>
@@ -4481,7 +4664,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>218</v>
       </c>
@@ -4489,7 +4672,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>219</v>
       </c>
@@ -4497,7 +4680,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>220</v>
       </c>
@@ -4505,7 +4688,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>221</v>
       </c>
@@ -4513,7 +4696,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>626</v>
       </c>
@@ -4521,7 +4704,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>627</v>
       </c>
@@ -4529,7 +4712,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>222</v>
       </c>
@@ -4537,7 +4720,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>223</v>
       </c>
@@ -4545,7 +4728,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>224</v>
       </c>
@@ -4553,7 +4736,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>225</v>
       </c>
@@ -4561,7 +4744,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>628</v>
       </c>
@@ -4569,7 +4752,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>226</v>
       </c>
@@ -4577,7 +4760,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>227</v>
       </c>
@@ -4585,7 +4768,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>228</v>
       </c>
@@ -4593,7 +4776,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>229</v>
       </c>
@@ -4601,7 +4784,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>230</v>
       </c>
@@ -4609,7 +4792,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>231</v>
       </c>
@@ -4617,7 +4800,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>232</v>
       </c>
@@ -4625,7 +4808,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>233</v>
       </c>
@@ -4633,7 +4816,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>234</v>
       </c>
@@ -4641,7 +4824,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>235</v>
       </c>
@@ -4649,7 +4832,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>236</v>
       </c>
@@ -4657,7 +4840,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>237</v>
       </c>
@@ -4671,7 +4854,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>238</v>
       </c>
@@ -4679,7 +4862,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>239</v>
       </c>
@@ -4687,7 +4870,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>629</v>
       </c>
@@ -4695,7 +4878,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>240</v>
       </c>
@@ -4703,7 +4886,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>241</v>
       </c>
@@ -4711,7 +4894,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>242</v>
       </c>
@@ -4719,7 +4902,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>630</v>
       </c>
@@ -4727,7 +4910,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>243</v>
       </c>
@@ -4735,7 +4918,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>631</v>
       </c>
@@ -4743,7 +4926,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>244</v>
       </c>
@@ -4751,7 +4934,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>245</v>
       </c>
@@ -4759,7 +4942,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>632</v>
       </c>
@@ -4767,7 +4950,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>246</v>
       </c>
@@ -4775,7 +4958,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>247</v>
       </c>
@@ -4783,7 +4966,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>248</v>
       </c>
@@ -4791,7 +4974,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>249</v>
       </c>
@@ -4799,7 +4982,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>250</v>
       </c>
@@ -4807,7 +4990,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>251</v>
       </c>
@@ -4815,7 +4998,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>252</v>
       </c>
@@ -4823,7 +5006,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>253</v>
       </c>
@@ -4831,7 +5014,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>633</v>
       </c>
@@ -4839,7 +5022,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>254</v>
       </c>
@@ -4847,7 +5030,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>634</v>
       </c>
@@ -4855,7 +5038,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>255</v>
       </c>
@@ -4863,7 +5046,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>256</v>
       </c>
@@ -4871,7 +5054,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>257</v>
       </c>
@@ -4879,7 +5062,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>258</v>
       </c>
@@ -4887,7 +5070,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>259</v>
       </c>
@@ -4898,7 +5081,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>260</v>
       </c>
@@ -4906,7 +5089,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>261</v>
       </c>
@@ -4920,7 +5103,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>262</v>
       </c>
@@ -4928,7 +5111,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>263</v>
       </c>
@@ -4936,7 +5119,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>264</v>
       </c>
@@ -4944,7 +5127,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>265</v>
       </c>
@@ -4952,7 +5135,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>266</v>
       </c>
@@ -4960,7 +5143,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>267</v>
       </c>
@@ -4968,7 +5151,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>268</v>
       </c>
@@ -4979,7 +5162,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>269</v>
       </c>
@@ -4987,7 +5170,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>270</v>
       </c>
@@ -4995,7 +5178,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>271</v>
       </c>
@@ -5003,7 +5186,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>272</v>
       </c>
@@ -5011,7 +5194,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>273</v>
       </c>
@@ -5019,7 +5202,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>274</v>
       </c>
@@ -5027,7 +5210,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>275</v>
       </c>
@@ -5035,7 +5218,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>635</v>
       </c>
@@ -5043,7 +5226,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>276</v>
       </c>
@@ -5051,7 +5234,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>277</v>
       </c>
@@ -5059,7 +5242,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>278</v>
       </c>
@@ -5067,7 +5250,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>279</v>
       </c>
@@ -5075,7 +5258,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>280</v>
       </c>
@@ -5083,7 +5266,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>281</v>
       </c>
@@ -5091,7 +5274,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>282</v>
       </c>
@@ -5099,7 +5282,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>283</v>
       </c>
@@ -5107,7 +5290,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>284</v>
       </c>
@@ -5115,7 +5298,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>636</v>
       </c>
@@ -5123,7 +5306,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>285</v>
       </c>
@@ -5131,7 +5314,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>286</v>
       </c>
@@ -5139,7 +5322,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>287</v>
       </c>
@@ -5147,7 +5330,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>637</v>
       </c>
@@ -5155,7 +5338,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>288</v>
       </c>
@@ -5163,7 +5346,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>289</v>
       </c>
@@ -5171,7 +5354,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>290</v>
       </c>
@@ -5179,7 +5362,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>291</v>
       </c>
@@ -5187,7 +5370,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>292</v>
       </c>
@@ -5195,7 +5378,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>293</v>
       </c>
@@ -5203,7 +5386,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>294</v>
       </c>
@@ -5211,7 +5394,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>295</v>
       </c>
@@ -5219,7 +5402,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>296</v>
       </c>
@@ -5227,7 +5410,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>297</v>
       </c>
@@ -5235,7 +5418,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>298</v>
       </c>
@@ -5243,7 +5426,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>299</v>
       </c>
@@ -5251,7 +5434,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>300</v>
       </c>
@@ -5259,7 +5442,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>301</v>
       </c>
@@ -5267,7 +5450,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>302</v>
       </c>
@@ -5275,7 +5458,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>303</v>
       </c>
@@ -5283,7 +5466,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>304</v>
       </c>
@@ -5291,7 +5474,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>305</v>
       </c>
@@ -5299,7 +5482,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>306</v>
       </c>
@@ -5307,7 +5490,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>307</v>
       </c>
@@ -5315,7 +5498,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>308</v>
       </c>
@@ -5323,7 +5506,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>638</v>
       </c>
@@ -5331,7 +5514,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>309</v>
       </c>
@@ -5339,7 +5522,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>639</v>
       </c>
@@ -5347,7 +5530,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>310</v>
       </c>
@@ -5355,7 +5538,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>614</v>
       </c>
@@ -5363,7 +5546,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>311</v>
       </c>
@@ -5371,7 +5554,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>640</v>
       </c>
@@ -5379,7 +5562,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>312</v>
       </c>
@@ -5387,7 +5570,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>313</v>
       </c>
@@ -5395,7 +5578,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>314</v>
       </c>
@@ -5403,7 +5586,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>315</v>
       </c>
@@ -5411,7 +5594,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>316</v>
       </c>
@@ -5419,7 +5602,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>641</v>
       </c>
@@ -5427,7 +5610,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>317</v>
       </c>
@@ -5435,7 +5618,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>318</v>
       </c>
@@ -5443,7 +5626,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>319</v>
       </c>
@@ -5451,7 +5634,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>320</v>
       </c>
@@ -5459,7 +5642,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>321</v>
       </c>
@@ -5467,7 +5650,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>322</v>
       </c>
@@ -5475,7 +5658,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>642</v>
       </c>
@@ -5483,7 +5666,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>323</v>
       </c>
@@ -5491,7 +5674,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>324</v>
       </c>
@@ -5499,7 +5682,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>643</v>
       </c>
@@ -5507,7 +5690,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>325</v>
       </c>
@@ -5515,7 +5698,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>326</v>
       </c>
@@ -5523,7 +5706,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>327</v>
       </c>
@@ -5531,7 +5714,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>644</v>
       </c>
@@ -5539,7 +5722,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>328</v>
       </c>
@@ -5547,7 +5730,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>329</v>
       </c>
@@ -5555,7 +5738,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>330</v>
       </c>
@@ -5563,7 +5746,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>331</v>
       </c>
@@ -5571,7 +5754,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>332</v>
       </c>
@@ -5579,7 +5762,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>333</v>
       </c>
@@ -5587,7 +5770,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>334</v>
       </c>
@@ -5595,7 +5778,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>335</v>
       </c>
@@ -5603,7 +5786,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>336</v>
       </c>
@@ -5611,7 +5794,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>337</v>
       </c>
@@ -5619,7 +5802,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>338</v>
       </c>
@@ -5627,7 +5810,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>339</v>
       </c>
@@ -5635,7 +5818,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>340</v>
       </c>
@@ -5643,7 +5826,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>341</v>
       </c>
@@ -5651,7 +5834,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>342</v>
       </c>
@@ -5659,7 +5842,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>343</v>
       </c>
@@ -5667,7 +5850,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>344</v>
       </c>
@@ -5675,7 +5858,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>345</v>
       </c>
@@ -5683,7 +5866,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>346</v>
       </c>
@@ -5691,7 +5874,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>347</v>
       </c>
@@ -5699,7 +5882,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>348</v>
       </c>
@@ -5707,7 +5890,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>349</v>
       </c>
@@ -5715,7 +5898,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>350</v>
       </c>
@@ -5723,7 +5906,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>351</v>
       </c>
@@ -5731,7 +5914,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>352</v>
       </c>
@@ -5739,7 +5922,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>353</v>
       </c>
@@ -5747,7 +5930,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>354</v>
       </c>
@@ -5755,7 +5938,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>355</v>
       </c>
@@ -5766,7 +5949,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>356</v>
       </c>
@@ -5774,7 +5957,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>645</v>
       </c>
@@ -5782,7 +5965,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>357</v>
       </c>
@@ -5790,7 +5973,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>358</v>
       </c>
@@ -5798,7 +5981,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>359</v>
       </c>
@@ -5806,7 +5989,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>360</v>
       </c>
@@ -5814,7 +5997,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>361</v>
       </c>
@@ -5822,7 +6005,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>362</v>
       </c>
@@ -5830,7 +6013,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>363</v>
       </c>
@@ -5838,7 +6021,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>364</v>
       </c>
@@ -5846,7 +6029,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>365</v>
       </c>
@@ -5854,7 +6037,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>366</v>
       </c>
@@ -5862,7 +6045,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>367</v>
       </c>
@@ -5870,7 +6053,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>368</v>
       </c>
@@ -5878,7 +6061,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>369</v>
       </c>
@@ -5886,7 +6069,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>370</v>
       </c>
@@ -5894,7 +6077,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>371</v>
       </c>
@@ -5902,7 +6085,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>372</v>
       </c>
@@ -5910,7 +6093,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>373</v>
       </c>
@@ -5918,7 +6101,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>374</v>
       </c>
@@ -5926,7 +6109,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>375</v>
       </c>
@@ -5934,7 +6117,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>376</v>
       </c>
@@ -5942,7 +6125,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>377</v>
       </c>
@@ -5950,7 +6133,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>378</v>
       </c>
@@ -5958,7 +6141,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>379</v>
       </c>
@@ -5966,7 +6149,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>380</v>
       </c>
@@ -5974,7 +6157,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>381</v>
       </c>
@@ -5982,7 +6165,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>382</v>
       </c>
@@ -5990,7 +6173,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>383</v>
       </c>
@@ -5998,7 +6181,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>384</v>
       </c>
@@ -6006,7 +6189,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>385</v>
       </c>
@@ -6014,7 +6197,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>386</v>
       </c>
@@ -6022,7 +6205,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>387</v>
       </c>
@@ -6030,7 +6213,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>388</v>
       </c>
@@ -6038,7 +6221,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>389</v>
       </c>
@@ -6046,7 +6229,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>390</v>
       </c>
@@ -6054,7 +6237,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>391</v>
       </c>
@@ -6062,7 +6245,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>392</v>
       </c>
@@ -6070,7 +6253,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>393</v>
       </c>
@@ -6078,7 +6261,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>646</v>
       </c>
@@ -6086,7 +6269,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>394</v>
       </c>
@@ -6094,7 +6277,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>395</v>
       </c>
@@ -6102,7 +6285,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>396</v>
       </c>
@@ -6110,7 +6293,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>397</v>
       </c>
@@ -6118,7 +6301,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>647</v>
       </c>
@@ -6126,7 +6309,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>398</v>
       </c>
@@ -6134,7 +6317,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>399</v>
       </c>
@@ -6142,7 +6325,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>400</v>
       </c>
@@ -6150,7 +6333,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>401</v>
       </c>
@@ -6158,7 +6341,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>402</v>
       </c>
@@ -6166,7 +6349,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>403</v>
       </c>
@@ -6174,7 +6357,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>404</v>
       </c>
@@ -6182,7 +6365,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>405</v>
       </c>
@@ -6196,7 +6379,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>648</v>
       </c>
@@ -6204,7 +6387,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>406</v>
       </c>
@@ -6212,7 +6395,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>649</v>
       </c>
@@ -6220,7 +6403,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>407</v>
       </c>
@@ -6228,7 +6411,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>408</v>
       </c>
@@ -6236,7 +6419,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>409</v>
       </c>
@@ -6244,7 +6427,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>410</v>
       </c>
@@ -6252,7 +6435,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>650</v>
       </c>
@@ -6260,7 +6443,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>651</v>
       </c>
@@ -6268,7 +6451,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>411</v>
       </c>
@@ -6276,7 +6459,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>412</v>
       </c>
@@ -6284,7 +6467,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>413</v>
       </c>
@@ -6292,7 +6475,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>414</v>
       </c>
@@ -6300,7 +6483,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>415</v>
       </c>
@@ -6308,7 +6491,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>416</v>
       </c>
@@ -6316,7 +6499,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>417</v>
       </c>
@@ -6324,7 +6507,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>418</v>
       </c>
@@ -6335,7 +6518,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>419</v>
       </c>
@@ -6343,7 +6526,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>420</v>
       </c>
@@ -6357,7 +6540,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>421</v>
       </c>
@@ -6368,7 +6551,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>422</v>
       </c>
@@ -6376,7 +6559,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>423</v>
       </c>
@@ -6384,7 +6567,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>424</v>
       </c>
@@ -6392,7 +6575,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>425</v>
       </c>
@@ -6400,7 +6583,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>426</v>
       </c>
@@ -6408,7 +6591,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>427</v>
       </c>
@@ -6422,7 +6605,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>428</v>
       </c>
@@ -6430,7 +6613,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>429</v>
       </c>
@@ -6438,7 +6621,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>430</v>
       </c>
@@ -6446,7 +6629,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>431</v>
       </c>
@@ -6454,7 +6637,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>432</v>
       </c>
@@ -6465,7 +6648,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>433</v>
       </c>
@@ -6473,15 +6656,18 @@
         <v>659</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>434</v>
       </c>
       <c r="B471" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D471" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>435</v>
       </c>
@@ -6489,7 +6675,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>652</v>
       </c>
@@ -6497,7 +6683,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>436</v>
       </c>
@@ -6505,7 +6691,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>437</v>
       </c>
@@ -6513,7 +6699,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>439</v>
       </c>
@@ -6521,7 +6707,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>440</v>
       </c>
@@ -6529,7 +6715,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>441</v>
       </c>
@@ -6537,7 +6723,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>442</v>
       </c>
@@ -6545,7 +6731,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>443</v>
       </c>
@@ -6553,7 +6739,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>444</v>
       </c>
@@ -6561,7 +6747,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>445</v>
       </c>
@@ -6569,7 +6755,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>446</v>
       </c>
@@ -6577,7 +6763,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>447</v>
       </c>
@@ -6585,7 +6771,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>448</v>
       </c>
@@ -6593,7 +6779,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>449</v>
       </c>
@@ -6601,7 +6787,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>450</v>
       </c>
@@ -6609,7 +6795,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>653</v>
       </c>
@@ -6617,7 +6803,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>438</v>
       </c>
@@ -6625,7 +6811,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>451</v>
       </c>
@@ -6633,7 +6819,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>452</v>
       </c>
@@ -6641,7 +6827,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>453</v>
       </c>
@@ -6649,7 +6835,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>454</v>
       </c>
@@ -6657,7 +6843,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>455</v>
       </c>
@@ -6665,7 +6851,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>456</v>
       </c>
@@ -6673,7 +6859,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>457</v>
       </c>
@@ -6681,7 +6867,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>458</v>
       </c>
@@ -6689,7 +6875,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>459</v>
       </c>
@@ -6697,7 +6883,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>460</v>
       </c>
@@ -6705,7 +6891,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>461</v>
       </c>
@@ -6713,7 +6899,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>462</v>
       </c>
@@ -6721,7 +6907,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>463</v>
       </c>
@@ -6729,7 +6915,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>464</v>
       </c>
@@ -6737,7 +6923,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>465</v>
       </c>
@@ -6745,7 +6931,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>466</v>
       </c>
@@ -6753,7 +6939,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>467</v>
       </c>
@@ -6761,7 +6947,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>468</v>
       </c>
@@ -6769,7 +6955,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>469</v>
       </c>
@@ -6777,7 +6963,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>470</v>
       </c>
@@ -6785,7 +6971,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>471</v>
       </c>
@@ -6793,7 +6979,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>472</v>
       </c>
@@ -6801,7 +6987,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>473</v>
       </c>
@@ -6809,7 +6995,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>474</v>
       </c>
@@ -6817,7 +7003,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>475</v>
       </c>
@@ -6825,7 +7011,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>476</v>
       </c>
@@ -6833,7 +7019,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>477</v>
       </c>
@@ -6841,7 +7027,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>478</v>
       </c>
@@ -6849,7 +7035,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>479</v>
       </c>
@@ -6857,7 +7043,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>480</v>
       </c>
@@ -6865,7 +7051,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>481</v>
       </c>
@@ -6873,7 +7059,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>482</v>
       </c>
@@ -6881,7 +7067,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>483</v>
       </c>
@@ -6889,7 +7075,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>484</v>
       </c>
@@ -6897,7 +7083,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>485</v>
       </c>
@@ -6905,7 +7091,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>487</v>
       </c>
@@ -6913,7 +7099,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>486</v>
       </c>
@@ -6921,7 +7107,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>488</v>
       </c>
@@ -6929,7 +7115,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>489</v>
       </c>
@@ -6937,7 +7123,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>490</v>
       </c>
@@ -6945,7 +7131,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>491</v>
       </c>
@@ -6953,7 +7139,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>492</v>
       </c>
@@ -6961,7 +7147,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>493</v>
       </c>
@@ -6969,7 +7155,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>495</v>
       </c>
@@ -6977,7 +7163,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>494</v>
       </c>
@@ -6985,7 +7171,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>496</v>
       </c>
@@ -6993,7 +7179,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>497</v>
       </c>
@@ -7001,7 +7187,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>498</v>
       </c>
@@ -7009,7 +7195,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>499</v>
       </c>
@@ -7017,7 +7203,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>500</v>
       </c>
@@ -7025,7 +7211,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>501</v>
       </c>
@@ -7033,7 +7219,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>502</v>
       </c>
@@ -7041,7 +7227,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>503</v>
       </c>
@@ -7049,7 +7235,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>504</v>
       </c>
@@ -7057,7 +7243,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>505</v>
       </c>
@@ -7065,7 +7251,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>506</v>
       </c>
@@ -7073,7 +7259,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>507</v>
       </c>
@@ -7081,7 +7267,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>508</v>
       </c>
@@ -7089,7 +7275,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>509</v>
       </c>
@@ -7097,7 +7283,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>510</v>
       </c>
@@ -7105,7 +7291,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>511</v>
       </c>
@@ -7113,7 +7299,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>512</v>
       </c>
@@ -7121,7 +7307,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>513</v>
       </c>
@@ -7129,7 +7315,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>514</v>
       </c>
@@ -7137,7 +7323,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>515</v>
       </c>
@@ -7145,7 +7331,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>516</v>
       </c>
@@ -7153,7 +7339,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>517</v>
       </c>
@@ -7161,7 +7347,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>654</v>
       </c>
@@ -7169,7 +7355,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>519</v>
       </c>
@@ -7177,7 +7363,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>518</v>
       </c>
@@ -7185,7 +7371,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>520</v>
       </c>
@@ -7193,7 +7379,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>521</v>
       </c>
@@ -7201,7 +7387,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>522</v>
       </c>
@@ -7209,7 +7395,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>523</v>
       </c>
@@ -7217,7 +7403,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>524</v>
       </c>
@@ -7225,7 +7411,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>525</v>
       </c>
@@ -7233,7 +7419,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>526</v>
       </c>
@@ -7241,7 +7427,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>527</v>
       </c>
@@ -7249,7 +7435,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>655</v>
       </c>
@@ -7257,7 +7443,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>528</v>
       </c>
@@ -7265,7 +7451,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>529</v>
       </c>
@@ -7273,7 +7459,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>530</v>
       </c>
@@ -7281,7 +7467,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>531</v>
       </c>
@@ -7289,7 +7475,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>532</v>
       </c>
@@ -7297,7 +7483,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>533</v>
       </c>
@@ -7305,7 +7491,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>534</v>
       </c>
@@ -7313,7 +7499,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>535</v>
       </c>
@@ -7321,7 +7507,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>656</v>
       </c>
@@ -7329,7 +7515,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>536</v>
       </c>
@@ -7337,7 +7523,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>537</v>
       </c>
@@ -7345,7 +7531,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>538</v>
       </c>
@@ -7353,7 +7539,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>539</v>
       </c>
@@ -7361,7 +7547,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>540</v>
       </c>
@@ -7369,7 +7555,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>541</v>
       </c>
@@ -7377,7 +7563,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>542</v>
       </c>
@@ -7385,7 +7571,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>543</v>
       </c>
@@ -7393,7 +7579,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>544</v>
       </c>
@@ -7401,7 +7587,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>545</v>
       </c>
@@ -7409,7 +7595,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>546</v>
       </c>
@@ -7417,7 +7603,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>547</v>
       </c>
@@ -7425,7 +7611,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>548</v>
       </c>
@@ -7433,7 +7619,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>549</v>
       </c>
@@ -7441,7 +7627,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>550</v>
       </c>
@@ -7449,7 +7635,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>551</v>
       </c>
@@ -7457,7 +7643,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>552</v>
       </c>
@@ -7465,7 +7651,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>553</v>
       </c>
@@ -7473,7 +7659,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>554</v>
       </c>
@@ -7481,7 +7667,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>555</v>
       </c>
@@ -7489,7 +7675,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>556</v>
       </c>
@@ -7497,7 +7683,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>557</v>
       </c>
@@ -7505,7 +7691,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>558</v>
       </c>
@@ -7513,7 +7699,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>559</v>
       </c>
@@ -7521,7 +7707,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>560</v>
       </c>
@@ -7529,7 +7715,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>561</v>
       </c>
@@ -7537,7 +7723,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>562</v>
       </c>
@@ -7545,7 +7731,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>563</v>
       </c>
@@ -7553,7 +7739,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>657</v>
       </c>
@@ -7561,7 +7747,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>564</v>
       </c>
@@ -7569,7 +7755,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>565</v>
       </c>
@@ -7577,7 +7763,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>566</v>
       </c>
@@ -7585,7 +7771,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>567</v>
       </c>
@@ -7593,7 +7779,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>568</v>
       </c>
@@ -7601,7 +7787,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>569</v>
       </c>
@@ -7609,7 +7795,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>570</v>
       </c>
@@ -7617,7 +7803,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>571</v>
       </c>
@@ -7625,7 +7811,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>572</v>
       </c>
@@ -7633,7 +7819,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>573</v>
       </c>
@@ -7641,7 +7827,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>574</v>
       </c>
@@ -7649,7 +7835,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>575</v>
       </c>
@@ -7657,7 +7843,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>576</v>
       </c>
@@ -7665,7 +7851,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="620" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>577</v>
       </c>
@@ -7673,7 +7859,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="621" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>578</v>
       </c>
@@ -7681,7 +7867,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>579</v>
       </c>
@@ -7689,7 +7875,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="623" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>580</v>
       </c>
@@ -7697,7 +7883,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>581</v>
       </c>
@@ -7705,7 +7891,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="625" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>582</v>
       </c>
@@ -7713,7 +7899,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>583</v>
       </c>
@@ -7721,7 +7907,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>584</v>
       </c>
@@ -7729,7 +7915,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>585</v>
       </c>
@@ -7737,7 +7923,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="629" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>586</v>
       </c>
@@ -7745,7 +7931,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="630" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>587</v>
       </c>
@@ -7753,7 +7939,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="631" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>588</v>
       </c>
@@ -7761,7 +7947,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="632" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>589</v>
       </c>
@@ -7769,7 +7955,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="633" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>590</v>
       </c>
@@ -7777,7 +7963,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="634" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>591</v>
       </c>
@@ -7785,7 +7971,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="635" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>592</v>
       </c>
@@ -7793,7 +7979,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="636" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>593</v>
       </c>
@@ -7801,7 +7987,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="637" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>594</v>
       </c>
@@ -7809,7 +7995,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="638" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>595</v>
       </c>
@@ -7817,7 +8003,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="639" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>596</v>
       </c>
@@ -7825,7 +8011,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="640" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>597</v>
       </c>
@@ -7834,7 +8020,7 @@
       </c>
       <c r="C640" s="1"/>
     </row>
-    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>598</v>
       </c>
@@ -7842,7 +8028,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>599</v>
       </c>
@@ -7850,7 +8036,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>600</v>
       </c>
@@ -7858,7 +8044,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="644" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>601</v>
       </c>
@@ -7866,7 +8052,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="645" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>602</v>
       </c>
@@ -7874,7 +8060,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>603</v>
       </c>
@@ -7882,7 +8068,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>604</v>
       </c>
@@ -7890,7 +8076,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>605</v>
       </c>
@@ -7898,7 +8084,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>606</v>
       </c>
@@ -7906,7 +8092,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="650" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>607</v>
       </c>
@@ -7914,7 +8100,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>608</v>
       </c>
@@ -7922,7 +8108,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>609</v>
       </c>
@@ -7930,7 +8116,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>610</v>
       </c>
@@ -7938,7 +8124,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>611</v>
       </c>
@@ -7946,7 +8132,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>612</v>
       </c>
@@ -7954,7 +8140,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>613</v>
       </c>
@@ -7963,11 +8149,14 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C58" r:id="rId1" xr:uid="{EA88CC23-8DEB-439F-9636-E00F8F2C36E7}"/>
+  </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E631A780-6D95-4F64-8369-C1AAFEADF7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82293FEC-2514-439B-91F0-29DF54609B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="709">
   <si>
     <t>taxon</t>
   </si>
@@ -2148,96 +2148,6 @@
   </si>
   <si>
     <t>www/media/fiches/ballus_chalybeius_male.webp</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/8/122548.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/7/322667.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/7/378147.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/6/431746.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/9/210319.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/9/322729.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/5/334975.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/5/443635.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/2/169872.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/6/423276.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/ant/96649.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/ant/96651.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/0/212190.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/1/212191.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/6/122546.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/ant/96748.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/7/170187.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/3/122613.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/6/122526.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/1/423291.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/ant/96865.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/ant/96870.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/4/322774.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/0/415110.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/1/378201.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/2/378202.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/4/122584.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/1/378221.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/8/400418.jpg</t>
-  </si>
-  <si>
-    <t>https://inpn.mnhn.fr/photos/uploads/webtofs/inpn/0/322690.jpg</t>
   </si>
 </sst>
 </file>
@@ -2649,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2685,9 +2595,6 @@
       <c r="C2" t="s">
         <v>678</v>
       </c>
-      <c r="D2" t="s">
-        <v>709</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2696,12 +2603,6 @@
       <c r="B3" t="s">
         <v>659</v>
       </c>
-      <c r="C3" t="s">
-        <v>711</v>
-      </c>
-      <c r="D3" t="s">
-        <v>710</v>
-      </c>
     </row>
     <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2798,9 +2699,6 @@
       <c r="B15" t="s">
         <v>659</v>
       </c>
-      <c r="C15" t="s">
-        <v>712</v>
-      </c>
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2825,12 +2723,6 @@
       <c r="B18" t="s">
         <v>659</v>
       </c>
-      <c r="C18" t="s">
-        <v>713</v>
-      </c>
-      <c r="D18" t="s">
-        <v>714</v>
-      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -2839,9 +2731,6 @@
       <c r="B19" t="s">
         <v>661</v>
       </c>
-      <c r="C19" t="s">
-        <v>715</v>
-      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2850,12 +2739,6 @@
       <c r="B20" t="s">
         <v>659</v>
       </c>
-      <c r="C20" t="s">
-        <v>716</v>
-      </c>
-      <c r="D20" t="s">
-        <v>717</v>
-      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -2867,9 +2750,6 @@
       <c r="C21" t="s">
         <v>679</v>
       </c>
-      <c r="D21" t="s">
-        <v>718</v>
-      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -2878,9 +2758,6 @@
       <c r="B22" t="s">
         <v>659</v>
       </c>
-      <c r="C22" t="s">
-        <v>719</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -2892,9 +2769,6 @@
       <c r="C23" t="s">
         <v>680</v>
       </c>
-      <c r="D23" t="s">
-        <v>720</v>
-      </c>
     </row>
     <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -2919,12 +2793,6 @@
       <c r="B26" t="s">
         <v>659</v>
       </c>
-      <c r="C26" t="s">
-        <v>721</v>
-      </c>
-      <c r="D26" t="s">
-        <v>722</v>
-      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -2933,9 +2801,6 @@
       <c r="B27" t="s">
         <v>659</v>
       </c>
-      <c r="C27" t="s">
-        <v>723</v>
-      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -2944,9 +2809,6 @@
       <c r="B28" t="s">
         <v>659</v>
       </c>
-      <c r="C28" t="s">
-        <v>724</v>
-      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -2955,12 +2817,6 @@
       <c r="B29" t="s">
         <v>659</v>
       </c>
-      <c r="C29" t="s">
-        <v>725</v>
-      </c>
-      <c r="D29" t="s">
-        <v>726</v>
-      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -2972,9 +2828,6 @@
       <c r="C30" t="s">
         <v>681</v>
       </c>
-      <c r="D30" t="s">
-        <v>727</v>
-      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -3051,9 +2904,6 @@
       <c r="C38" t="s">
         <v>683</v>
       </c>
-      <c r="D38" t="s">
-        <v>728</v>
-      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -3062,9 +2912,6 @@
       <c r="B39" t="s">
         <v>659</v>
       </c>
-      <c r="C39" t="s">
-        <v>729</v>
-      </c>
       <c r="D39" t="s">
         <v>684</v>
       </c>
@@ -3087,9 +2934,6 @@
       <c r="B41" t="s">
         <v>659</v>
       </c>
-      <c r="C41" t="s">
-        <v>730</v>
-      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -3098,12 +2942,6 @@
       <c r="B42" t="s">
         <v>659</v>
       </c>
-      <c r="C42" t="s">
-        <v>731</v>
-      </c>
-      <c r="D42" t="s">
-        <v>732</v>
-      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -3131,12 +2969,6 @@
       <c r="B45" t="s">
         <v>659</v>
       </c>
-      <c r="C45" t="s">
-        <v>733</v>
-      </c>
-      <c r="D45" t="s">
-        <v>734</v>
-      </c>
     </row>
     <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -3172,9 +3004,6 @@
       <c r="C49" t="s">
         <v>687</v>
       </c>
-      <c r="D49" t="s">
-        <v>735</v>
-      </c>
     </row>
     <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -3237,9 +3066,6 @@
       <c r="B56" t="s">
         <v>659</v>
       </c>
-      <c r="C56" t="s">
-        <v>736</v>
-      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -3259,9 +3085,7 @@
       <c r="B58" t="s">
         <v>659</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>737</v>
-      </c>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -3311,9 +3135,6 @@
       <c r="B63" t="s">
         <v>659</v>
       </c>
-      <c r="C63" t="s">
-        <v>738</v>
-      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -8149,14 +7970,11 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C58" r:id="rId1" xr:uid="{EA88CC23-8DEB-439F-9636-E00F8F2C36E7}"/>
-  </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/photos.xlsx
+++ b/photos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82293FEC-2514-439B-91F0-29DF54609B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA31B26-C8C1-40D5-8283-59D6A0FDFB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="727">
   <si>
     <t>taxon</t>
   </si>
@@ -2148,6 +2147,60 @@
   </si>
   <si>
     <t>www/media/fiches/ballus_chalybeius_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/carrhotus_xanthogramma_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/euophrys_frontalis_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/evarcha_falcata_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/heliophanus_tribulosus_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/icius_subinermis_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/carrhotus_xanthogramma_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/evarcha_arcuata_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/heliophanus_cupreus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/heliophanus_tribulosus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/icius_subinermis_femelle.webp</t>
+  </si>
+  <si>
+    <t>fiche</t>
+  </si>
+  <si>
+    <t>www/media/fiches/macaroeris_nidicolens_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/macaroeris_nidicolens_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/marpissa_muscosa_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/phlegra_fasciata_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/saitis_barbipes_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/marpissa_muscosa_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/saitis_barbipes_male.webp</t>
   </si>
 </sst>
 </file>
@@ -2207,7 +2260,11 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2221,8 +2278,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}" name="Tableau1" displayName="Tableau1" ref="A1:D656" totalsRowShown="0">
-  <autoFilter ref="A1:D656" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}" name="Tableau1" displayName="Tableau1" ref="A1:E656" totalsRowShown="0">
+  <autoFilter ref="A1:E656" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}">
     <filterColumn colId="1">
       <filters>
         <filter val="?"/>
@@ -2230,11 +2287,14 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8CF3FEBE-EC73-416E-8610-F705B8D6D336}" name="taxon"/>
     <tableColumn id="4" xr3:uid="{666FCC22-DD53-4830-B712-02B264DDA363}" name="id à vue"/>
     <tableColumn id="3" xr3:uid="{84160676-7B2A-4A0C-94B1-2901F12B1A91}" name="femelle"/>
     <tableColumn id="2" xr3:uid="{DBDA5D0E-A4B2-4E10-A6AF-85502F963E80}" name="male"/>
+    <tableColumn id="5" xr3:uid="{428EF79A-9172-4EA3-8B88-E246ACC4B653}" name="fiche" dataDxfId="0">
+      <calculatedColumnFormula>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2557,10 +2617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D656"/>
+  <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A485" workbookViewId="0">
+      <selection activeCell="C512" sqref="C512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2571,7 +2631,7 @@
     <col min="4" max="4" width="54.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2584,8 +2644,11 @@
       <c r="D1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2595,152 +2658,228 @@
       <c r="C2" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E3" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E4" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E5" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E6" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E7" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E8" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E9" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E10" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E11" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E12" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E13" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E15" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E16" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2750,16 +2889,24 @@
       <c r="C21" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2769,56 +2916,84 @@
       <c r="C23" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E23" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E24" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2828,8 +3003,12 @@
       <c r="C30" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2839,8 +3018,12 @@
       <c r="C31" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2853,48 +3036,72 @@
       <c r="D32" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E32" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E33" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E34" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E35" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E36" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2904,8 +3111,12 @@
       <c r="C38" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2915,8 +3126,12 @@
       <c r="D39" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2926,24 +3141,36 @@
       <c r="C40" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>617</v>
       </c>
       <c r="B42" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2953,48 +3180,72 @@
       <c r="C43" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E43" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E45" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E46" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E47" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3004,16 +3255,24 @@
       <c r="C49" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E49" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3023,32 +3282,48 @@
       <c r="C51" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E51" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E52" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E53" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3058,16 +3333,24 @@
       <c r="C55" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>26</v>
       </c>
       <c r="B56" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3077,8 +3360,12 @@
       <c r="C57" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3086,16 +3373,24 @@
         <v>659</v>
       </c>
       <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3108,16 +3403,24 @@
       <c r="D60" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3127,40 +3430,60 @@
       <c r="C62" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E65" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>618</v>
       </c>
       <c r="B66" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -3173,48 +3496,72 @@
       <c r="D67" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E67" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
       <c r="B68" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>619</v>
       </c>
       <c r="B69" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E69" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>620</v>
       </c>
       <c r="B70" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E70" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>66</v>
       </c>
       <c r="B71" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E71" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>67</v>
       </c>
       <c r="B72" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -3224,72 +3571,108 @@
       <c r="C73" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>69</v>
       </c>
       <c r="B74" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E74" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>70</v>
       </c>
       <c r="B75" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E75" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>71</v>
       </c>
       <c r="B76" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E76" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>72</v>
       </c>
       <c r="B77" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E77" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>73</v>
       </c>
       <c r="B78" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E78" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>74</v>
       </c>
       <c r="B79" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E79" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>75</v>
       </c>
       <c r="B80" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E80" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>76</v>
       </c>
       <c r="B81" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E81" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -3297,80 +3680,120 @@
         <v>660</v>
       </c>
       <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E82" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>78</v>
       </c>
       <c r="B83" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E83" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>79</v>
       </c>
       <c r="B84" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E84" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>80</v>
       </c>
       <c r="B85" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E85" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>81</v>
       </c>
       <c r="B86" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E86" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>82</v>
       </c>
       <c r="B87" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E87" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>83</v>
       </c>
       <c r="B88" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E88" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>84</v>
       </c>
       <c r="B89" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E89" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>85</v>
       </c>
       <c r="B90" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E90" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>621</v>
       </c>
       <c r="B91" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -3380,48 +3803,72 @@
       <c r="C92" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E92" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>87</v>
       </c>
       <c r="B93" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E93" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>622</v>
       </c>
       <c r="B94" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E94" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>88</v>
       </c>
       <c r="B95" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E95" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>89</v>
       </c>
       <c r="B96" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>90</v>
       </c>
       <c r="B97" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>91</v>
       </c>
@@ -3431,56 +3878,84 @@
       <c r="D98" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E98" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>92</v>
       </c>
       <c r="B99" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E99" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>93</v>
       </c>
       <c r="B100" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E100" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>94</v>
       </c>
       <c r="B101" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E101" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>95</v>
       </c>
       <c r="B102" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E102" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>96</v>
       </c>
       <c r="B103" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E103" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>97</v>
       </c>
       <c r="B104" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -3493,16 +3968,24 @@
       <c r="D105" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>99</v>
       </c>
       <c r="B106" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>100</v>
       </c>
@@ -3512,8 +3995,12 @@
       <c r="C107" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>101</v>
       </c>
@@ -3523,24 +4010,36 @@
       <c r="C108" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>102</v>
       </c>
       <c r="B109" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E109" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>103</v>
       </c>
       <c r="B110" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>104</v>
       </c>
@@ -3550,16 +4049,24 @@
       <c r="D111" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>105</v>
       </c>
       <c r="B112" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>106</v>
       </c>
@@ -3569,904 +4076,1356 @@
       <c r="D113" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>107</v>
       </c>
       <c r="B114" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>109</v>
       </c>
       <c r="B115" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E115" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>110</v>
       </c>
       <c r="B116" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E116" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>111</v>
       </c>
       <c r="B117" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E117" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>112</v>
       </c>
       <c r="B118" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E118" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>113</v>
       </c>
       <c r="B119" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E119" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>114</v>
       </c>
       <c r="B120" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E120" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>115</v>
       </c>
       <c r="B121" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E121" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>116</v>
       </c>
       <c r="B122" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E122" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>117</v>
       </c>
       <c r="B123" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E123" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>118</v>
       </c>
       <c r="B124" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E124" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>119</v>
       </c>
       <c r="B125" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E125" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>120</v>
       </c>
       <c r="B126" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E126" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>121</v>
       </c>
       <c r="B127" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E127" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>122</v>
       </c>
       <c r="B128" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E128" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>123</v>
       </c>
       <c r="B129" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E129" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>623</v>
       </c>
       <c r="B130" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E130" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>124</v>
       </c>
       <c r="B131" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E131" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>125</v>
       </c>
       <c r="B132" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E132" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>126</v>
       </c>
       <c r="B133" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E133" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>127</v>
       </c>
       <c r="B134" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E134" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>128</v>
       </c>
       <c r="B135" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E135" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>129</v>
       </c>
       <c r="B136" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E136" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>130</v>
       </c>
       <c r="B137" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E137" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>131</v>
       </c>
       <c r="B138" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E138" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>132</v>
       </c>
       <c r="B139" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E139" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>133</v>
       </c>
       <c r="B140" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E140" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>134</v>
       </c>
       <c r="B141" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E141" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>135</v>
       </c>
       <c r="B142" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E142" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>136</v>
       </c>
       <c r="B143" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E143" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>137</v>
       </c>
       <c r="B144" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E144" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>138</v>
       </c>
       <c r="B145" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E145" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>108</v>
       </c>
       <c r="B146" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E146" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>139</v>
       </c>
       <c r="B147" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E147" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>624</v>
       </c>
       <c r="B148" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E148" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>140</v>
       </c>
       <c r="B149" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E149" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>141</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E150" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>142</v>
       </c>
       <c r="B151" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E151" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>143</v>
       </c>
       <c r="B152" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E152" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>144</v>
       </c>
       <c r="B153" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E153" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>145</v>
       </c>
       <c r="B154" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E154" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>146</v>
       </c>
       <c r="B155" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E155" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>147</v>
       </c>
       <c r="B156" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E156" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>148</v>
       </c>
       <c r="B157" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E157" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>149</v>
       </c>
       <c r="B158" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E158" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>150</v>
       </c>
       <c r="B159" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E159" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>151</v>
       </c>
       <c r="B160" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E160" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>152</v>
       </c>
       <c r="B161" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E161" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>153</v>
       </c>
       <c r="B162" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E162" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>154</v>
       </c>
       <c r="B163" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E163" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>155</v>
       </c>
       <c r="B164" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E164" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>156</v>
       </c>
       <c r="B165" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E165" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>157</v>
       </c>
       <c r="B166" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E166" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>158</v>
       </c>
       <c r="B167" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E167" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>159</v>
       </c>
       <c r="B168" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E168" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>160</v>
       </c>
       <c r="B169" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E169" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>161</v>
       </c>
       <c r="B170" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E170" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>162</v>
       </c>
       <c r="B171" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E171" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>163</v>
       </c>
       <c r="B172" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E172" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>164</v>
       </c>
       <c r="B173" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E173" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>165</v>
       </c>
       <c r="B174" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E174" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>166</v>
       </c>
       <c r="B175" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E175" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>167</v>
       </c>
       <c r="B176" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E176" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>168</v>
       </c>
       <c r="B177" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E177" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>169</v>
       </c>
       <c r="B178" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E178" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>170</v>
       </c>
       <c r="B179" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E179" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>171</v>
       </c>
       <c r="B180" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E180" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>172</v>
       </c>
       <c r="B181" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E181" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>173</v>
       </c>
       <c r="B182" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E182" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>174</v>
       </c>
       <c r="B183" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E183" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>175</v>
       </c>
       <c r="B184" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E184" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>176</v>
       </c>
       <c r="B185" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E185" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>177</v>
       </c>
       <c r="B186" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E186" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>625</v>
       </c>
       <c r="B187" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E187" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>178</v>
       </c>
       <c r="B188" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E188" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>179</v>
       </c>
       <c r="B189" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E189" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>180</v>
       </c>
       <c r="B190" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E190" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>181</v>
       </c>
       <c r="B191" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E191" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>182</v>
       </c>
       <c r="B192" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E192" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>183</v>
       </c>
       <c r="B193" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E193" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>184</v>
       </c>
       <c r="B194" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E194" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>185</v>
       </c>
       <c r="B195" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E195" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>186</v>
       </c>
       <c r="B196" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E196" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>187</v>
       </c>
       <c r="B197" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E197" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>188</v>
       </c>
       <c r="B198" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E198" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>189</v>
       </c>
       <c r="B199" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E199" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>190</v>
       </c>
       <c r="B200" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E200" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>191</v>
       </c>
       <c r="B201" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E201" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>192</v>
       </c>
       <c r="B202" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E202" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>193</v>
       </c>
       <c r="B203" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E203" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>194</v>
       </c>
       <c r="B204" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E204" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>195</v>
       </c>
       <c r="B205" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E205" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>196</v>
       </c>
       <c r="B206" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E206" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>197</v>
       </c>
       <c r="B207" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E207" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>198</v>
       </c>
       <c r="B208" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E208" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>199</v>
       </c>
       <c r="B209" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E209" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>200</v>
       </c>
       <c r="B210" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E210" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>201</v>
       </c>
       <c r="B211" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E211" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>202</v>
       </c>
       <c r="B212" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E212" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>203</v>
       </c>
       <c r="B213" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E213" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>204</v>
       </c>
       <c r="B214" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E214" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>205</v>
       </c>
       <c r="B215" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E215" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>206</v>
       </c>
       <c r="B216" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E216" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>207</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E217" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>208</v>
       </c>
       <c r="B218" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E218" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>209</v>
       </c>
       <c r="B219" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E219" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>210</v>
       </c>
       <c r="B220" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E220" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>211</v>
       </c>
       <c r="B221" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E221" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>212</v>
       </c>
       <c r="B222" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E222" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>213</v>
       </c>
       <c r="B223" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E223" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>214</v>
       </c>
       <c r="B224" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E224" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>215</v>
       </c>
       <c r="B225" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E225" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>216</v>
       </c>
@@ -4476,192 +5435,288 @@
       <c r="D226" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E226" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>217</v>
       </c>
       <c r="B227" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E227" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>218</v>
       </c>
       <c r="B228" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E228" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>219</v>
       </c>
       <c r="B229" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E229" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>220</v>
       </c>
       <c r="B230" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E230" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>221</v>
       </c>
       <c r="B231" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E231" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>626</v>
       </c>
       <c r="B232" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E232" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>627</v>
       </c>
       <c r="B233" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E233" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>222</v>
       </c>
       <c r="B234" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E234" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>223</v>
       </c>
       <c r="B235" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E235" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>224</v>
       </c>
       <c r="B236" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E236" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>225</v>
       </c>
       <c r="B237" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E237" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>628</v>
       </c>
       <c r="B238" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E238" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>226</v>
       </c>
       <c r="B239" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E239" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>227</v>
       </c>
       <c r="B240" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E240" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>228</v>
       </c>
       <c r="B241" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E241" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>229</v>
       </c>
       <c r="B242" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E242" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>230</v>
       </c>
       <c r="B243" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E243" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>231</v>
       </c>
       <c r="B244" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E244" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>232</v>
       </c>
       <c r="B245" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E245" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>233</v>
       </c>
       <c r="B246" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E246" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>234</v>
       </c>
       <c r="B247" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E247" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>235</v>
       </c>
       <c r="B248" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E248" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>236</v>
       </c>
       <c r="B249" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E249" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>237</v>
       </c>
@@ -4674,224 +5729,336 @@
       <c r="D250" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E250" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>238</v>
       </c>
       <c r="B251" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E251" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>239</v>
       </c>
       <c r="B252" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E252" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>629</v>
       </c>
       <c r="B253" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E253" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>240</v>
       </c>
       <c r="B254" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E254" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>241</v>
       </c>
       <c r="B255" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E255" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>242</v>
       </c>
       <c r="B256" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E256" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>630</v>
       </c>
       <c r="B257" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E257" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>243</v>
       </c>
       <c r="B258" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E258" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>631</v>
       </c>
       <c r="B259" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E259" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>244</v>
       </c>
       <c r="B260" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E260" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>245</v>
       </c>
       <c r="B261" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E261" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>632</v>
       </c>
       <c r="B262" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E262" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>246</v>
       </c>
       <c r="B263" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E263" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>247</v>
       </c>
       <c r="B264" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E264" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>248</v>
       </c>
       <c r="B265" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E265" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>249</v>
       </c>
       <c r="B266" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E266" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>250</v>
       </c>
       <c r="B267" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E267" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>251</v>
       </c>
       <c r="B268" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E268" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>252</v>
       </c>
       <c r="B269" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E269" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>253</v>
       </c>
       <c r="B270" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E270" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>633</v>
       </c>
       <c r="B271" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E271" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>254</v>
       </c>
       <c r="B272" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E272" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>634</v>
       </c>
       <c r="B273" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E273" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>255</v>
       </c>
       <c r="B274" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E274" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>256</v>
       </c>
       <c r="B275" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E275" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>257</v>
       </c>
       <c r="B276" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E276" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>258</v>
       </c>
       <c r="B277" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E277" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>259</v>
       </c>
@@ -4901,16 +6068,24 @@
       <c r="D278" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E278" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>260</v>
       </c>
       <c r="B279" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E279" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>261</v>
       </c>
@@ -4923,56 +6098,84 @@
       <c r="D280" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E280" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>262</v>
       </c>
       <c r="B281" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E281" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>263</v>
       </c>
       <c r="B282" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E282" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>264</v>
       </c>
       <c r="B283" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E283" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>265</v>
       </c>
       <c r="B284" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E284" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>266</v>
       </c>
       <c r="B285" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E285" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>267</v>
       </c>
       <c r="B286" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E286" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>268</v>
       </c>
@@ -4982,784 +6185,1176 @@
       <c r="C287" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E287" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>269</v>
       </c>
       <c r="B288" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E288" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>270</v>
       </c>
       <c r="B289" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E289" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>271</v>
       </c>
       <c r="B290" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E290" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>272</v>
       </c>
       <c r="B291" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E291" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>273</v>
       </c>
       <c r="B292" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E292" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>274</v>
       </c>
       <c r="B293" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E293" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>275</v>
       </c>
       <c r="B294" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E294" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>635</v>
       </c>
       <c r="B295" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E295" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>276</v>
       </c>
       <c r="B296" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E296" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>277</v>
       </c>
       <c r="B297" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E297" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>278</v>
       </c>
       <c r="B298" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E298" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>279</v>
       </c>
       <c r="B299" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E299" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>280</v>
       </c>
       <c r="B300" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E300" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>281</v>
       </c>
       <c r="B301" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E301" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>282</v>
       </c>
       <c r="B302" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E302" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>283</v>
       </c>
       <c r="B303" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E303" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>284</v>
       </c>
       <c r="B304" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E304" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>636</v>
       </c>
       <c r="B305" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E305" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>285</v>
       </c>
       <c r="B306" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E306" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>286</v>
       </c>
       <c r="B307" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E307" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>287</v>
       </c>
       <c r="B308" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E308" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>637</v>
       </c>
       <c r="B309" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E309" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>288</v>
       </c>
       <c r="B310" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E310" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>289</v>
       </c>
       <c r="B311" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E311" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>290</v>
       </c>
       <c r="B312" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E312" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>291</v>
       </c>
       <c r="B313" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E313" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>292</v>
       </c>
       <c r="B314" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E314" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>293</v>
       </c>
       <c r="B315" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E315" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>294</v>
       </c>
       <c r="B316" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E316" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>295</v>
       </c>
       <c r="B317" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E317" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>296</v>
       </c>
       <c r="B318" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E318" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>297</v>
       </c>
       <c r="B319" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E319" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>298</v>
       </c>
       <c r="B320" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E320" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>299</v>
       </c>
       <c r="B321" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E321" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>300</v>
       </c>
       <c r="B322" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E322" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>301</v>
       </c>
       <c r="B323" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E323" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>302</v>
       </c>
       <c r="B324" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E324" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>303</v>
       </c>
       <c r="B325" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E325" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>304</v>
       </c>
       <c r="B326" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E326" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>305</v>
       </c>
       <c r="B327" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E327" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>306</v>
       </c>
       <c r="B328" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E328" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>307</v>
       </c>
       <c r="B329" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E329" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>308</v>
       </c>
       <c r="B330" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E330" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>638</v>
       </c>
       <c r="B331" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E331" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>309</v>
       </c>
       <c r="B332" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E332" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>639</v>
       </c>
       <c r="B333" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E333" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>310</v>
       </c>
       <c r="B334" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E334" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>614</v>
       </c>
       <c r="B335" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E335" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>311</v>
       </c>
       <c r="B336" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E336" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>640</v>
       </c>
       <c r="B337" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E337" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>312</v>
       </c>
       <c r="B338" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E338" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>313</v>
       </c>
       <c r="B339" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E339" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>314</v>
       </c>
       <c r="B340" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E340" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>315</v>
       </c>
       <c r="B341" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E341" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>316</v>
       </c>
       <c r="B342" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E342" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>641</v>
       </c>
       <c r="B343" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E343" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>317</v>
       </c>
       <c r="B344" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E344" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>318</v>
       </c>
       <c r="B345" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E345" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>319</v>
       </c>
       <c r="B346" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E346" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>320</v>
       </c>
       <c r="B347" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E347" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>321</v>
       </c>
       <c r="B348" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E348" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>322</v>
       </c>
       <c r="B349" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E349" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>642</v>
       </c>
       <c r="B350" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E350" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>323</v>
       </c>
       <c r="B351" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E351" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>324</v>
       </c>
       <c r="B352" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E352" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>643</v>
       </c>
       <c r="B353" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E353" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>325</v>
       </c>
       <c r="B354" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E354" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>326</v>
       </c>
       <c r="B355" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E355" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>327</v>
       </c>
       <c r="B356" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E356" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>644</v>
       </c>
       <c r="B357" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E357" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>328</v>
       </c>
       <c r="B358" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E358" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>329</v>
       </c>
       <c r="B359" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E359" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>330</v>
       </c>
       <c r="B360" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E360" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>331</v>
       </c>
       <c r="B361" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E361" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>332</v>
       </c>
       <c r="B362" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E362" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>333</v>
       </c>
       <c r="B363" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E363" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>334</v>
       </c>
       <c r="B364" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E364" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>335</v>
       </c>
       <c r="B365" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E365" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>336</v>
       </c>
       <c r="B366" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E366" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>337</v>
       </c>
       <c r="B367" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E367" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>338</v>
       </c>
       <c r="B368" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E368" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>339</v>
       </c>
       <c r="B369" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E369" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>340</v>
       </c>
       <c r="B370" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E370" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>341</v>
       </c>
       <c r="B371" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E371" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>342</v>
       </c>
       <c r="B372" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E372" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>343</v>
       </c>
       <c r="B373" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E373" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>344</v>
       </c>
       <c r="B374" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E374" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>345</v>
       </c>
       <c r="B375" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E375" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>346</v>
       </c>
       <c r="B376" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E376" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>347</v>
       </c>
       <c r="B377" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E377" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>348</v>
       </c>
       <c r="B378" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E378" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>349</v>
       </c>
       <c r="B379" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E379" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>350</v>
       </c>
       <c r="B380" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E380" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>351</v>
       </c>
       <c r="B381" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E381" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>352</v>
       </c>
       <c r="B382" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E382" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>353</v>
       </c>
       <c r="B383" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E383" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>354</v>
       </c>
       <c r="B384" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E384" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>355</v>
       </c>
@@ -5769,424 +7364,636 @@
       <c r="D385" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E385" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>356</v>
       </c>
       <c r="B386" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E386" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>645</v>
       </c>
       <c r="B387" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E387" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>357</v>
       </c>
       <c r="B388" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E388" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>358</v>
       </c>
       <c r="B389" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E389" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>359</v>
       </c>
       <c r="B390" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E390" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>360</v>
       </c>
       <c r="B391" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E391" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>361</v>
       </c>
       <c r="B392" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E392" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>362</v>
       </c>
       <c r="B393" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E393" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>363</v>
       </c>
       <c r="B394" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E394" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>364</v>
       </c>
       <c r="B395" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E395" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>365</v>
       </c>
       <c r="B396" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E396" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>366</v>
       </c>
       <c r="B397" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E397" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>367</v>
       </c>
       <c r="B398" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E398" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>368</v>
       </c>
       <c r="B399" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E399" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>369</v>
       </c>
       <c r="B400" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E400" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>370</v>
       </c>
       <c r="B401" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E401" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>371</v>
       </c>
       <c r="B402" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E402" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>372</v>
       </c>
       <c r="B403" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E403" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>373</v>
       </c>
       <c r="B404" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E404" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>374</v>
       </c>
       <c r="B405" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E405" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>375</v>
       </c>
       <c r="B406" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E406" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>376</v>
       </c>
       <c r="B407" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E407" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>377</v>
       </c>
       <c r="B408" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E408" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>378</v>
       </c>
       <c r="B409" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E409" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>379</v>
       </c>
       <c r="B410" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E410" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>380</v>
       </c>
       <c r="B411" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E411" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>381</v>
       </c>
       <c r="B412" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E412" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>382</v>
       </c>
       <c r="B413" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E413" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>383</v>
       </c>
       <c r="B414" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E414" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>384</v>
       </c>
       <c r="B415" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E415" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>385</v>
       </c>
       <c r="B416" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E416" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>386</v>
       </c>
       <c r="B417" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E417" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>387</v>
       </c>
       <c r="B418" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E418" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>388</v>
       </c>
       <c r="B419" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E419" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>389</v>
       </c>
       <c r="B420" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E420" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>390</v>
       </c>
       <c r="B421" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E421" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>391</v>
       </c>
       <c r="B422" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E422" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>392</v>
       </c>
       <c r="B423" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E423" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>393</v>
       </c>
       <c r="B424" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E424" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>646</v>
       </c>
       <c r="B425" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E425" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>394</v>
       </c>
       <c r="B426" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E426" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>395</v>
       </c>
       <c r="B427" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E427" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>396</v>
       </c>
       <c r="B428" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E428" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>397</v>
       </c>
       <c r="B429" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E429" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>647</v>
       </c>
       <c r="B430" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E430" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>398</v>
       </c>
       <c r="B431" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E431" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>399</v>
       </c>
       <c r="B432" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E432" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>400</v>
       </c>
       <c r="B433" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E433" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>401</v>
       </c>
       <c r="B434" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E434" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>402</v>
       </c>
       <c r="B435" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E435" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>403</v>
       </c>
       <c r="B436" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E436" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>404</v>
       </c>
       <c r="B437" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E437" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>405</v>
       </c>
@@ -6199,136 +8006,204 @@
       <c r="D438" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E438" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>648</v>
       </c>
       <c r="B439" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E439" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>406</v>
       </c>
       <c r="B440" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E440" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>649</v>
       </c>
       <c r="B441" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E441" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>407</v>
       </c>
       <c r="B442" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E442" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>408</v>
       </c>
       <c r="B443" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E443" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>409</v>
       </c>
       <c r="B444" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E444" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>410</v>
       </c>
       <c r="B445" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E445" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>650</v>
       </c>
       <c r="B446" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E446" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>651</v>
       </c>
       <c r="B447" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E447" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>411</v>
       </c>
       <c r="B448" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E448" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>412</v>
       </c>
       <c r="B449" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E449" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>413</v>
       </c>
       <c r="B450" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E450" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>414</v>
       </c>
       <c r="B451" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E451" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>415</v>
       </c>
       <c r="B452" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E452" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>416</v>
       </c>
       <c r="B453" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E453" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>417</v>
       </c>
       <c r="B454" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E454" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>418</v>
       </c>
@@ -6338,16 +8213,24 @@
       <c r="C455" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E455" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>419</v>
       </c>
       <c r="B456" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E456" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>420</v>
       </c>
@@ -6360,8 +8243,12 @@
       <c r="D457" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E457" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>421</v>
       </c>
@@ -6371,48 +8258,72 @@
       <c r="D458" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E458" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>422</v>
       </c>
       <c r="B459" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E459" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>423</v>
       </c>
       <c r="B460" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E460" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>424</v>
       </c>
       <c r="B461" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E461" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>425</v>
       </c>
       <c r="B462" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E462" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>426</v>
       </c>
       <c r="B463" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E463" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>427</v>
       </c>
@@ -6425,40 +8336,60 @@
       <c r="D464" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E464" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>428</v>
       </c>
       <c r="B465" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E465" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>429</v>
       </c>
       <c r="B466" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E466" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>430</v>
       </c>
       <c r="B467" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E467" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>431</v>
       </c>
       <c r="B468" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E468" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>432</v>
       </c>
@@ -6468,16 +8399,24 @@
       <c r="D469" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E469" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>433</v>
       </c>
       <c r="B470" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E470" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>434</v>
       </c>
@@ -6487,1352 +8426,2079 @@
       <c r="D471" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E471" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>435</v>
       </c>
       <c r="B472" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E472" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>652</v>
       </c>
       <c r="B473" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C473" t="s">
+        <v>714</v>
+      </c>
+      <c r="D473" t="s">
+        <v>709</v>
+      </c>
+      <c r="E473" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>436</v>
       </c>
       <c r="B474" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E474" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>437</v>
       </c>
       <c r="B475" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E475" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>439</v>
       </c>
       <c r="B476" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D476" t="s">
+        <v>710</v>
+      </c>
+      <c r="E476" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>440</v>
       </c>
       <c r="B477" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C477" t="s">
+        <v>715</v>
+      </c>
+      <c r="E477" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>441</v>
       </c>
       <c r="B478" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D478" t="s">
+        <v>711</v>
+      </c>
+      <c r="E478" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>442</v>
       </c>
       <c r="B479" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E479" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>443</v>
       </c>
       <c r="B480" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E480" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>444</v>
       </c>
       <c r="B481" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E481" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>445</v>
       </c>
       <c r="B482" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E482" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>446</v>
       </c>
       <c r="B483" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C483" t="s">
+        <v>716</v>
+      </c>
+      <c r="E483" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>447</v>
       </c>
       <c r="B484" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E484" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>448</v>
       </c>
       <c r="B485" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E485" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>449</v>
       </c>
       <c r="B486" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C486" t="s">
+        <v>717</v>
+      </c>
+      <c r="D486" t="s">
+        <v>712</v>
+      </c>
+      <c r="E486" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>450</v>
       </c>
       <c r="B487" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C487" t="s">
+        <v>718</v>
+      </c>
+      <c r="D487" t="s">
+        <v>713</v>
+      </c>
+      <c r="E487" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>653</v>
       </c>
       <c r="B488" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E488" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>438</v>
       </c>
       <c r="B489" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C489" t="s">
+        <v>720</v>
+      </c>
+      <c r="D489" t="s">
+        <v>721</v>
+      </c>
+      <c r="E489" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>451</v>
       </c>
       <c r="B490" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C490" t="s">
+        <v>722</v>
+      </c>
+      <c r="D490" t="s">
+        <v>725</v>
+      </c>
+      <c r="E490" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>452</v>
       </c>
       <c r="B491" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E491" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>453</v>
       </c>
       <c r="B492" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E492" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>454</v>
       </c>
       <c r="B493" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E493" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>455</v>
       </c>
       <c r="B494" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E494" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>456</v>
       </c>
       <c r="B495" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E495" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>457</v>
       </c>
       <c r="B496" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E496" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>458</v>
       </c>
       <c r="B497" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E497" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>459</v>
       </c>
       <c r="B498" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E498" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>460</v>
       </c>
       <c r="B499" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E499" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>461</v>
       </c>
       <c r="B500" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E500" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>462</v>
       </c>
       <c r="B501" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E501" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>463</v>
       </c>
       <c r="B502" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E502" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>464</v>
       </c>
       <c r="B503" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E503" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>465</v>
       </c>
       <c r="B504" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C504" t="s">
+        <v>723</v>
+      </c>
+      <c r="E504" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>466</v>
       </c>
       <c r="B505" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E505" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>467</v>
       </c>
-      <c r="B506" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B506" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E506" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>468</v>
       </c>
-      <c r="B507" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B507" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E507" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>469</v>
       </c>
       <c r="B508" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E508" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>470</v>
       </c>
       <c r="B509" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C509" t="s">
+        <v>724</v>
+      </c>
+      <c r="D509" t="s">
+        <v>726</v>
+      </c>
+      <c r="E509" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>471</v>
       </c>
       <c r="B510" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E510" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>472</v>
       </c>
       <c r="B511" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E511" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>473</v>
       </c>
       <c r="B512" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E512" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>474</v>
       </c>
       <c r="B513" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E513" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>475</v>
       </c>
       <c r="B514" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E514" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>476</v>
       </c>
       <c r="B515" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E515" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>477</v>
       </c>
       <c r="B516" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E516" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>478</v>
       </c>
       <c r="B517" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E517" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>479</v>
       </c>
       <c r="B518" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E518" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>480</v>
       </c>
       <c r="B519" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E519" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>481</v>
       </c>
       <c r="B520" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E520" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>482</v>
       </c>
       <c r="B521" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E521" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>483</v>
       </c>
       <c r="B522" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E522" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>484</v>
       </c>
       <c r="B523" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E523" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>485</v>
       </c>
       <c r="B524" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E524" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>487</v>
       </c>
       <c r="B525" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E525" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>486</v>
       </c>
       <c r="B526" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E526" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>488</v>
       </c>
       <c r="B527" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E527" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>489</v>
       </c>
       <c r="B528" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E528" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>490</v>
       </c>
       <c r="B529" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E529" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>491</v>
       </c>
       <c r="B530" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E530" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>492</v>
       </c>
       <c r="B531" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E531" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>493</v>
       </c>
       <c r="B532" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E532" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>495</v>
       </c>
       <c r="B533" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E533" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>494</v>
       </c>
       <c r="B534" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E534" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>496</v>
       </c>
       <c r="B535" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E535" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>497</v>
       </c>
       <c r="B536" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E536" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>498</v>
       </c>
       <c r="B537" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E537" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>499</v>
       </c>
       <c r="B538" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E538" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>500</v>
       </c>
       <c r="B539" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E539" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>501</v>
       </c>
       <c r="B540" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E540" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>502</v>
       </c>
       <c r="B541" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E541" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>503</v>
       </c>
       <c r="B542" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E542" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>504</v>
       </c>
       <c r="B543" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E543" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>505</v>
       </c>
       <c r="B544" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E544" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>506</v>
       </c>
       <c r="B545" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E545" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>507</v>
       </c>
       <c r="B546" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E546" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>508</v>
       </c>
       <c r="B547" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E547" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>509</v>
       </c>
       <c r="B548" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E548" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>510</v>
       </c>
       <c r="B549" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E549" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>511</v>
       </c>
       <c r="B550" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E550" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>512</v>
       </c>
       <c r="B551" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E551" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>513</v>
       </c>
       <c r="B552" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E552" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>514</v>
       </c>
       <c r="B553" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E553" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>515</v>
       </c>
       <c r="B554" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E554" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>516</v>
       </c>
       <c r="B555" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E555" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>517</v>
       </c>
       <c r="B556" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E556" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>654</v>
       </c>
       <c r="B557" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E557" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>519</v>
       </c>
       <c r="B558" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E558" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>518</v>
       </c>
       <c r="B559" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E559" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>520</v>
       </c>
       <c r="B560" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E560" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>521</v>
       </c>
       <c r="B561" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E561" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>522</v>
       </c>
       <c r="B562" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E562" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>523</v>
       </c>
       <c r="B563" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E563" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>524</v>
       </c>
       <c r="B564" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E564" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>525</v>
       </c>
       <c r="B565" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E565" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>526</v>
       </c>
       <c r="B566" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E566" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>527</v>
       </c>
       <c r="B567" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E567" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>655</v>
       </c>
       <c r="B568" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E568" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>528</v>
       </c>
       <c r="B569" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E569" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>529</v>
       </c>
       <c r="B570" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E570" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>530</v>
       </c>
       <c r="B571" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E571" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>531</v>
       </c>
       <c r="B572" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E572" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>532</v>
       </c>
       <c r="B573" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E573" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>533</v>
       </c>
       <c r="B574" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E574" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>534</v>
       </c>
       <c r="B575" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E575" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>535</v>
       </c>
       <c r="B576" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E576" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>656</v>
       </c>
       <c r="B577" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E577" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>536</v>
       </c>
       <c r="B578" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E578" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>537</v>
       </c>
       <c r="B579" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E579" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>538</v>
       </c>
       <c r="B580" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E580" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>539</v>
       </c>
       <c r="B581" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E581" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>540</v>
       </c>
       <c r="B582" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E582" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>541</v>
       </c>
       <c r="B583" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E583" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>542</v>
       </c>
       <c r="B584" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E584" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>543</v>
       </c>
       <c r="B585" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E585" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>544</v>
       </c>
       <c r="B586" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E586" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>545</v>
       </c>
       <c r="B587" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E587" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>546</v>
       </c>
       <c r="B588" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E588" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>547</v>
       </c>
       <c r="B589" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E589" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>548</v>
       </c>
       <c r="B590" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E590" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>549</v>
       </c>
       <c r="B591" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E591" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>550</v>
       </c>
       <c r="B592" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E592" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>551</v>
       </c>
       <c r="B593" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E593" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>552</v>
       </c>
       <c r="B594" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E594" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>553</v>
       </c>
       <c r="B595" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E595" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>554</v>
       </c>
       <c r="B596" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E596" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>555</v>
       </c>
       <c r="B597" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E597" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>556</v>
       </c>
       <c r="B598" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E598" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>557</v>
       </c>
       <c r="B599" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E599" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>558</v>
       </c>
       <c r="B600" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E600" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>559</v>
       </c>
       <c r="B601" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E601" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>560</v>
       </c>
       <c r="B602" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E602" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>561</v>
       </c>
       <c r="B603" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E603" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>562</v>
       </c>
       <c r="B604" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E604" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>563</v>
       </c>
       <c r="B605" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E605" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>657</v>
       </c>
       <c r="B606" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E606" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>564</v>
       </c>
       <c r="B607" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E607" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>565</v>
       </c>
       <c r="B608" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E608" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>566</v>
       </c>
       <c r="B609" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E609" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>567</v>
       </c>
       <c r="B610" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E610" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>568</v>
       </c>
       <c r="B611" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E611" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>569</v>
       </c>
       <c r="B612" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E612" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>570</v>
       </c>
       <c r="B613" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E613" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>571</v>
       </c>
       <c r="B614" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E614" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>572</v>
       </c>
       <c r="B615" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E615" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>573</v>
       </c>
       <c r="B616" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E616" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>574</v>
       </c>
       <c r="B617" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E617" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>575</v>
       </c>
       <c r="B618" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E618" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>576</v>
       </c>
       <c r="B619" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="620" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E619" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>577</v>
       </c>
       <c r="B620" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="621" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E620" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>578</v>
       </c>
       <c r="B621" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E621" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>579</v>
       </c>
       <c r="B622" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="623" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E622" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>580</v>
       </c>
       <c r="B623" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E623" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>581</v>
       </c>
       <c r="B624" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="625" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E624" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>582</v>
       </c>
       <c r="B625" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E625" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>583</v>
       </c>
       <c r="B626" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E626" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>584</v>
       </c>
       <c r="B627" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E627" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>585</v>
       </c>
       <c r="B628" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="629" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E628" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>586</v>
       </c>
       <c r="B629" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="630" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E629" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>587</v>
       </c>
       <c r="B630" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="631" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E630" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>588</v>
       </c>
       <c r="B631" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="632" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E631" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>589</v>
       </c>
       <c r="B632" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="633" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E632" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>590</v>
       </c>
       <c r="B633" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="634" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E633" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>591</v>
       </c>
       <c r="B634" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="635" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E634" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>592</v>
       </c>
       <c r="B635" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="636" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E635" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>593</v>
       </c>
       <c r="B636" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="637" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E636" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>594</v>
       </c>
       <c r="B637" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="638" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E637" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>595</v>
       </c>
       <c r="B638" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="639" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E638" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>596</v>
       </c>
       <c r="B639" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="640" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E639" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>597</v>
       </c>
@@ -7840,133 +10506,201 @@
         <v>660</v>
       </c>
       <c r="C640" s="1"/>
-    </row>
-    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E640" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>598</v>
       </c>
       <c r="B641" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E641" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>599</v>
       </c>
       <c r="B642" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E642" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>600</v>
       </c>
       <c r="B643" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="644" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E643" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>601</v>
       </c>
       <c r="B644" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="645" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E644" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>602</v>
       </c>
       <c r="B645" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E645" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>603</v>
       </c>
       <c r="B646" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E646" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>604</v>
       </c>
       <c r="B647" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E647" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>605</v>
       </c>
       <c r="B648" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E648" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>606</v>
       </c>
       <c r="B649" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="650" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E649" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>607</v>
       </c>
       <c r="B650" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E650" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>608</v>
       </c>
       <c r="B651" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E651" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>609</v>
       </c>
       <c r="B652" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E652" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>610</v>
       </c>
       <c r="B653" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E653" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>611</v>
       </c>
       <c r="B654" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E654" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>612</v>
       </c>
       <c r="B655" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E655" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>613</v>
       </c>
       <c r="B656" t="s">
         <v>659</v>
+      </c>
+      <c r="E656" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA31B26-C8C1-40D5-8283-59D6A0FDFB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5D0208-64BD-4767-A897-42C41E668F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="729">
   <si>
     <t>taxon</t>
   </si>
@@ -2197,10 +2197,16 @@
     <t>www/media/fiches/saitis_barbipes_femelle.webp</t>
   </si>
   <si>
+    <t>www/media/fiches/salticus_mutabilis_femelle.webp</t>
+  </si>
+  <si>
     <t>www/media/fiches/marpissa_muscosa_male.webp</t>
   </si>
   <si>
     <t>www/media/fiches/saitis_barbipes_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/salticus_scenicus_male.webp</t>
   </si>
 </sst>
 </file>
@@ -2619,8 +2625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A485" workbookViewId="0">
-      <selection activeCell="C512" sqref="C512"/>
+    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
+      <selection activeCell="D519" sqref="D519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8694,7 +8700,7 @@
         <v>722</v>
       </c>
       <c r="D490" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E490" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
@@ -8931,7 +8937,7 @@
         <v>724</v>
       </c>
       <c r="D509" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E509" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
@@ -8969,9 +8975,12 @@
       <c r="B512" t="s">
         <v>659</v>
       </c>
+      <c r="C512" t="s">
+        <v>725</v>
+      </c>
       <c r="E512" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
@@ -8981,9 +8990,12 @@
       <c r="B513" t="s">
         <v>659</v>
       </c>
+      <c r="D513" t="s">
+        <v>728</v>
+      </c>
       <c r="E513" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5D0208-64BD-4767-A897-42C41E668F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674F254B-F743-444F-A654-6A803F77B465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="730">
   <si>
     <t>taxon</t>
   </si>
@@ -2198,6 +2198,9 @@
   </si>
   <si>
     <t>www/media/fiches/salticus_mutabilis_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/scytodes_thoracica_femelle.webp</t>
   </si>
   <si>
     <t>www/media/fiches/marpissa_muscosa_male.webp</t>
@@ -2625,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
-      <selection activeCell="D519" sqref="D519"/>
+    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
+      <selection activeCell="C524" sqref="C524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8700,7 +8703,7 @@
         <v>722</v>
       </c>
       <c r="D490" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E490" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
@@ -8937,7 +8940,7 @@
         <v>724</v>
       </c>
       <c r="D509" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E509" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
@@ -8991,7 +8994,7 @@
         <v>659</v>
       </c>
       <c r="D513" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E513" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
@@ -9113,9 +9116,12 @@
       <c r="B523" t="s">
         <v>659</v>
       </c>
+      <c r="C523" t="s">
+        <v>726</v>
+      </c>
       <c r="E523" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.3">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674F254B-F743-444F-A654-6A803F77B465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37F73DB-2F4D-4410-9B3D-3B584C466CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="732">
   <si>
     <t>taxon</t>
   </si>
@@ -2201,6 +2201,12 @@
   </si>
   <si>
     <t>www/media/fiches/scytodes_thoracica_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/segestria_bavarica_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/segestria_florentina_femelle.webp</t>
   </si>
   <si>
     <t>www/media/fiches/marpissa_muscosa_male.webp</t>
@@ -2628,8 +2634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
-      <selection activeCell="C524" sqref="C524"/>
+    <sheetView tabSelected="1" topLeftCell="A491" workbookViewId="0">
+      <selection activeCell="C526" sqref="C526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8703,7 +8709,7 @@
         <v>722</v>
       </c>
       <c r="D490" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="E490" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
@@ -8940,7 +8946,7 @@
         <v>724</v>
       </c>
       <c r="D509" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="E509" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
@@ -8994,7 +9000,7 @@
         <v>659</v>
       </c>
       <c r="D513" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E513" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
@@ -9131,9 +9137,12 @@
       <c r="B524" t="s">
         <v>659</v>
       </c>
+      <c r="C524" t="s">
+        <v>727</v>
+      </c>
       <c r="E524" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.3">
@@ -9143,9 +9152,12 @@
       <c r="B525" t="s">
         <v>659</v>
       </c>
+      <c r="C525" t="s">
+        <v>728</v>
+      </c>
       <c r="E525" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.3">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37F73DB-2F4D-4410-9B3D-3B584C466CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52B1581-C819-4E52-B46B-05138F3F3C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="736">
   <si>
     <t>taxon</t>
   </si>
@@ -2216,6 +2216,18 @@
   </si>
   <si>
     <t>www/media/fiches/salticus_scenicus_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/metellina_mengei_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/metellina_merianae_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/metellina_segmentata_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/metellina_mengei_male.webp</t>
   </si>
 </sst>
 </file>
@@ -2634,8 +2646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A491" workbookViewId="0">
-      <selection activeCell="C526" sqref="C526"/>
+    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
+      <selection activeCell="C534" sqref="C534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9239,9 +9251,15 @@
       <c r="B532" t="s">
         <v>659</v>
       </c>
+      <c r="C532" t="s">
+        <v>732</v>
+      </c>
+      <c r="D532" t="s">
+        <v>735</v>
+      </c>
       <c r="E532" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.3">
@@ -9251,9 +9269,12 @@
       <c r="B533" t="s">
         <v>659</v>
       </c>
+      <c r="C533" t="s">
+        <v>733</v>
+      </c>
       <c r="E533" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.3">
@@ -9263,9 +9284,12 @@
       <c r="B534" t="s">
         <v>659</v>
       </c>
+      <c r="C534" t="s">
+        <v>734</v>
+      </c>
       <c r="E534" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.3">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52B1581-C819-4E52-B46B-05138F3F3C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37785BF8-B372-4E5C-9DDB-9ED951EA8BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="737">
   <si>
     <t>taxon</t>
   </si>
@@ -2228,6 +2228,9 @@
   </si>
   <si>
     <t>www/media/fiches/metellina_mengei_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/pachygnatha_degeeri_male.webp</t>
   </si>
 </sst>
 </file>
@@ -2646,8 +2649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="C534" sqref="C534"/>
+    <sheetView tabSelected="1" topLeftCell="A525" workbookViewId="0">
+      <selection activeCell="D537" sqref="D537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9311,9 +9314,12 @@
       <c r="B536" t="s">
         <v>659</v>
       </c>
+      <c r="D536" t="s">
+        <v>736</v>
+      </c>
       <c r="E536" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37785BF8-B372-4E5C-9DDB-9ED951EA8BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CCCBB2-CD67-42FC-974C-67344A13B3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="750">
   <si>
     <t>taxon</t>
   </si>
@@ -2231,6 +2231,45 @@
   </si>
   <si>
     <t>www/media/fiches/pachygnatha_degeeri_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/episinus_maculipes_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/episinus_truncatus_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/euryopis_flavomaculata_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/neottiura_bimaculata_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/dipoena_melanogaster_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/episinus_maculipes_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/parasteatoda_lunata_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/parasteatoda_tepidariorum_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/platnickina_tincta_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/steatoda_grossa_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/steatoda_nobilis_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/steatoda_grossa_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/steatoda_nobilis_male.webp</t>
   </si>
 </sst>
 </file>
@@ -2309,14 +2348,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}" name="Tableau1" displayName="Tableau1" ref="A1:E656" totalsRowShown="0">
-  <autoFilter ref="A1:E656" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="?"/>
-        <filter val="oui"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E656" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8CF3FEBE-EC73-416E-8610-F705B8D6D336}" name="taxon"/>
     <tableColumn id="4" xr3:uid="{666FCC22-DD53-4830-B712-02B264DDA363}" name="id à vue"/>
@@ -2649,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A525" workbookViewId="0">
-      <selection activeCell="D537" sqref="D537"/>
+    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
+      <selection activeCell="D595" sqref="D595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2705,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2717,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2729,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2741,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2753,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2765,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2777,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2789,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2801,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2813,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2825,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2849,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2861,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2951,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2963,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3071,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3083,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -3095,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -3107,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -3119,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3215,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3239,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3251,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3263,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3290,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3317,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3329,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3341,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3501,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>618</v>
       </c>
@@ -3531,7 +3563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -3555,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>620</v>
       </c>
@@ -3567,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -3579,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -3618,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -3630,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -3642,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -3654,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -3666,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -3678,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>75</v>
       </c>
@@ -3690,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -3702,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -3715,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -3727,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>79</v>
       </c>
@@ -3739,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -3751,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>81</v>
       </c>
@@ -3763,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -3775,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>83</v>
       </c>
@@ -3787,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -3799,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>85</v>
       </c>
@@ -3811,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>621</v>
       </c>
@@ -3838,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -3850,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>622</v>
       </c>
@@ -3862,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -3874,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>89</v>
       </c>
@@ -3913,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>92</v>
       </c>
@@ -3925,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>93</v>
       </c>
@@ -3937,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>94</v>
       </c>
@@ -3949,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -3961,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -3973,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>97</v>
       </c>
@@ -4057,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -4135,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>110</v>
       </c>
@@ -4147,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>111</v>
       </c>
@@ -4159,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -4171,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>113</v>
       </c>
@@ -4183,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -4195,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>115</v>
       </c>
@@ -4207,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>116</v>
       </c>
@@ -4219,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -4231,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -4243,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>119</v>
       </c>
@@ -4255,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>120</v>
       </c>
@@ -4267,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -4279,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>122</v>
       </c>
@@ -4291,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -4303,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>623</v>
       </c>
@@ -4315,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>124</v>
       </c>
@@ -4327,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>125</v>
       </c>
@@ -4339,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>126</v>
       </c>
@@ -4351,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>127</v>
       </c>
@@ -4363,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>128</v>
       </c>
@@ -4387,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>130</v>
       </c>
@@ -4411,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>132</v>
       </c>
@@ -4447,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>135</v>
       </c>
@@ -4459,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>136</v>
       </c>
@@ -4471,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>137</v>
       </c>
@@ -4483,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>138</v>
       </c>
@@ -4555,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>142</v>
       </c>
@@ -4579,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>144</v>
       </c>
@@ -4591,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>145</v>
       </c>
@@ -4603,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>146</v>
       </c>
@@ -4615,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>147</v>
       </c>
@@ -4627,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>148</v>
       </c>
@@ -4639,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>149</v>
       </c>
@@ -4651,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -4663,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>151</v>
       </c>
@@ -4675,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>152</v>
       </c>
@@ -4699,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>154</v>
       </c>
@@ -4711,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>155</v>
       </c>
@@ -4723,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>156</v>
       </c>
@@ -4735,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>157</v>
       </c>
@@ -4747,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>158</v>
       </c>
@@ -4759,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>159</v>
       </c>
@@ -4771,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -4783,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -4795,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>162</v>
       </c>
@@ -4807,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>163</v>
       </c>
@@ -4819,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>164</v>
       </c>
@@ -4831,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>165</v>
       </c>
@@ -4843,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>166</v>
       </c>
@@ -4855,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>167</v>
       </c>
@@ -4867,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>168</v>
       </c>
@@ -4879,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>169</v>
       </c>
@@ -4891,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>170</v>
       </c>
@@ -4903,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>171</v>
       </c>
@@ -4915,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>172</v>
       </c>
@@ -4927,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>173</v>
       </c>
@@ -4939,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>174</v>
       </c>
@@ -4951,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>175</v>
       </c>
@@ -4963,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>176</v>
       </c>
@@ -4975,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>177</v>
       </c>
@@ -4987,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>625</v>
       </c>
@@ -4999,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>178</v>
       </c>
@@ -5011,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -5023,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>180</v>
       </c>
@@ -5035,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>181</v>
       </c>
@@ -5047,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>182</v>
       </c>
@@ -5059,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>183</v>
       </c>
@@ -5071,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>184</v>
       </c>
@@ -5083,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>185</v>
       </c>
@@ -5095,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>186</v>
       </c>
@@ -5107,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>187</v>
       </c>
@@ -5119,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>188</v>
       </c>
@@ -5131,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>189</v>
       </c>
@@ -5143,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>190</v>
       </c>
@@ -5155,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>191</v>
       </c>
@@ -5167,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>192</v>
       </c>
@@ -5179,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>193</v>
       </c>
@@ -5191,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>194</v>
       </c>
@@ -5203,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>195</v>
       </c>
@@ -5215,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>196</v>
       </c>
@@ -5227,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>197</v>
       </c>
@@ -5239,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>198</v>
       </c>
@@ -5251,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>199</v>
       </c>
@@ -5263,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>200</v>
       </c>
@@ -5275,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>201</v>
       </c>
@@ -5287,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>202</v>
       </c>
@@ -5299,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>203</v>
       </c>
@@ -5311,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>204</v>
       </c>
@@ -5323,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>205</v>
       </c>
@@ -5335,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>206</v>
       </c>
@@ -5347,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>207</v>
       </c>
@@ -5359,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>208</v>
       </c>
@@ -5371,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>209</v>
       </c>
@@ -5383,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>210</v>
       </c>
@@ -5395,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>211</v>
       </c>
@@ -5407,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>212</v>
       </c>
@@ -5419,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>213</v>
       </c>
@@ -5431,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>214</v>
       </c>
@@ -5470,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>217</v>
       </c>
@@ -5482,7 +5514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>218</v>
       </c>
@@ -5494,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>219</v>
       </c>
@@ -5506,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>220</v>
       </c>
@@ -5518,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>221</v>
       </c>
@@ -5530,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>626</v>
       </c>
@@ -5542,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>627</v>
       </c>
@@ -5554,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>222</v>
       </c>
@@ -5566,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>223</v>
       </c>
@@ -5578,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>224</v>
       </c>
@@ -5590,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>225</v>
       </c>
@@ -5602,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>628</v>
       </c>
@@ -5614,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>226</v>
       </c>
@@ -5626,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>227</v>
       </c>
@@ -5638,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>228</v>
       </c>
@@ -5650,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>229</v>
       </c>
@@ -5662,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>230</v>
       </c>
@@ -5674,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>231</v>
       </c>
@@ -5686,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>232</v>
       </c>
@@ -5698,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>233</v>
       </c>
@@ -5710,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>234</v>
       </c>
@@ -5722,7 +5754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>235</v>
       </c>
@@ -5734,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>236</v>
       </c>
@@ -5764,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>238</v>
       </c>
@@ -5776,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>239</v>
       </c>
@@ -5788,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>629</v>
       </c>
@@ -5800,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>240</v>
       </c>
@@ -5812,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>241</v>
       </c>
@@ -5824,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>242</v>
       </c>
@@ -5836,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>630</v>
       </c>
@@ -5848,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>243</v>
       </c>
@@ -5860,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>631</v>
       </c>
@@ -5872,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>244</v>
       </c>
@@ -5884,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>245</v>
       </c>
@@ -5896,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>632</v>
       </c>
@@ -5908,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>246</v>
       </c>
@@ -5920,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>247</v>
       </c>
@@ -5932,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>248</v>
       </c>
@@ -5944,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>249</v>
       </c>
@@ -5956,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>250</v>
       </c>
@@ -5968,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>251</v>
       </c>
@@ -5980,7 +6012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>252</v>
       </c>
@@ -5992,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>253</v>
       </c>
@@ -6004,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>633</v>
       </c>
@@ -6016,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>254</v>
       </c>
@@ -6028,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>634</v>
       </c>
@@ -6040,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>255</v>
       </c>
@@ -6064,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>257</v>
       </c>
@@ -6076,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>258</v>
       </c>
@@ -6103,7 +6135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>260</v>
       </c>
@@ -6133,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>262</v>
       </c>
@@ -6145,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>263</v>
       </c>
@@ -6157,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>264</v>
       </c>
@@ -6169,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>265</v>
       </c>
@@ -6181,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>266</v>
       </c>
@@ -6193,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>267</v>
       </c>
@@ -6220,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>269</v>
       </c>
@@ -6232,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>270</v>
       </c>
@@ -6244,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>271</v>
       </c>
@@ -6256,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>272</v>
       </c>
@@ -6268,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>273</v>
       </c>
@@ -6280,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>274</v>
       </c>
@@ -6292,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>275</v>
       </c>
@@ -6304,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>635</v>
       </c>
@@ -6316,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>276</v>
       </c>
@@ -6328,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>277</v>
       </c>
@@ -6340,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>278</v>
       </c>
@@ -6352,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>279</v>
       </c>
@@ -6364,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>280</v>
       </c>
@@ -6376,7 +6408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>281</v>
       </c>
@@ -6388,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>282</v>
       </c>
@@ -6400,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>283</v>
       </c>
@@ -6412,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>284</v>
       </c>
@@ -6424,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>636</v>
       </c>
@@ -6436,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>285</v>
       </c>
@@ -6448,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>286</v>
       </c>
@@ -6460,7 +6492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>287</v>
       </c>
@@ -6472,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>637</v>
       </c>
@@ -6484,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>288</v>
       </c>
@@ -6496,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>289</v>
       </c>
@@ -6508,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>290</v>
       </c>
@@ -6520,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>291</v>
       </c>
@@ -6532,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>292</v>
       </c>
@@ -6544,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>293</v>
       </c>
@@ -6556,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>294</v>
       </c>
@@ -6568,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>295</v>
       </c>
@@ -6580,7 +6612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>296</v>
       </c>
@@ -6592,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>297</v>
       </c>
@@ -6604,7 +6636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>298</v>
       </c>
@@ -6616,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>299</v>
       </c>
@@ -6628,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>300</v>
       </c>
@@ -6640,7 +6672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>301</v>
       </c>
@@ -6652,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>302</v>
       </c>
@@ -6664,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>303</v>
       </c>
@@ -6676,7 +6708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>304</v>
       </c>
@@ -6688,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>305</v>
       </c>
@@ -6700,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>306</v>
       </c>
@@ -6712,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>307</v>
       </c>
@@ -6724,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>308</v>
       </c>
@@ -6736,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>638</v>
       </c>
@@ -6748,7 +6780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>309</v>
       </c>
@@ -6760,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>639</v>
       </c>
@@ -6772,7 +6804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>310</v>
       </c>
@@ -6784,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>614</v>
       </c>
@@ -6796,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>311</v>
       </c>
@@ -6808,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>640</v>
       </c>
@@ -6820,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>312</v>
       </c>
@@ -6832,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>313</v>
       </c>
@@ -6844,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>314</v>
       </c>
@@ -6856,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>315</v>
       </c>
@@ -6868,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>316</v>
       </c>
@@ -6880,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>641</v>
       </c>
@@ -6892,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>317</v>
       </c>
@@ -6916,7 +6948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>319</v>
       </c>
@@ -6928,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>320</v>
       </c>
@@ -6940,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>321</v>
       </c>
@@ -6952,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>322</v>
       </c>
@@ -6964,7 +6996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>642</v>
       </c>
@@ -6976,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>323</v>
       </c>
@@ -6988,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>324</v>
       </c>
@@ -7000,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>643</v>
       </c>
@@ -7012,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>325</v>
       </c>
@@ -7024,7 +7056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>326</v>
       </c>
@@ -7036,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>327</v>
       </c>
@@ -7048,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>644</v>
       </c>
@@ -7060,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>328</v>
       </c>
@@ -7072,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>329</v>
       </c>
@@ -7084,7 +7116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>330</v>
       </c>
@@ -7096,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>331</v>
       </c>
@@ -7108,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>332</v>
       </c>
@@ -7120,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>333</v>
       </c>
@@ -7132,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>334</v>
       </c>
@@ -7144,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>335</v>
       </c>
@@ -7156,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>336</v>
       </c>
@@ -7168,7 +7200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>337</v>
       </c>
@@ -7180,7 +7212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>338</v>
       </c>
@@ -7228,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>342</v>
       </c>
@@ -7264,7 +7296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>345</v>
       </c>
@@ -7288,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>347</v>
       </c>
@@ -7300,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>348</v>
       </c>
@@ -7312,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>349</v>
       </c>
@@ -7324,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>350</v>
       </c>
@@ -7336,7 +7368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>351</v>
       </c>
@@ -7348,7 +7380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>352</v>
       </c>
@@ -7372,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>354</v>
       </c>
@@ -7423,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>357</v>
       </c>
@@ -7435,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>358</v>
       </c>
@@ -7447,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>359</v>
       </c>
@@ -7471,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>361</v>
       </c>
@@ -7483,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>362</v>
       </c>
@@ -7495,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>363</v>
       </c>
@@ -7519,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>365</v>
       </c>
@@ -7531,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>366</v>
       </c>
@@ -7543,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>367</v>
       </c>
@@ -7555,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>368</v>
       </c>
@@ -7567,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>369</v>
       </c>
@@ -7579,7 +7611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>370</v>
       </c>
@@ -7591,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>371</v>
       </c>
@@ -7615,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>373</v>
       </c>
@@ -7627,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>374</v>
       </c>
@@ -7639,7 +7671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>375</v>
       </c>
@@ -7651,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>376</v>
       </c>
@@ -7663,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>377</v>
       </c>
@@ -7675,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>378</v>
       </c>
@@ -7687,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>379</v>
       </c>
@@ -7699,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>380</v>
       </c>
@@ -7711,7 +7743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>381</v>
       </c>
@@ -7735,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>383</v>
       </c>
@@ -7747,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>384</v>
       </c>
@@ -7759,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>385</v>
       </c>
@@ -7771,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>386</v>
       </c>
@@ -7783,7 +7815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>387</v>
       </c>
@@ -7795,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>388</v>
       </c>
@@ -7819,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>390</v>
       </c>
@@ -7831,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>391</v>
       </c>
@@ -7867,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>646</v>
       </c>
@@ -7879,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>394</v>
       </c>
@@ -7891,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>395</v>
       </c>
@@ -7903,7 +7935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>396</v>
       </c>
@@ -7915,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>397</v>
       </c>
@@ -7939,7 +7971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>398</v>
       </c>
@@ -7951,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>399</v>
       </c>
@@ -7975,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>401</v>
       </c>
@@ -7987,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>402</v>
       </c>
@@ -7999,7 +8031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>403</v>
       </c>
@@ -8011,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>404</v>
       </c>
@@ -8041,7 +8073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>648</v>
       </c>
@@ -8053,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>406</v>
       </c>
@@ -8077,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>407</v>
       </c>
@@ -8089,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>408</v>
       </c>
@@ -8101,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>409</v>
       </c>
@@ -8113,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>410</v>
       </c>
@@ -8125,7 +8157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>650</v>
       </c>
@@ -8137,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>651</v>
       </c>
@@ -8161,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>412</v>
       </c>
@@ -8173,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>413</v>
       </c>
@@ -8185,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>414</v>
       </c>
@@ -8209,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>416</v>
       </c>
@@ -8221,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>417</v>
       </c>
@@ -8293,7 +8325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>422</v>
       </c>
@@ -8305,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>423</v>
       </c>
@@ -8317,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>424</v>
       </c>
@@ -8329,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>425</v>
       </c>
@@ -8341,7 +8373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>426</v>
       </c>
@@ -8395,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>430</v>
       </c>
@@ -8407,7 +8439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>431</v>
       </c>
@@ -8560,7 +8592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>442</v>
       </c>
@@ -8572,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>443</v>
       </c>
@@ -8596,7 +8628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>445</v>
       </c>
@@ -8623,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>447</v>
       </c>
@@ -8743,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>453</v>
       </c>
@@ -8755,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>454</v>
       </c>
@@ -8791,7 +8823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>457</v>
       </c>
@@ -8803,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>458</v>
       </c>
@@ -8815,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>459</v>
       </c>
@@ -8827,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>460</v>
       </c>
@@ -8839,7 +8871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>461</v>
       </c>
@@ -8914,7 +8946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>467</v>
       </c>
@@ -8926,7 +8958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>468</v>
       </c>
@@ -8968,7 +9000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>471</v>
       </c>
@@ -8980,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>472</v>
       </c>
@@ -9022,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>475</v>
       </c>
@@ -9034,7 +9066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>476</v>
       </c>
@@ -9046,7 +9078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>477</v>
       </c>
@@ -9058,7 +9090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>478</v>
       </c>
@@ -9070,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>479</v>
       </c>
@@ -9094,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>481</v>
       </c>
@@ -9106,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>482</v>
       </c>
@@ -9334,7 +9366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>499</v>
       </c>
@@ -9346,7 +9378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>500</v>
       </c>
@@ -9358,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>501</v>
       </c>
@@ -9370,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>502</v>
       </c>
@@ -9382,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>503</v>
       </c>
@@ -9394,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>504</v>
       </c>
@@ -9406,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>505</v>
       </c>
@@ -9418,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>506</v>
       </c>
@@ -9430,7 +9462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>507</v>
       </c>
@@ -9466,7 +9498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>510</v>
       </c>
@@ -9478,7 +9510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>511</v>
       </c>
@@ -9490,7 +9522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>512</v>
       </c>
@@ -9509,12 +9541,15 @@
       <c r="B552" t="s">
         <v>659</v>
       </c>
+      <c r="C552" t="s">
+        <v>741</v>
+      </c>
       <c r="E552" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>514</v>
       </c>
@@ -9526,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>515</v>
       </c>
@@ -9538,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>516</v>
       </c>
@@ -9550,7 +9585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>517</v>
       </c>
@@ -9562,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>654</v>
       </c>
@@ -9574,7 +9609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>519</v>
       </c>
@@ -9586,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>518</v>
       </c>
@@ -9598,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>520</v>
       </c>
@@ -9610,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>521</v>
       </c>
@@ -9641,9 +9676,15 @@
       <c r="B563" t="s">
         <v>659</v>
       </c>
+      <c r="C563" t="s">
+        <v>742</v>
+      </c>
+      <c r="D563" t="s">
+        <v>737</v>
+      </c>
       <c r="E563" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.3">
@@ -9653,9 +9694,12 @@
       <c r="B564" t="s">
         <v>659</v>
       </c>
+      <c r="D564" t="s">
+        <v>738</v>
+      </c>
       <c r="E564" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.3">
@@ -9665,12 +9709,15 @@
       <c r="B565" t="s">
         <v>659</v>
       </c>
+      <c r="D565" t="s">
+        <v>739</v>
+      </c>
       <c r="E565" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>526</v>
       </c>
@@ -9682,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>527</v>
       </c>
@@ -9694,11 +9741,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>655</v>
       </c>
-      <c r="B568" t="s">
+      <c r="B568" s="2" t="s">
         <v>660</v>
       </c>
       <c r="E568" t="b">
@@ -9718,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>529</v>
       </c>
@@ -9737,9 +9784,12 @@
       <c r="B571" t="s">
         <v>659</v>
       </c>
+      <c r="D571" t="s">
+        <v>740</v>
+      </c>
       <c r="E571" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.3">
@@ -9754,7 +9804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>532</v>
       </c>
@@ -9766,7 +9816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>533</v>
       </c>
@@ -9785,16 +9835,19 @@
       <c r="B575" t="s">
         <v>659</v>
       </c>
+      <c r="C575" t="s">
+        <v>743</v>
+      </c>
       <c r="E575" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>535</v>
       </c>
-      <c r="B576" t="s">
+      <c r="B576" s="2" t="s">
         <v>659</v>
       </c>
       <c r="E576" t="b">
@@ -9806,15 +9859,18 @@
       <c r="A577" t="s">
         <v>656</v>
       </c>
-      <c r="B577" t="s">
-        <v>659</v>
+      <c r="B577" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C577" t="s">
+        <v>744</v>
       </c>
       <c r="E577" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>536</v>
       </c>
@@ -9838,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>538</v>
       </c>
@@ -9850,7 +9906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>539</v>
       </c>
@@ -9862,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>540</v>
       </c>
@@ -9881,12 +9937,15 @@
       <c r="B583" t="s">
         <v>659</v>
       </c>
+      <c r="C583" t="s">
+        <v>745</v>
+      </c>
       <c r="E583" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>542</v>
       </c>
@@ -9898,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>543</v>
       </c>
@@ -9910,7 +9969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>544</v>
       </c>
@@ -9922,7 +9981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>545</v>
       </c>
@@ -9934,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>546</v>
       </c>
@@ -9946,11 +10005,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>547</v>
       </c>
-      <c r="B589" t="s">
+      <c r="B589" s="2" t="s">
         <v>660</v>
       </c>
       <c r="E589" t="b">
@@ -10001,9 +10060,15 @@
       <c r="B593" t="s">
         <v>659</v>
       </c>
+      <c r="C593" t="s">
+        <v>746</v>
+      </c>
+      <c r="D593" t="s">
+        <v>748</v>
+      </c>
       <c r="E593" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.3">
@@ -10013,9 +10078,15 @@
       <c r="B594" t="s">
         <v>659</v>
       </c>
+      <c r="C594" t="s">
+        <v>747</v>
+      </c>
+      <c r="D594" t="s">
+        <v>749</v>
+      </c>
       <c r="E594" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.3">
@@ -10042,7 +10113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>555</v>
       </c>
@@ -10054,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>556</v>
       </c>
@@ -10066,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>557</v>
       </c>
@@ -10078,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>558</v>
       </c>
@@ -10090,7 +10161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>559</v>
       </c>
@@ -10102,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>560</v>
       </c>
@@ -10114,7 +10185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>561</v>
       </c>
@@ -10126,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>562</v>
       </c>
@@ -10138,7 +10209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>563</v>
       </c>
@@ -10162,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>564</v>
       </c>
@@ -10186,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>566</v>
       </c>
@@ -10246,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>571</v>
       </c>
@@ -10270,7 +10341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>573</v>
       </c>
@@ -10282,7 +10353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>574</v>
       </c>
@@ -10294,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>575</v>
       </c>
@@ -10306,7 +10377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>576</v>
       </c>
@@ -10318,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>577</v>
       </c>
@@ -10330,7 +10401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>578</v>
       </c>
@@ -10342,7 +10413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>579</v>
       </c>
@@ -10354,7 +10425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>580</v>
       </c>
@@ -10378,7 +10449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>582</v>
       </c>
@@ -10426,7 +10497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>586</v>
       </c>
@@ -10438,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>587</v>
       </c>
@@ -10450,7 +10521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>588</v>
       </c>
@@ -10462,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>589</v>
       </c>
@@ -10474,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>590</v>
       </c>
@@ -10486,7 +10557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>591</v>
       </c>
@@ -10498,7 +10569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>592</v>
       </c>
@@ -10510,7 +10581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>593</v>
       </c>
@@ -10522,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>594</v>
       </c>
@@ -10534,7 +10605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>595</v>
       </c>
@@ -10546,7 +10617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>596</v>
       </c>
@@ -10558,7 +10629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>597</v>
       </c>
@@ -10571,7 +10642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>598</v>
       </c>
@@ -10583,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>599</v>
       </c>
@@ -10595,7 +10666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>600</v>
       </c>
@@ -10607,7 +10678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>601</v>
       </c>
@@ -10619,7 +10690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>602</v>
       </c>
@@ -10655,7 +10726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>605</v>
       </c>
@@ -10667,7 +10738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>606</v>
       </c>
@@ -10679,7 +10750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>607</v>
       </c>
@@ -10715,7 +10786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>610</v>
       </c>
@@ -10727,7 +10798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>611</v>
       </c>
@@ -10739,7 +10810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>612</v>
       </c>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CCCBB2-CD67-42FC-974C-67344A13B3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE4ED6A-F0C1-4664-9266-08B59CE8F8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="752">
   <si>
     <t>taxon</t>
   </si>
@@ -2266,10 +2266,16 @@
     <t>www/media/fiches/steatoda_nobilis_femelle.webp</t>
   </si>
   <si>
+    <t>www/media/fiches/diaea_dorsata_femelle.webp</t>
+  </si>
+  <si>
     <t>www/media/fiches/steatoda_grossa_male.webp</t>
   </si>
   <si>
     <t>www/media/fiches/steatoda_nobilis_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/diaea_dorsata_male.webp</t>
   </si>
 </sst>
 </file>
@@ -2681,8 +2687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
-      <selection activeCell="D595" sqref="D595"/>
+    <sheetView tabSelected="1" topLeftCell="A591" workbookViewId="0">
+      <selection activeCell="D611" sqref="D611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10064,7 +10070,7 @@
         <v>746</v>
       </c>
       <c r="D593" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E593" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
@@ -10082,7 +10088,7 @@
         <v>747</v>
       </c>
       <c r="D594" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E594" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
@@ -10276,9 +10282,15 @@
       <c r="B610" t="s">
         <v>659</v>
       </c>
+      <c r="C610" t="s">
+        <v>748</v>
+      </c>
+      <c r="D610" t="s">
+        <v>751</v>
+      </c>
       <c r="E610" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.3">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE4ED6A-F0C1-4664-9266-08B59CE8F8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96D43EF-FBFB-4EE7-8633-DE23702396A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="753">
   <si>
     <t>taxon</t>
   </si>
@@ -2276,6 +2276,9 @@
   </si>
   <si>
     <t>www/media/fiches/diaea_dorsata_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/amaurobius_ferox_male.webp</t>
   </si>
 </sst>
 </file>
@@ -2354,7 +2357,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}" name="Tableau1" displayName="Tableau1" ref="A1:E656" totalsRowShown="0">
-  <autoFilter ref="A1:E656" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}"/>
+  <autoFilter ref="A1:E656" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="?"/>
+        <filter val="oui"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8CF3FEBE-EC73-416E-8610-F705B8D6D336}" name="taxon"/>
     <tableColumn id="4" xr3:uid="{666FCC22-DD53-4830-B712-02B264DDA363}" name="id à vue"/>
@@ -2687,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A591" workbookViewId="0">
-      <selection activeCell="D611" sqref="D611"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2743,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2755,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2767,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2779,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2791,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2803,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2815,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2827,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2839,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2851,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2863,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2887,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2899,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2957,6 +2967,9 @@
       <c r="C21" t="s">
         <v>679</v>
       </c>
+      <c r="D21" t="s">
+        <v>752</v>
+      </c>
       <c r="E21" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>1</v>
@@ -2989,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3001,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3109,7 +3122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3121,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -3133,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -3145,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -3157,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3253,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3277,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3289,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3301,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3328,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3355,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3367,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3379,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3539,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>618</v>
       </c>
@@ -3569,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -3593,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>620</v>
       </c>
@@ -3605,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -3617,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -3656,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -3668,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -3680,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -3692,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -3704,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -3716,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>75</v>
       </c>
@@ -3728,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -3740,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -3753,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -3765,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>79</v>
       </c>
@@ -3777,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -3789,7 +3802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>81</v>
       </c>
@@ -3801,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -3813,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>83</v>
       </c>
@@ -3825,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -3837,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>85</v>
       </c>
@@ -3849,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>621</v>
       </c>
@@ -3876,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -3888,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>622</v>
       </c>
@@ -3900,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -3912,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>89</v>
       </c>
@@ -3951,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>92</v>
       </c>
@@ -3963,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>93</v>
       </c>
@@ -3975,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>94</v>
       </c>
@@ -3987,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -3999,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -4011,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>97</v>
       </c>
@@ -4095,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -4173,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>110</v>
       </c>
@@ -4185,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>111</v>
       </c>
@@ -4197,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -4209,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>113</v>
       </c>
@@ -4221,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -4233,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>115</v>
       </c>
@@ -4245,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>116</v>
       </c>
@@ -4257,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -4269,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -4281,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>119</v>
       </c>
@@ -4293,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>120</v>
       </c>
@@ -4305,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -4317,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>122</v>
       </c>
@@ -4329,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -4341,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>623</v>
       </c>
@@ -4353,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>124</v>
       </c>
@@ -4365,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>125</v>
       </c>
@@ -4377,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>126</v>
       </c>
@@ -4389,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>127</v>
       </c>
@@ -4401,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>128</v>
       </c>
@@ -4425,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>130</v>
       </c>
@@ -4449,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>132</v>
       </c>
@@ -4485,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>135</v>
       </c>
@@ -4497,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>136</v>
       </c>
@@ -4509,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>137</v>
       </c>
@@ -4521,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>138</v>
       </c>
@@ -4593,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>142</v>
       </c>
@@ -4617,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>144</v>
       </c>
@@ -4629,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>145</v>
       </c>
@@ -4641,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>146</v>
       </c>
@@ -4653,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>147</v>
       </c>
@@ -4665,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>148</v>
       </c>
@@ -4677,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>149</v>
       </c>
@@ -4689,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -4701,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>151</v>
       </c>
@@ -4713,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>152</v>
       </c>
@@ -4737,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>154</v>
       </c>
@@ -4749,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>155</v>
       </c>
@@ -4761,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>156</v>
       </c>
@@ -4773,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>157</v>
       </c>
@@ -4785,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>158</v>
       </c>
@@ -4797,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>159</v>
       </c>
@@ -4809,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -4821,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -4833,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>162</v>
       </c>
@@ -4845,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>163</v>
       </c>
@@ -4857,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>164</v>
       </c>
@@ -4869,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>165</v>
       </c>
@@ -4881,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>166</v>
       </c>
@@ -4893,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>167</v>
       </c>
@@ -4905,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>168</v>
       </c>
@@ -4917,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>169</v>
       </c>
@@ -4929,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>170</v>
       </c>
@@ -4941,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>171</v>
       </c>
@@ -4953,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>172</v>
       </c>
@@ -4965,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>173</v>
       </c>
@@ -4977,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>174</v>
       </c>
@@ -4989,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>175</v>
       </c>
@@ -5001,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>176</v>
       </c>
@@ -5013,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>177</v>
       </c>
@@ -5025,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>625</v>
       </c>
@@ -5037,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>178</v>
       </c>
@@ -5049,7 +5062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -5061,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>180</v>
       </c>
@@ -5073,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>181</v>
       </c>
@@ -5085,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>182</v>
       </c>
@@ -5097,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>183</v>
       </c>
@@ -5109,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>184</v>
       </c>
@@ -5121,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>185</v>
       </c>
@@ -5133,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>186</v>
       </c>
@@ -5145,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>187</v>
       </c>
@@ -5157,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>188</v>
       </c>
@@ -5169,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>189</v>
       </c>
@@ -5181,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>190</v>
       </c>
@@ -5193,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>191</v>
       </c>
@@ -5205,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>192</v>
       </c>
@@ -5217,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>193</v>
       </c>
@@ -5229,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>194</v>
       </c>
@@ -5241,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>195</v>
       </c>
@@ -5253,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>196</v>
       </c>
@@ -5265,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>197</v>
       </c>
@@ -5277,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>198</v>
       </c>
@@ -5289,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>199</v>
       </c>
@@ -5301,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>200</v>
       </c>
@@ -5313,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>201</v>
       </c>
@@ -5325,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>202</v>
       </c>
@@ -5337,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>203</v>
       </c>
@@ -5349,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>204</v>
       </c>
@@ -5361,7 +5374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>205</v>
       </c>
@@ -5373,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>206</v>
       </c>
@@ -5385,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>207</v>
       </c>
@@ -5397,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>208</v>
       </c>
@@ -5409,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>209</v>
       </c>
@@ -5421,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>210</v>
       </c>
@@ -5433,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>211</v>
       </c>
@@ -5445,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>212</v>
       </c>
@@ -5457,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>213</v>
       </c>
@@ -5469,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>214</v>
       </c>
@@ -5508,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>217</v>
       </c>
@@ -5520,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>218</v>
       </c>
@@ -5532,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>219</v>
       </c>
@@ -5544,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>220</v>
       </c>
@@ -5556,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>221</v>
       </c>
@@ -5568,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>626</v>
       </c>
@@ -5580,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>627</v>
       </c>
@@ -5592,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>222</v>
       </c>
@@ -5604,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>223</v>
       </c>
@@ -5616,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>224</v>
       </c>
@@ -5628,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>225</v>
       </c>
@@ -5640,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>628</v>
       </c>
@@ -5652,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>226</v>
       </c>
@@ -5664,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>227</v>
       </c>
@@ -5676,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>228</v>
       </c>
@@ -5688,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>229</v>
       </c>
@@ -5700,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>230</v>
       </c>
@@ -5712,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>231</v>
       </c>
@@ -5724,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>232</v>
       </c>
@@ -5736,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>233</v>
       </c>
@@ -5748,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>234</v>
       </c>
@@ -5760,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>235</v>
       </c>
@@ -5772,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>236</v>
       </c>
@@ -5802,7 +5815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>238</v>
       </c>
@@ -5814,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>239</v>
       </c>
@@ -5826,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>629</v>
       </c>
@@ -5838,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>240</v>
       </c>
@@ -5850,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>241</v>
       </c>
@@ -5862,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>242</v>
       </c>
@@ -5874,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>630</v>
       </c>
@@ -5886,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>243</v>
       </c>
@@ -5898,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>631</v>
       </c>
@@ -5910,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>244</v>
       </c>
@@ -5922,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>245</v>
       </c>
@@ -5934,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>632</v>
       </c>
@@ -5946,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>246</v>
       </c>
@@ -5958,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>247</v>
       </c>
@@ -5970,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>248</v>
       </c>
@@ -5982,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>249</v>
       </c>
@@ -5994,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>250</v>
       </c>
@@ -6006,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>251</v>
       </c>
@@ -6018,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>252</v>
       </c>
@@ -6030,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>253</v>
       </c>
@@ -6042,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>633</v>
       </c>
@@ -6054,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>254</v>
       </c>
@@ -6066,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>634</v>
       </c>
@@ -6078,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>255</v>
       </c>
@@ -6102,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>257</v>
       </c>
@@ -6114,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>258</v>
       </c>
@@ -6141,7 +6154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>260</v>
       </c>
@@ -6171,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>262</v>
       </c>
@@ -6183,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>263</v>
       </c>
@@ -6195,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>264</v>
       </c>
@@ -6207,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>265</v>
       </c>
@@ -6219,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>266</v>
       </c>
@@ -6231,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>267</v>
       </c>
@@ -6258,7 +6271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>269</v>
       </c>
@@ -6270,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>270</v>
       </c>
@@ -6282,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>271</v>
       </c>
@@ -6294,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>272</v>
       </c>
@@ -6306,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>273</v>
       </c>
@@ -6318,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>274</v>
       </c>
@@ -6330,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>275</v>
       </c>
@@ -6342,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>635</v>
       </c>
@@ -6354,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>276</v>
       </c>
@@ -6366,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>277</v>
       </c>
@@ -6378,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>278</v>
       </c>
@@ -6390,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>279</v>
       </c>
@@ -6402,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>280</v>
       </c>
@@ -6414,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>281</v>
       </c>
@@ -6426,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>282</v>
       </c>
@@ -6438,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>283</v>
       </c>
@@ -6450,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>284</v>
       </c>
@@ -6462,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>636</v>
       </c>
@@ -6474,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>285</v>
       </c>
@@ -6486,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>286</v>
       </c>
@@ -6498,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>287</v>
       </c>
@@ -6510,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>637</v>
       </c>
@@ -6522,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>288</v>
       </c>
@@ -6534,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>289</v>
       </c>
@@ -6546,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>290</v>
       </c>
@@ -6558,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>291</v>
       </c>
@@ -6570,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>292</v>
       </c>
@@ -6582,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>293</v>
       </c>
@@ -6594,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>294</v>
       </c>
@@ -6606,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>295</v>
       </c>
@@ -6618,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>296</v>
       </c>
@@ -6630,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>297</v>
       </c>
@@ -6642,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>298</v>
       </c>
@@ -6654,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>299</v>
       </c>
@@ -6666,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>300</v>
       </c>
@@ -6678,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>301</v>
       </c>
@@ -6690,7 +6703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>302</v>
       </c>
@@ -6702,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>303</v>
       </c>
@@ -6714,7 +6727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>304</v>
       </c>
@@ -6726,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>305</v>
       </c>
@@ -6738,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>306</v>
       </c>
@@ -6750,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>307</v>
       </c>
@@ -6762,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>308</v>
       </c>
@@ -6774,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>638</v>
       </c>
@@ -6786,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>309</v>
       </c>
@@ -6798,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>639</v>
       </c>
@@ -6810,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>310</v>
       </c>
@@ -6822,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>614</v>
       </c>
@@ -6834,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>311</v>
       </c>
@@ -6846,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>640</v>
       </c>
@@ -6858,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>312</v>
       </c>
@@ -6870,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>313</v>
       </c>
@@ -6882,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>314</v>
       </c>
@@ -6894,7 +6907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>315</v>
       </c>
@@ -6906,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>316</v>
       </c>
@@ -6918,7 +6931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>641</v>
       </c>
@@ -6930,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>317</v>
       </c>
@@ -6954,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>319</v>
       </c>
@@ -6966,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>320</v>
       </c>
@@ -6978,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>321</v>
       </c>
@@ -6990,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>322</v>
       </c>
@@ -7002,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>642</v>
       </c>
@@ -7014,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>323</v>
       </c>
@@ -7026,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>324</v>
       </c>
@@ -7038,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>643</v>
       </c>
@@ -7050,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>325</v>
       </c>
@@ -7062,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>326</v>
       </c>
@@ -7074,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>327</v>
       </c>
@@ -7086,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>644</v>
       </c>
@@ -7098,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>328</v>
       </c>
@@ -7110,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>329</v>
       </c>
@@ -7122,7 +7135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>330</v>
       </c>
@@ -7134,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>331</v>
       </c>
@@ -7146,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>332</v>
       </c>
@@ -7158,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>333</v>
       </c>
@@ -7170,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>334</v>
       </c>
@@ -7182,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>335</v>
       </c>
@@ -7194,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>336</v>
       </c>
@@ -7206,7 +7219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>337</v>
       </c>
@@ -7218,7 +7231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>338</v>
       </c>
@@ -7266,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>342</v>
       </c>
@@ -7302,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>345</v>
       </c>
@@ -7326,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>347</v>
       </c>
@@ -7338,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>348</v>
       </c>
@@ -7350,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>349</v>
       </c>
@@ -7362,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>350</v>
       </c>
@@ -7374,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>351</v>
       </c>
@@ -7386,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>352</v>
       </c>
@@ -7410,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>354</v>
       </c>
@@ -7461,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>357</v>
       </c>
@@ -7473,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>358</v>
       </c>
@@ -7485,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>359</v>
       </c>
@@ -7509,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>361</v>
       </c>
@@ -7521,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>362</v>
       </c>
@@ -7533,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>363</v>
       </c>
@@ -7557,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>365</v>
       </c>
@@ -7569,7 +7582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>366</v>
       </c>
@@ -7581,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>367</v>
       </c>
@@ -7593,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>368</v>
       </c>
@@ -7605,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>369</v>
       </c>
@@ -7617,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>370</v>
       </c>
@@ -7629,7 +7642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>371</v>
       </c>
@@ -7653,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>373</v>
       </c>
@@ -7665,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>374</v>
       </c>
@@ -7677,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>375</v>
       </c>
@@ -7689,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>376</v>
       </c>
@@ -7701,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>377</v>
       </c>
@@ -7713,7 +7726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>378</v>
       </c>
@@ -7725,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>379</v>
       </c>
@@ -7737,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>380</v>
       </c>
@@ -7749,7 +7762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>381</v>
       </c>
@@ -7773,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>383</v>
       </c>
@@ -7785,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>384</v>
       </c>
@@ -7797,7 +7810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>385</v>
       </c>
@@ -7809,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>386</v>
       </c>
@@ -7821,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>387</v>
       </c>
@@ -7833,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>388</v>
       </c>
@@ -7857,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>390</v>
       </c>
@@ -7869,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>391</v>
       </c>
@@ -7905,7 +7918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>646</v>
       </c>
@@ -7917,7 +7930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>394</v>
       </c>
@@ -7929,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>395</v>
       </c>
@@ -7941,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>396</v>
       </c>
@@ -7953,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>397</v>
       </c>
@@ -7977,7 +7990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>398</v>
       </c>
@@ -7989,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>399</v>
       </c>
@@ -8013,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>401</v>
       </c>
@@ -8025,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>402</v>
       </c>
@@ -8037,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>403</v>
       </c>
@@ -8049,7 +8062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>404</v>
       </c>
@@ -8079,7 +8092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>648</v>
       </c>
@@ -8091,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>406</v>
       </c>
@@ -8115,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>407</v>
       </c>
@@ -8127,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>408</v>
       </c>
@@ -8139,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>409</v>
       </c>
@@ -8151,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>410</v>
       </c>
@@ -8163,7 +8176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>650</v>
       </c>
@@ -8175,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>651</v>
       </c>
@@ -8199,7 +8212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>412</v>
       </c>
@@ -8211,7 +8224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>413</v>
       </c>
@@ -8223,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>414</v>
       </c>
@@ -8247,7 +8260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>416</v>
       </c>
@@ -8259,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>417</v>
       </c>
@@ -8331,7 +8344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>422</v>
       </c>
@@ -8343,7 +8356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>423</v>
       </c>
@@ -8355,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>424</v>
       </c>
@@ -8367,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>425</v>
       </c>
@@ -8379,7 +8392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>426</v>
       </c>
@@ -8433,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>430</v>
       </c>
@@ -8445,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>431</v>
       </c>
@@ -8598,7 +8611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>442</v>
       </c>
@@ -8610,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>443</v>
       </c>
@@ -8634,7 +8647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>445</v>
       </c>
@@ -8661,7 +8674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>447</v>
       </c>
@@ -8781,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>453</v>
       </c>
@@ -8793,7 +8806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>454</v>
       </c>
@@ -8829,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>457</v>
       </c>
@@ -8841,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>458</v>
       </c>
@@ -8853,7 +8866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>459</v>
       </c>
@@ -8865,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>460</v>
       </c>
@@ -8877,7 +8890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>461</v>
       </c>
@@ -8952,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>467</v>
       </c>
@@ -8964,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>468</v>
       </c>
@@ -9006,7 +9019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>471</v>
       </c>
@@ -9018,7 +9031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>472</v>
       </c>
@@ -9060,7 +9073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>475</v>
       </c>
@@ -9072,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>476</v>
       </c>
@@ -9084,7 +9097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>477</v>
       </c>
@@ -9096,7 +9109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>478</v>
       </c>
@@ -9108,7 +9121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>479</v>
       </c>
@@ -9132,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>481</v>
       </c>
@@ -9144,7 +9157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>482</v>
       </c>
@@ -9372,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>499</v>
       </c>
@@ -9384,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>500</v>
       </c>
@@ -9396,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>501</v>
       </c>
@@ -9408,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>502</v>
       </c>
@@ -9420,7 +9433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>503</v>
       </c>
@@ -9432,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>504</v>
       </c>
@@ -9444,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>505</v>
       </c>
@@ -9456,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>506</v>
       </c>
@@ -9468,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>507</v>
       </c>
@@ -9504,7 +9517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>510</v>
       </c>
@@ -9516,7 +9529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>511</v>
       </c>
@@ -9528,7 +9541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>512</v>
       </c>
@@ -9555,7 +9568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>514</v>
       </c>
@@ -9567,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>515</v>
       </c>
@@ -9579,7 +9592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>516</v>
       </c>
@@ -9591,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>517</v>
       </c>
@@ -9603,7 +9616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>654</v>
       </c>
@@ -9615,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>519</v>
       </c>
@@ -9627,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>518</v>
       </c>
@@ -9639,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>520</v>
       </c>
@@ -9651,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>521</v>
       </c>
@@ -9723,7 +9736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>526</v>
       </c>
@@ -9735,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>527</v>
       </c>
@@ -9747,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>655</v>
       </c>
@@ -9771,7 +9784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>529</v>
       </c>
@@ -9810,7 +9823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>532</v>
       </c>
@@ -9822,7 +9835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>533</v>
       </c>
@@ -9876,7 +9889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>536</v>
       </c>
@@ -9900,7 +9913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>538</v>
       </c>
@@ -9912,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>539</v>
       </c>
@@ -9924,7 +9937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>540</v>
       </c>
@@ -9951,7 +9964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>542</v>
       </c>
@@ -9963,7 +9976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>543</v>
       </c>
@@ -9975,7 +9988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>544</v>
       </c>
@@ -9987,7 +10000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>545</v>
       </c>
@@ -9999,7 +10012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>546</v>
       </c>
@@ -10011,7 +10024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>547</v>
       </c>
@@ -10119,7 +10132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>555</v>
       </c>
@@ -10131,7 +10144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>556</v>
       </c>
@@ -10143,7 +10156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>557</v>
       </c>
@@ -10155,7 +10168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>558</v>
       </c>
@@ -10167,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>559</v>
       </c>
@@ -10179,7 +10192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>560</v>
       </c>
@@ -10191,7 +10204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>561</v>
       </c>
@@ -10203,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>562</v>
       </c>
@@ -10215,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>563</v>
       </c>
@@ -10239,7 +10252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>564</v>
       </c>
@@ -10263,7 +10276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>566</v>
       </c>
@@ -10329,7 +10342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>571</v>
       </c>
@@ -10353,7 +10366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>573</v>
       </c>
@@ -10365,7 +10378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>574</v>
       </c>
@@ -10377,7 +10390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>575</v>
       </c>
@@ -10389,7 +10402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>576</v>
       </c>
@@ -10401,7 +10414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>577</v>
       </c>
@@ -10413,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>578</v>
       </c>
@@ -10425,7 +10438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>579</v>
       </c>
@@ -10437,7 +10450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>580</v>
       </c>
@@ -10461,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>582</v>
       </c>
@@ -10509,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>586</v>
       </c>
@@ -10521,7 +10534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>587</v>
       </c>
@@ -10533,7 +10546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>588</v>
       </c>
@@ -10545,7 +10558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>589</v>
       </c>
@@ -10557,7 +10570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>590</v>
       </c>
@@ -10569,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>591</v>
       </c>
@@ -10581,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>592</v>
       </c>
@@ -10593,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>593</v>
       </c>
@@ -10605,7 +10618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>594</v>
       </c>
@@ -10617,7 +10630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>595</v>
       </c>
@@ -10629,7 +10642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>596</v>
       </c>
@@ -10641,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>597</v>
       </c>
@@ -10654,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>598</v>
       </c>
@@ -10666,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>599</v>
       </c>
@@ -10678,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>600</v>
       </c>
@@ -10690,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>601</v>
       </c>
@@ -10702,7 +10715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>602</v>
       </c>
@@ -10738,7 +10751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>605</v>
       </c>
@@ -10750,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>606</v>
       </c>
@@ -10762,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>607</v>
       </c>
@@ -10798,7 +10811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>610</v>
       </c>
@@ -10810,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>611</v>
       </c>
@@ -10822,7 +10835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>612</v>
       </c>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96D43EF-FBFB-4EE7-8633-DE23702396A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE87CED-61BD-4FBD-A4C4-CC7C3737AD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="760">
   <si>
     <t>taxon</t>
   </si>
@@ -2279,6 +2279,27 @@
   </si>
   <si>
     <t>www/media/fiches/amaurobius_ferox_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/ebrechtella_tricuspidata_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/misumena_vatia_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/runcinia_grammica_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/ebrechtella_tricuspidata_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/misumena_vatia_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/synema_globosum_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/xysticus_ulmi_femelle.webp</t>
   </si>
 </sst>
 </file>
@@ -2697,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
+      <selection activeCell="C656" sqref="C656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10325,9 +10346,15 @@
       <c r="B612" t="s">
         <v>659</v>
       </c>
+      <c r="C612" t="s">
+        <v>756</v>
+      </c>
+      <c r="D612" t="s">
+        <v>753</v>
+      </c>
       <c r="E612" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.3">
@@ -10361,9 +10388,15 @@
       <c r="B615" t="s">
         <v>659</v>
       </c>
+      <c r="C615" t="s">
+        <v>757</v>
+      </c>
+      <c r="D615" t="s">
+        <v>754</v>
+      </c>
       <c r="E615" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -10493,9 +10526,12 @@
       <c r="B626" t="s">
         <v>659</v>
       </c>
+      <c r="D626" t="s">
+        <v>755</v>
+      </c>
       <c r="E626" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.3">
@@ -10505,9 +10541,12 @@
       <c r="B627" t="s">
         <v>659</v>
       </c>
+      <c r="C627" t="s">
+        <v>758</v>
+      </c>
       <c r="E627" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.3">
@@ -10734,9 +10773,12 @@
       <c r="B646" t="s">
         <v>659</v>
       </c>
+      <c r="C646" t="s">
+        <v>759</v>
+      </c>
       <c r="E646" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.3">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE87CED-61BD-4FBD-A4C4-CC7C3737AD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0482EBE6-F7EB-49F6-A820-D63D5E5109B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="762">
   <si>
     <t>taxon</t>
   </si>
@@ -2290,6 +2290,9 @@
     <t>www/media/fiches/runcinia_grammica_male.webp</t>
   </si>
   <si>
+    <t>www/media/fiches/zoropsis_spinimana_male.webp</t>
+  </si>
+  <si>
     <t>www/media/fiches/ebrechtella_tricuspidata_femelle.webp</t>
   </si>
   <si>
@@ -2300,6 +2303,9 @@
   </si>
   <si>
     <t>www/media/fiches/xysticus_ulmi_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/zoropsis_spinimana_femelle.webp</t>
   </si>
 </sst>
 </file>
@@ -2718,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
-      <selection activeCell="C656" sqref="C656"/>
+    <sheetView tabSelected="1" topLeftCell="A591" workbookViewId="0">
+      <selection activeCell="D657" sqref="D657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10347,7 +10353,7 @@
         <v>659</v>
       </c>
       <c r="C612" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D612" t="s">
         <v>753</v>
@@ -10389,7 +10395,7 @@
         <v>659</v>
       </c>
       <c r="C615" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D615" t="s">
         <v>754</v>
@@ -10542,7 +10548,7 @@
         <v>659</v>
       </c>
       <c r="C627" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E627" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
@@ -10774,7 +10780,7 @@
         <v>659</v>
       </c>
       <c r="C646" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E646" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
@@ -10896,9 +10902,15 @@
       <c r="B656" t="s">
         <v>659</v>
       </c>
+      <c r="C656" t="s">
+        <v>761</v>
+      </c>
+      <c r="D656" t="s">
+        <v>756</v>
+      </c>
       <c r="E656" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0482EBE6-F7EB-49F6-A820-D63D5E5109B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125F3E7F-C972-46D0-A4DA-EF41BEB1FF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="763">
   <si>
     <t>taxon</t>
   </si>
@@ -2306,6 +2306,9 @@
   </si>
   <si>
     <t>www/media/fiches/zoropsis_spinimana_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/clubiona_corticalis_male.webp</t>
   </si>
 </sst>
 </file>
@@ -2724,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A591" workbookViewId="0">
-      <selection activeCell="D657" sqref="D657"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3691,9 +3694,12 @@
       <c r="B74" t="s">
         <v>659</v>
       </c>
+      <c r="D74" t="s">
+        <v>762</v>
+      </c>
       <c r="E74" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125F3E7F-C972-46D0-A4DA-EF41BEB1FF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E7CFCD-BE2D-4B34-A06E-96CBD3354F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="764">
   <si>
     <t>taxon</t>
   </si>
@@ -2309,6 +2309,9 @@
   </si>
   <si>
     <t>www/media/fiches/clubiona_corticalis_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/allagelena_gracilens_femelle.webp</t>
   </si>
 </sst>
 </file>
@@ -2727,8 +2730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2778,9 +2781,12 @@
       <c r="B3" t="s">
         <v>659</v>
       </c>
+      <c r="C3" t="s">
+        <v>763</v>
+      </c>
       <c r="E3" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E7CFCD-BE2D-4B34-A06E-96CBD3354F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB421503-AE55-4A4B-A9E5-9814FCAA298A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="765">
   <si>
     <t>taxon</t>
   </si>
@@ -2312,6 +2312,9 @@
   </si>
   <si>
     <t>www/media/fiches/allagelena_gracilens_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/anyphaena_sabina_femelle.webp</t>
   </si>
 </sst>
 </file>
@@ -2390,14 +2393,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}" name="Tableau1" displayName="Tableau1" ref="A1:E656" totalsRowShown="0">
-  <autoFilter ref="A1:E656" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="?"/>
-        <filter val="oui"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E656" xr:uid="{5221C8D7-EF93-417B-B8B8-217FC377064B}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8CF3FEBE-EC73-416E-8610-F705B8D6D336}" name="taxon"/>
     <tableColumn id="4" xr3:uid="{666FCC22-DD53-4830-B712-02B264DDA363}" name="id à vue"/>
@@ -2730,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2789,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2801,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2813,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2825,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2837,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2849,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2861,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2873,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2885,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2897,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2909,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2933,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2945,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3038,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3050,16 +3046,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>660</v>
       </c>
+      <c r="C25" t="s">
+        <v>764</v>
+      </c>
       <c r="E25" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3158,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3170,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -3182,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -3194,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -3206,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3302,7 +3301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3326,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3338,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3377,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3404,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3416,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3428,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3588,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>618</v>
       </c>
@@ -3618,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -3642,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>620</v>
       </c>
@@ -3654,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -3666,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -3708,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -3720,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -3732,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -3744,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -3756,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -3768,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>75</v>
       </c>
@@ -3780,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -3792,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -3805,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -3817,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>79</v>
       </c>
@@ -3829,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -3841,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>81</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -3865,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>83</v>
       </c>
@@ -3877,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -3889,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>85</v>
       </c>
@@ -3901,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>621</v>
       </c>
@@ -3928,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -3940,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>622</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -3964,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>89</v>
       </c>
@@ -4003,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>92</v>
       </c>
@@ -4015,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>93</v>
       </c>
@@ -4027,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>94</v>
       </c>
@@ -4039,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -4063,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>97</v>
       </c>
@@ -4147,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -4225,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>110</v>
       </c>
@@ -4237,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>111</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -4261,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>113</v>
       </c>
@@ -4273,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -4285,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>115</v>
       </c>
@@ -4297,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>116</v>
       </c>
@@ -4309,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -4321,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -4333,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>119</v>
       </c>
@@ -4345,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>120</v>
       </c>
@@ -4357,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -4369,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>122</v>
       </c>
@@ -4381,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -4393,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>623</v>
       </c>
@@ -4405,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>124</v>
       </c>
@@ -4417,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>125</v>
       </c>
@@ -4429,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>126</v>
       </c>
@@ -4441,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>127</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>128</v>
       </c>
@@ -4477,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>130</v>
       </c>
@@ -4501,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>132</v>
       </c>
@@ -4537,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>135</v>
       </c>
@@ -4549,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>136</v>
       </c>
@@ -4561,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>137</v>
       </c>
@@ -4573,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>138</v>
       </c>
@@ -4645,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>142</v>
       </c>
@@ -4669,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>144</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>145</v>
       </c>
@@ -4693,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>146</v>
       </c>
@@ -4705,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>147</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>148</v>
       </c>
@@ -4729,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>149</v>
       </c>
@@ -4741,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>150</v>
       </c>
@@ -4753,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>151</v>
       </c>
@@ -4765,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>152</v>
       </c>
@@ -4789,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>154</v>
       </c>
@@ -4801,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>155</v>
       </c>
@@ -4813,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>156</v>
       </c>
@@ -4825,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>157</v>
       </c>
@@ -4837,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>158</v>
       </c>
@@ -4849,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>159</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -4873,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -4885,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>162</v>
       </c>
@@ -4897,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>163</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>164</v>
       </c>
@@ -4921,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>165</v>
       </c>
@@ -4933,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>166</v>
       </c>
@@ -4945,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>167</v>
       </c>
@@ -4957,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>168</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>169</v>
       </c>
@@ -4981,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>170</v>
       </c>
@@ -4993,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>171</v>
       </c>
@@ -5005,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>172</v>
       </c>
@@ -5017,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>173</v>
       </c>
@@ -5029,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>174</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>175</v>
       </c>
@@ -5053,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>176</v>
       </c>
@@ -5065,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>177</v>
       </c>
@@ -5077,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>625</v>
       </c>
@@ -5089,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>178</v>
       </c>
@@ -5101,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -5113,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>180</v>
       </c>
@@ -5125,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>181</v>
       </c>
@@ -5137,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>182</v>
       </c>
@@ -5149,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>183</v>
       </c>
@@ -5161,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>184</v>
       </c>
@@ -5173,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>185</v>
       </c>
@@ -5185,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>186</v>
       </c>
@@ -5197,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>187</v>
       </c>
@@ -5209,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>188</v>
       </c>
@@ -5221,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>189</v>
       </c>
@@ -5233,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>190</v>
       </c>
@@ -5245,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>191</v>
       </c>
@@ -5257,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>192</v>
       </c>
@@ -5269,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>193</v>
       </c>
@@ -5281,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>194</v>
       </c>
@@ -5293,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>195</v>
       </c>
@@ -5305,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>196</v>
       </c>
@@ -5317,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>197</v>
       </c>
@@ -5329,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>198</v>
       </c>
@@ -5341,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>199</v>
       </c>
@@ -5353,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>200</v>
       </c>
@@ -5365,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>201</v>
       </c>
@@ -5377,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>202</v>
       </c>
@@ -5389,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>203</v>
       </c>
@@ -5401,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>204</v>
       </c>
@@ -5413,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>205</v>
       </c>
@@ -5425,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>206</v>
       </c>
@@ -5437,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>207</v>
       </c>
@@ -5449,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>208</v>
       </c>
@@ -5461,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>209</v>
       </c>
@@ -5473,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>210</v>
       </c>
@@ -5485,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>211</v>
       </c>
@@ -5497,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>212</v>
       </c>
@@ -5509,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>213</v>
       </c>
@@ -5521,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>214</v>
       </c>
@@ -5560,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>217</v>
       </c>
@@ -5572,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>218</v>
       </c>
@@ -5584,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>219</v>
       </c>
@@ -5596,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>220</v>
       </c>
@@ -5608,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>221</v>
       </c>
@@ -5620,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>626</v>
       </c>
@@ -5632,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>627</v>
       </c>
@@ -5644,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>222</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>223</v>
       </c>
@@ -5668,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>224</v>
       </c>
@@ -5680,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>225</v>
       </c>
@@ -5692,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>628</v>
       </c>
@@ -5704,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>226</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>227</v>
       </c>
@@ -5728,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>228</v>
       </c>
@@ -5740,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>229</v>
       </c>
@@ -5752,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>230</v>
       </c>
@@ -5764,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>231</v>
       </c>
@@ -5776,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>232</v>
       </c>
@@ -5788,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>233</v>
       </c>
@@ -5800,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>234</v>
       </c>
@@ -5812,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>235</v>
       </c>
@@ -5824,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>236</v>
       </c>
@@ -5854,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>238</v>
       </c>
@@ -5866,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>239</v>
       </c>
@@ -5878,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>629</v>
       </c>
@@ -5890,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>240</v>
       </c>
@@ -5902,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>241</v>
       </c>
@@ -5914,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>242</v>
       </c>
@@ -5926,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>630</v>
       </c>
@@ -5938,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>243</v>
       </c>
@@ -5950,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>631</v>
       </c>
@@ -5962,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>244</v>
       </c>
@@ -5974,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>245</v>
       </c>
@@ -5986,7 +5985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>632</v>
       </c>
@@ -5998,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>246</v>
       </c>
@@ -6010,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>247</v>
       </c>
@@ -6022,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>248</v>
       </c>
@@ -6034,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>249</v>
       </c>
@@ -6046,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>250</v>
       </c>
@@ -6058,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>251</v>
       </c>
@@ -6070,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>252</v>
       </c>
@@ -6082,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>253</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>633</v>
       </c>
@@ -6106,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>254</v>
       </c>
@@ -6118,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>634</v>
       </c>
@@ -6130,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>255</v>
       </c>
@@ -6154,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>257</v>
       </c>
@@ -6166,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>258</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>260</v>
       </c>
@@ -6223,7 +6222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>262</v>
       </c>
@@ -6235,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>263</v>
       </c>
@@ -6247,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>264</v>
       </c>
@@ -6259,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>265</v>
       </c>
@@ -6271,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>266</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>267</v>
       </c>
@@ -6310,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>269</v>
       </c>
@@ -6322,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>270</v>
       </c>
@@ -6334,7 +6333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>271</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>272</v>
       </c>
@@ -6358,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>273</v>
       </c>
@@ -6370,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>274</v>
       </c>
@@ -6382,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>275</v>
       </c>
@@ -6394,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>635</v>
       </c>
@@ -6406,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>276</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>277</v>
       </c>
@@ -6430,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>278</v>
       </c>
@@ -6442,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>279</v>
       </c>
@@ -6454,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>280</v>
       </c>
@@ -6466,7 +6465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>281</v>
       </c>
@@ -6478,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>282</v>
       </c>
@@ -6490,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>283</v>
       </c>
@@ -6502,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>284</v>
       </c>
@@ -6514,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>636</v>
       </c>
@@ -6526,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>285</v>
       </c>
@@ -6538,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>286</v>
       </c>
@@ -6550,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>287</v>
       </c>
@@ -6562,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>637</v>
       </c>
@@ -6574,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>288</v>
       </c>
@@ -6586,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>289</v>
       </c>
@@ -6598,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>290</v>
       </c>
@@ -6610,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>291</v>
       </c>
@@ -6622,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>292</v>
       </c>
@@ -6634,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>293</v>
       </c>
@@ -6646,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>294</v>
       </c>
@@ -6658,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>295</v>
       </c>
@@ -6670,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>296</v>
       </c>
@@ -6682,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>297</v>
       </c>
@@ -6694,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>298</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>299</v>
       </c>
@@ -6718,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>300</v>
       </c>
@@ -6730,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>301</v>
       </c>
@@ -6742,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>302</v>
       </c>
@@ -6754,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>303</v>
       </c>
@@ -6766,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>304</v>
       </c>
@@ -6778,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>305</v>
       </c>
@@ -6790,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>306</v>
       </c>
@@ -6802,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>307</v>
       </c>
@@ -6814,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>308</v>
       </c>
@@ -6826,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>638</v>
       </c>
@@ -6838,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>309</v>
       </c>
@@ -6850,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>639</v>
       </c>
@@ -6862,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>310</v>
       </c>
@@ -6874,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>614</v>
       </c>
@@ -6886,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>311</v>
       </c>
@@ -6898,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>640</v>
       </c>
@@ -6910,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>312</v>
       </c>
@@ -6922,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>313</v>
       </c>
@@ -6934,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>314</v>
       </c>
@@ -6946,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>315</v>
       </c>
@@ -6958,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>316</v>
       </c>
@@ -6970,7 +6969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>641</v>
       </c>
@@ -6982,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>317</v>
       </c>
@@ -7006,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>319</v>
       </c>
@@ -7018,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>320</v>
       </c>
@@ -7030,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>321</v>
       </c>
@@ -7042,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>322</v>
       </c>
@@ -7054,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>642</v>
       </c>
@@ -7066,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>323</v>
       </c>
@@ -7078,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>324</v>
       </c>
@@ -7090,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>643</v>
       </c>
@@ -7102,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>325</v>
       </c>
@@ -7114,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>326</v>
       </c>
@@ -7126,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>327</v>
       </c>
@@ -7138,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>644</v>
       </c>
@@ -7150,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>328</v>
       </c>
@@ -7162,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>329</v>
       </c>
@@ -7174,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>330</v>
       </c>
@@ -7186,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>331</v>
       </c>
@@ -7198,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>332</v>
       </c>
@@ -7210,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>333</v>
       </c>
@@ -7222,7 +7221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>334</v>
       </c>
@@ -7234,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>335</v>
       </c>
@@ -7246,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>336</v>
       </c>
@@ -7258,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>337</v>
       </c>
@@ -7270,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>338</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>342</v>
       </c>
@@ -7354,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>345</v>
       </c>
@@ -7378,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>347</v>
       </c>
@@ -7390,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>348</v>
       </c>
@@ -7402,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>349</v>
       </c>
@@ -7414,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>350</v>
       </c>
@@ -7426,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>351</v>
       </c>
@@ -7438,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>352</v>
       </c>
@@ -7462,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>354</v>
       </c>
@@ -7513,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>357</v>
       </c>
@@ -7525,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>358</v>
       </c>
@@ -7537,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>359</v>
       </c>
@@ -7561,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>361</v>
       </c>
@@ -7573,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>362</v>
       </c>
@@ -7585,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>363</v>
       </c>
@@ -7609,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>365</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>366</v>
       </c>
@@ -7633,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>367</v>
       </c>
@@ -7645,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>368</v>
       </c>
@@ -7657,7 +7656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>369</v>
       </c>
@@ -7669,7 +7668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>370</v>
       </c>
@@ -7681,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>371</v>
       </c>
@@ -7705,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>373</v>
       </c>
@@ -7717,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>374</v>
       </c>
@@ -7729,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>375</v>
       </c>
@@ -7741,7 +7740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>376</v>
       </c>
@@ -7753,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>377</v>
       </c>
@@ -7765,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>378</v>
       </c>
@@ -7777,7 +7776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>379</v>
       </c>
@@ -7789,7 +7788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>380</v>
       </c>
@@ -7801,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>381</v>
       </c>
@@ -7825,7 +7824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>383</v>
       </c>
@@ -7837,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>384</v>
       </c>
@@ -7849,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>385</v>
       </c>
@@ -7861,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>386</v>
       </c>
@@ -7873,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>387</v>
       </c>
@@ -7885,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>388</v>
       </c>
@@ -7909,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>390</v>
       </c>
@@ -7921,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>391</v>
       </c>
@@ -7957,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>646</v>
       </c>
@@ -7969,7 +7968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>394</v>
       </c>
@@ -7981,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>395</v>
       </c>
@@ -7993,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>396</v>
       </c>
@@ -8005,7 +8004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>397</v>
       </c>
@@ -8029,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>398</v>
       </c>
@@ -8041,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>399</v>
       </c>
@@ -8065,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>401</v>
       </c>
@@ -8077,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>402</v>
       </c>
@@ -8089,7 +8088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>403</v>
       </c>
@@ -8101,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>404</v>
       </c>
@@ -8131,7 +8130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>648</v>
       </c>
@@ -8143,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>406</v>
       </c>
@@ -8167,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>407</v>
       </c>
@@ -8179,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>408</v>
       </c>
@@ -8191,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>409</v>
       </c>
@@ -8203,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>410</v>
       </c>
@@ -8215,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>650</v>
       </c>
@@ -8227,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>651</v>
       </c>
@@ -8251,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>412</v>
       </c>
@@ -8263,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>413</v>
       </c>
@@ -8275,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>414</v>
       </c>
@@ -8299,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>416</v>
       </c>
@@ -8311,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>417</v>
       </c>
@@ -8383,7 +8382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>422</v>
       </c>
@@ -8395,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>423</v>
       </c>
@@ -8407,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>424</v>
       </c>
@@ -8419,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>425</v>
       </c>
@@ -8431,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>426</v>
       </c>
@@ -8485,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>430</v>
       </c>
@@ -8497,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>431</v>
       </c>
@@ -8650,7 +8649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>442</v>
       </c>
@@ -8662,7 +8661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>443</v>
       </c>
@@ -8686,7 +8685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>445</v>
       </c>
@@ -8713,7 +8712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>447</v>
       </c>
@@ -8833,7 +8832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>453</v>
       </c>
@@ -8845,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>454</v>
       </c>
@@ -8881,7 +8880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>457</v>
       </c>
@@ -8893,7 +8892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>458</v>
       </c>
@@ -8905,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>459</v>
       </c>
@@ -8917,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>460</v>
       </c>
@@ -8929,7 +8928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>461</v>
       </c>
@@ -9004,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>467</v>
       </c>
@@ -9016,7 +9015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>468</v>
       </c>
@@ -9058,7 +9057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>471</v>
       </c>
@@ -9070,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>472</v>
       </c>
@@ -9112,7 +9111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>475</v>
       </c>
@@ -9124,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>476</v>
       </c>
@@ -9136,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>477</v>
       </c>
@@ -9148,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>478</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>479</v>
       </c>
@@ -9184,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>481</v>
       </c>
@@ -9196,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>482</v>
       </c>
@@ -9424,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>499</v>
       </c>
@@ -9436,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>500</v>
       </c>
@@ -9448,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>501</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>502</v>
       </c>
@@ -9472,7 +9471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>503</v>
       </c>
@@ -9484,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>504</v>
       </c>
@@ -9496,7 +9495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>505</v>
       </c>
@@ -9508,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>506</v>
       </c>
@@ -9520,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>507</v>
       </c>
@@ -9556,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>510</v>
       </c>
@@ -9568,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>511</v>
       </c>
@@ -9580,7 +9579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>512</v>
       </c>
@@ -9607,7 +9606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>514</v>
       </c>
@@ -9619,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>515</v>
       </c>
@@ -9631,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>516</v>
       </c>
@@ -9643,7 +9642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>517</v>
       </c>
@@ -9655,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>654</v>
       </c>
@@ -9667,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>519</v>
       </c>
@@ -9679,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>518</v>
       </c>
@@ -9691,7 +9690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>520</v>
       </c>
@@ -9703,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>521</v>
       </c>
@@ -9775,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>526</v>
       </c>
@@ -9787,7 +9786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>527</v>
       </c>
@@ -9799,7 +9798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>655</v>
       </c>
@@ -9823,7 +9822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>529</v>
       </c>
@@ -9862,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>532</v>
       </c>
@@ -9874,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>533</v>
       </c>
@@ -9928,7 +9927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>536</v>
       </c>
@@ -9952,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>538</v>
       </c>
@@ -9964,7 +9963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>539</v>
       </c>
@@ -9976,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>540</v>
       </c>
@@ -10003,7 +10002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>542</v>
       </c>
@@ -10015,7 +10014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>543</v>
       </c>
@@ -10027,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>544</v>
       </c>
@@ -10039,7 +10038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>545</v>
       </c>
@@ -10051,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>546</v>
       </c>
@@ -10063,7 +10062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>547</v>
       </c>
@@ -10171,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>555</v>
       </c>
@@ -10183,7 +10182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>556</v>
       </c>
@@ -10195,7 +10194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>557</v>
       </c>
@@ -10207,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>558</v>
       </c>
@@ -10219,7 +10218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>559</v>
       </c>
@@ -10231,7 +10230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>560</v>
       </c>
@@ -10243,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>561</v>
       </c>
@@ -10255,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>562</v>
       </c>
@@ -10267,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>563</v>
       </c>
@@ -10291,7 +10290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>564</v>
       </c>
@@ -10315,7 +10314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>566</v>
       </c>
@@ -10387,7 +10386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>571</v>
       </c>
@@ -10417,7 +10416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>573</v>
       </c>
@@ -10429,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>574</v>
       </c>
@@ -10441,7 +10440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>575</v>
       </c>
@@ -10453,7 +10452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>576</v>
       </c>
@@ -10465,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>577</v>
       </c>
@@ -10477,7 +10476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>578</v>
       </c>
@@ -10489,7 +10488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>579</v>
       </c>
@@ -10501,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>580</v>
       </c>
@@ -10525,7 +10524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>582</v>
       </c>
@@ -10579,7 +10578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>586</v>
       </c>
@@ -10591,7 +10590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>587</v>
       </c>
@@ -10603,7 +10602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>588</v>
       </c>
@@ -10615,7 +10614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>589</v>
       </c>
@@ -10627,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>590</v>
       </c>
@@ -10639,7 +10638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>591</v>
       </c>
@@ -10651,7 +10650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>592</v>
       </c>
@@ -10663,7 +10662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>593</v>
       </c>
@@ -10675,7 +10674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>594</v>
       </c>
@@ -10687,7 +10686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>595</v>
       </c>
@@ -10699,7 +10698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>596</v>
       </c>
@@ -10711,7 +10710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>597</v>
       </c>
@@ -10724,7 +10723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>598</v>
       </c>
@@ -10736,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>599</v>
       </c>
@@ -10748,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>600</v>
       </c>
@@ -10760,7 +10759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>601</v>
       </c>
@@ -10772,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>602</v>
       </c>
@@ -10811,7 +10810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>605</v>
       </c>
@@ -10823,7 +10822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>606</v>
       </c>
@@ -10835,7 +10834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>607</v>
       </c>
@@ -10871,7 +10870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>610</v>
       </c>
@@ -10883,7 +10882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>611</v>
       </c>
@@ -10895,7 +10894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>612</v>
       </c>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB421503-AE55-4A4B-A9E5-9814FCAA298A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AF77B4-717B-4184-BF55-52BA917FF714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="767">
   <si>
     <t>taxon</t>
   </si>
@@ -2315,6 +2315,12 @@
   </si>
   <si>
     <t>www/media/fiches/anyphaena_sabina_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/araniella_cucurbitina_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/araniella_cucurbitina_male.webp</t>
   </si>
 </sst>
 </file>
@@ -2726,8 +2732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3188,9 +3194,15 @@
       <c r="B35" t="s">
         <v>660</v>
       </c>
+      <c r="C35" t="s">
+        <v>765</v>
+      </c>
+      <c r="D35" t="s">
+        <v>766</v>
+      </c>
       <c r="E35" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AF77B4-717B-4184-BF55-52BA917FF714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBF59D2-7F23-49C5-89D8-4EED75FEB497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="769">
   <si>
     <t>taxon</t>
   </si>
@@ -2321,6 +2321,12 @@
   </si>
   <si>
     <t>www/media/fiches/araniella_cucurbitina_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/araniella_opistographa_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/araniella_opistographa_male.webp</t>
   </si>
 </sst>
 </file>
@@ -2733,7 +2739,7 @@
   <dimension ref="A1:E656"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3224,9 +3230,15 @@
       <c r="B37" t="s">
         <v>660</v>
       </c>
+      <c r="C37" t="s">
+        <v>767</v>
+      </c>
+      <c r="D37" t="s">
+        <v>768</v>
+      </c>
       <c r="E37" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBF59D2-7F23-49C5-89D8-4EED75FEB497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D611CCE-4F58-4995-BF6E-10E3110BB873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="796">
   <si>
     <t>taxon</t>
   </si>
@@ -2327,6 +2328,87 @@
   </si>
   <si>
     <t>www/media/fiches/araniella_opistographa_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/clubiona_pallidula_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/clubiona_phragmitis_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/clubiona_terrestris_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/dictyna_uncinata_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/lathys_humilis_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/haplodrassus_signifer_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/haplodrassus_umbratilis_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/scotophaeus_scutulatus_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/agyneta_rurestris_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/centromerus_sylvaticus_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/dicymbium_nigrum_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/drapestica_socialis_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/erigone_atra_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/erigone_dentipalpis_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/erigone_atra_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/erigone_dentipalpis_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/hylyphantes_nigritus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/lessertia_dentichelis_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/microlinyphia_pusilla_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/neriene_peltata_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/microlinyphia_pusilla_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/tenuiphantes_tenuis_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/thyreosthenius_parasiticus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/tenuiphantes_tenuis_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/lephtyphantes_leprosus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/lephtyphantes_minutus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/lephtyphantes_minutus_male.webp</t>
   </si>
 </sst>
 </file>
@@ -2738,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="D248" sqref="D248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3822,10 +3904,12 @@
       <c r="B82" t="s">
         <v>660</v>
       </c>
-      <c r="D82" s="1"/>
+      <c r="D82" t="s">
+        <v>769</v>
+      </c>
       <c r="E82" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -3835,9 +3919,12 @@
       <c r="B83" t="s">
         <v>660</v>
       </c>
+      <c r="C83" t="s">
+        <v>770</v>
+      </c>
       <c r="E83" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -3907,9 +3994,12 @@
       <c r="B89" t="s">
         <v>660</v>
       </c>
+      <c r="D89" t="s">
+        <v>771</v>
+      </c>
       <c r="E89" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -4057,9 +4147,12 @@
       <c r="B101" t="s">
         <v>660</v>
       </c>
+      <c r="C101" t="s">
+        <v>772</v>
+      </c>
       <c r="E101" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -4081,9 +4174,12 @@
       <c r="B103" t="s">
         <v>660</v>
       </c>
+      <c r="D103" t="s">
+        <v>773</v>
+      </c>
       <c r="E103" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -4459,9 +4555,12 @@
       <c r="B133" t="s">
         <v>660</v>
       </c>
+      <c r="C133" t="s">
+        <v>774</v>
+      </c>
       <c r="E133" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -4483,9 +4582,12 @@
       <c r="B135" t="s">
         <v>660</v>
       </c>
+      <c r="C135" t="s">
+        <v>775</v>
+      </c>
       <c r="E135" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -4663,9 +4765,12 @@
       <c r="B150" s="2" t="s">
         <v>659</v>
       </c>
+      <c r="D150" t="s">
+        <v>776</v>
+      </c>
       <c r="E150" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -5023,9 +5128,12 @@
       <c r="B180" t="s">
         <v>660</v>
       </c>
+      <c r="C180" t="s">
+        <v>777</v>
+      </c>
       <c r="E180" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -5251,9 +5359,12 @@
       <c r="B199" t="s">
         <v>660</v>
       </c>
+      <c r="D199" t="s">
+        <v>778</v>
+      </c>
       <c r="E199" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -5335,9 +5446,12 @@
       <c r="B206" t="s">
         <v>660</v>
       </c>
+      <c r="C206" t="s">
+        <v>779</v>
+      </c>
       <c r="E206" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -5467,9 +5581,12 @@
       <c r="B217" s="2" t="s">
         <v>660</v>
       </c>
+      <c r="D217" t="s">
+        <v>780</v>
+      </c>
       <c r="E217" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -5515,9 +5632,15 @@
       <c r="B221" t="s">
         <v>660</v>
       </c>
+      <c r="C221" t="s">
+        <v>781</v>
+      </c>
+      <c r="D221" t="s">
+        <v>783</v>
+      </c>
       <c r="E221" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -5527,9 +5650,15 @@
       <c r="B222" t="s">
         <v>660</v>
       </c>
+      <c r="C222" t="s">
+        <v>782</v>
+      </c>
+      <c r="D222" t="s">
+        <v>784</v>
+      </c>
       <c r="E222" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -5710,9 +5839,12 @@
       <c r="B237" t="s">
         <v>660</v>
       </c>
+      <c r="C237" t="s">
+        <v>785</v>
+      </c>
       <c r="E237" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -5818,9 +5950,12 @@
       <c r="B246" t="s">
         <v>660</v>
       </c>
+      <c r="C246" t="s">
+        <v>793</v>
+      </c>
       <c r="E246" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
@@ -5830,9 +5965,15 @@
       <c r="B247" t="s">
         <v>660</v>
       </c>
+      <c r="C247" t="s">
+        <v>794</v>
+      </c>
+      <c r="D247" t="s">
+        <v>795</v>
+      </c>
       <c r="E247" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -5842,9 +5983,12 @@
       <c r="B248" t="s">
         <v>660</v>
       </c>
+      <c r="D248" t="s">
+        <v>786</v>
+      </c>
       <c r="E248" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -6040,9 +6184,15 @@
       <c r="B264" t="s">
         <v>660</v>
       </c>
+      <c r="C264" t="s">
+        <v>787</v>
+      </c>
+      <c r="D264" t="s">
+        <v>789</v>
+      </c>
       <c r="E264" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -6223,9 +6373,12 @@
       <c r="B279" t="s">
         <v>660</v>
       </c>
+      <c r="C279" t="s">
+        <v>788</v>
+      </c>
       <c r="E279" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -6868,9 +7021,15 @@
       <c r="B332" t="s">
         <v>660</v>
       </c>
+      <c r="C332" t="s">
+        <v>790</v>
+      </c>
+      <c r="D332" t="s">
+        <v>792</v>
+      </c>
       <c r="E332" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
@@ -6904,9 +7063,12 @@
       <c r="B335" t="s">
         <v>660</v>
       </c>
+      <c r="C335" t="s">
+        <v>791</v>
+      </c>
       <c r="E335" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D611CCE-4F58-4995-BF6E-10E3110BB873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17623C12-17D3-4A99-973F-DAF97E26E2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="843">
   <si>
     <t>taxon</t>
   </si>
@@ -2409,6 +2408,147 @@
   </si>
   <si>
     <t>www/media/fiches/lephtyphantes_minutus_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/pardosa_hortensis_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/trochosa_terricola_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/ero_tuberculata_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/oonops_domesticus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/philodromus_albidus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/philodromus_aureolus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/philodromus_buxi_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/philodromus_albidus_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/pseudeuophrys_erratica_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/pseudeuophrys_lanigera_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/tetragnatha_dearmata_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/tetragnatha_extensa_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/tetragnatha_montana_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/enoplognatha_latimana_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/enoplognatha_ovata_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/heterotheridion_nigrovariegatum_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/phylloneta_impressa_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/sardinidion_blackwalli_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/ozyptila_praticola_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/xysticus_acerbus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/xysticus_erraticus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/xysticus_kochi_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/xysticus_lanio_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/hyptiotes_paradoxus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/philodromus_buxi_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/philodromus_praedatus_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/tibellus_oblongus_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/pseudeuophrys_lanigera_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/pseudeuophrys_erratica_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/salticus_zebraenus_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/tetragnatha_extensa_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/tetragnatha_montana_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/enoplognatha_mandibularis_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/enoplognatha_ovata_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/heterotheridion_nigrovariegatum_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/sardinidion_blackwalli_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/theridion_mystaceum_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/ozyptila_claveata_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/ozyptila_praticola_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/ozyptila_trux_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/tmarus_piger_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/xysticus_acerbus_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/xysticus_kempeleni_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/xysticus_kochi_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/xysticus_luctator_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/zodarion_italicum_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/zodarion_italicum_male.webp</t>
   </si>
 </sst>
 </file>
@@ -2491,11 +2631,11 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8CF3FEBE-EC73-416E-8610-F705B8D6D336}" name="taxon"/>
     <tableColumn id="4" xr3:uid="{666FCC22-DD53-4830-B712-02B264DDA363}" name="id à vue"/>
+    <tableColumn id="6" xr3:uid="{6FBFF4C7-96B5-4733-BA2F-DBB356BBCD3F}" name="fiche" dataDxfId="0">
+      <calculatedColumnFormula>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="3" xr3:uid="{84160676-7B2A-4A0C-94B1-2901F12B1A91}" name="femelle"/>
     <tableColumn id="2" xr3:uid="{DBDA5D0E-A4B2-4E10-A6AF-85502F963E80}" name="male"/>
-    <tableColumn id="5" xr3:uid="{428EF79A-9172-4EA3-8B88-E246ACC4B653}" name="fiche" dataDxfId="0">
-      <calculatedColumnFormula>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</calculatedColumnFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2820,16 +2960,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="D248" sqref="D248"/>
+    <sheetView tabSelected="1" topLeftCell="A633" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E655" sqref="E655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="52.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2840,13 +2981,13 @@
         <v>658</v>
       </c>
       <c r="C1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D1" t="s">
         <v>616</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>615</v>
-      </c>
-      <c r="E1" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2856,12 +2997,12 @@
       <c r="B2" t="s">
         <v>659</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>678</v>
-      </c>
-      <c r="E2" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2871,12 +3012,12 @@
       <c r="B3" t="s">
         <v>659</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>763</v>
-      </c>
-      <c r="E3" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2886,7 +3027,7 @@
       <c r="B4" t="s">
         <v>660</v>
       </c>
-      <c r="E4" t="b">
+      <c r="C4" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -2898,7 +3039,7 @@
       <c r="B5" t="s">
         <v>660</v>
       </c>
-      <c r="E5" t="b">
+      <c r="C5" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -2910,7 +3051,7 @@
       <c r="B6" t="s">
         <v>660</v>
       </c>
-      <c r="E6" t="b">
+      <c r="C6" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -2922,7 +3063,7 @@
       <c r="B7" t="s">
         <v>660</v>
       </c>
-      <c r="E7" t="b">
+      <c r="C7" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -2934,7 +3075,7 @@
       <c r="B8" t="s">
         <v>660</v>
       </c>
-      <c r="E8" t="b">
+      <c r="C8" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -2946,7 +3087,7 @@
       <c r="B9" t="s">
         <v>660</v>
       </c>
-      <c r="E9" t="b">
+      <c r="C9" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -2958,7 +3099,7 @@
       <c r="B10" t="s">
         <v>660</v>
       </c>
-      <c r="E10" t="b">
+      <c r="C10" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -2970,7 +3111,7 @@
       <c r="B11" t="s">
         <v>660</v>
       </c>
-      <c r="E11" t="b">
+      <c r="C11" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -2982,7 +3123,7 @@
       <c r="B12" t="s">
         <v>660</v>
       </c>
-      <c r="E12" t="b">
+      <c r="C12" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -2994,7 +3135,7 @@
       <c r="B13" t="s">
         <v>660</v>
       </c>
-      <c r="E13" t="b">
+      <c r="C13" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3006,7 +3147,7 @@
       <c r="B14" t="s">
         <v>660</v>
       </c>
-      <c r="E14" t="b">
+      <c r="C14" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3018,7 +3159,7 @@
       <c r="B15" t="s">
         <v>659</v>
       </c>
-      <c r="E15" t="b">
+      <c r="C15" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3030,7 +3171,7 @@
       <c r="B16" t="s">
         <v>660</v>
       </c>
-      <c r="E16" t="b">
+      <c r="C16" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3042,7 +3183,7 @@
       <c r="B17" t="s">
         <v>660</v>
       </c>
-      <c r="E17" t="b">
+      <c r="C17" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3054,7 +3195,7 @@
       <c r="B18" t="s">
         <v>659</v>
       </c>
-      <c r="E18" t="b">
+      <c r="C18" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3066,7 +3207,7 @@
       <c r="B19" t="s">
         <v>661</v>
       </c>
-      <c r="E19" t="b">
+      <c r="C19" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3078,7 +3219,7 @@
       <c r="B20" t="s">
         <v>659</v>
       </c>
-      <c r="E20" t="b">
+      <c r="C20" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3090,15 +3231,15 @@
       <c r="B21" t="s">
         <v>659</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>679</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>752</v>
-      </c>
-      <c r="E21" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3108,7 +3249,7 @@
       <c r="B22" t="s">
         <v>659</v>
       </c>
-      <c r="E22" t="b">
+      <c r="C22" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3120,12 +3261,12 @@
       <c r="B23" t="s">
         <v>659</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>680</v>
-      </c>
-      <c r="E23" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3135,7 +3276,7 @@
       <c r="B24" t="s">
         <v>660</v>
       </c>
-      <c r="E24" t="b">
+      <c r="C24" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3147,12 +3288,12 @@
       <c r="B25" t="s">
         <v>660</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>764</v>
-      </c>
-      <c r="E25" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3162,7 +3303,7 @@
       <c r="B26" t="s">
         <v>659</v>
       </c>
-      <c r="E26" t="b">
+      <c r="C26" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3174,7 +3315,7 @@
       <c r="B27" t="s">
         <v>659</v>
       </c>
-      <c r="E27" t="b">
+      <c r="C27" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3186,7 +3327,7 @@
       <c r="B28" t="s">
         <v>659</v>
       </c>
-      <c r="E28" t="b">
+      <c r="C28" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3198,7 +3339,7 @@
       <c r="B29" t="s">
         <v>659</v>
       </c>
-      <c r="E29" t="b">
+      <c r="C29" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3210,12 +3351,12 @@
       <c r="B30" t="s">
         <v>659</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>681</v>
-      </c>
-      <c r="E30" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3225,12 +3366,12 @@
       <c r="B31" t="s">
         <v>659</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
         <v>682</v>
-      </c>
-      <c r="E31" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3240,15 +3381,15 @@
       <c r="B32" t="s">
         <v>659</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>663</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>662</v>
-      </c>
-      <c r="E32" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3258,7 +3399,7 @@
       <c r="B33" t="s">
         <v>660</v>
       </c>
-      <c r="E33" t="b">
+      <c r="C33" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3270,7 +3411,7 @@
       <c r="B34" t="s">
         <v>660</v>
       </c>
-      <c r="E34" t="b">
+      <c r="C34" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3282,15 +3423,15 @@
       <c r="B35" t="s">
         <v>660</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
         <v>765</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>766</v>
-      </c>
-      <c r="E35" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3300,7 +3441,7 @@
       <c r="B36" t="s">
         <v>660</v>
       </c>
-      <c r="E36" t="b">
+      <c r="C36" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3312,15 +3453,15 @@
       <c r="B37" t="s">
         <v>660</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
         <v>767</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>768</v>
-      </c>
-      <c r="E37" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -3330,12 +3471,12 @@
       <c r="B38" t="s">
         <v>659</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
         <v>683</v>
-      </c>
-      <c r="E38" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -3345,12 +3486,12 @@
       <c r="B39" t="s">
         <v>659</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C39" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
         <v>684</v>
-      </c>
-      <c r="E39" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -3360,12 +3501,12 @@
       <c r="B40" t="s">
         <v>659</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
         <v>685</v>
-      </c>
-      <c r="E40" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -3375,7 +3516,7 @@
       <c r="B41" t="s">
         <v>659</v>
       </c>
-      <c r="E41" t="b">
+      <c r="C41" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3387,7 +3528,7 @@
       <c r="B42" t="s">
         <v>659</v>
       </c>
-      <c r="E42" t="b">
+      <c r="C42" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3399,12 +3540,12 @@
       <c r="B43" t="s">
         <v>659</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
         <v>686</v>
-      </c>
-      <c r="E43" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -3414,7 +3555,7 @@
       <c r="B44" t="s">
         <v>660</v>
       </c>
-      <c r="E44" t="b">
+      <c r="C44" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3426,7 +3567,7 @@
       <c r="B45" t="s">
         <v>659</v>
       </c>
-      <c r="E45" t="b">
+      <c r="C45" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3438,7 +3579,7 @@
       <c r="B46" t="s">
         <v>660</v>
       </c>
-      <c r="E46" t="b">
+      <c r="C46" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3450,7 +3591,7 @@
       <c r="B47" t="s">
         <v>660</v>
       </c>
-      <c r="E47" t="b">
+      <c r="C47" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3462,7 +3603,7 @@
       <c r="B48" t="s">
         <v>660</v>
       </c>
-      <c r="E48" t="b">
+      <c r="C48" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3474,12 +3615,12 @@
       <c r="B49" t="s">
         <v>659</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
         <v>687</v>
-      </c>
-      <c r="E49" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -3489,7 +3630,7 @@
       <c r="B50" t="s">
         <v>660</v>
       </c>
-      <c r="E50" t="b">
+      <c r="C50" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3501,12 +3642,12 @@
       <c r="B51" t="s">
         <v>659</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
         <v>688</v>
-      </c>
-      <c r="E51" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -3516,7 +3657,7 @@
       <c r="B52" t="s">
         <v>660</v>
       </c>
-      <c r="E52" t="b">
+      <c r="C52" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3528,7 +3669,7 @@
       <c r="B53" t="s">
         <v>660</v>
       </c>
-      <c r="E53" t="b">
+      <c r="C53" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3540,7 +3681,7 @@
       <c r="B54" t="s">
         <v>660</v>
       </c>
-      <c r="E54" t="b">
+      <c r="C54" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3552,12 +3693,12 @@
       <c r="B55" t="s">
         <v>659</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
         <v>689</v>
-      </c>
-      <c r="E55" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -3567,7 +3708,7 @@
       <c r="B56" t="s">
         <v>659</v>
       </c>
-      <c r="E56" t="b">
+      <c r="C56" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3579,12 +3720,12 @@
       <c r="B57" t="s">
         <v>659</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
         <v>690</v>
-      </c>
-      <c r="E57" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -3594,11 +3735,11 @@
       <c r="B58" t="s">
         <v>659</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="E58" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
+      <c r="C58" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -3607,7 +3748,7 @@
       <c r="B59" t="s">
         <v>659</v>
       </c>
-      <c r="E59" t="b">
+      <c r="C59" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3619,15 +3760,15 @@
       <c r="B60" t="s">
         <v>659</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
         <v>665</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>664</v>
-      </c>
-      <c r="E60" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -3637,7 +3778,7 @@
       <c r="B61" t="s">
         <v>659</v>
       </c>
-      <c r="E61" t="b">
+      <c r="C61" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3649,12 +3790,12 @@
       <c r="B62" t="s">
         <v>659</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
         <v>691</v>
-      </c>
-      <c r="E62" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -3664,7 +3805,7 @@
       <c r="B63" t="s">
         <v>659</v>
       </c>
-      <c r="E63" t="b">
+      <c r="C63" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3676,7 +3817,7 @@
       <c r="B64" t="s">
         <v>659</v>
       </c>
-      <c r="E64" t="b">
+      <c r="C64" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3688,7 +3829,7 @@
       <c r="B65" t="s">
         <v>659</v>
       </c>
-      <c r="E65" t="b">
+      <c r="C65" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3700,7 +3841,7 @@
       <c r="B66" t="s">
         <v>660</v>
       </c>
-      <c r="E66" t="b">
+      <c r="C66" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3712,15 +3853,15 @@
       <c r="B67" t="s">
         <v>659</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
         <v>667</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>666</v>
-      </c>
-      <c r="E67" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -3730,7 +3871,7 @@
       <c r="B68" t="s">
         <v>660</v>
       </c>
-      <c r="E68" t="b">
+      <c r="C68" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3742,7 +3883,7 @@
       <c r="B69" t="s">
         <v>659</v>
       </c>
-      <c r="E69" t="b">
+      <c r="C69" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3754,7 +3895,7 @@
       <c r="B70" t="s">
         <v>660</v>
       </c>
-      <c r="E70" t="b">
+      <c r="C70" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3766,7 +3907,7 @@
       <c r="B71" t="s">
         <v>660</v>
       </c>
-      <c r="E71" t="b">
+      <c r="C71" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3778,7 +3919,7 @@
       <c r="B72" t="s">
         <v>660</v>
       </c>
-      <c r="E72" t="b">
+      <c r="C72" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3790,12 +3931,12 @@
       <c r="B73" t="s">
         <v>659</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
         <v>692</v>
-      </c>
-      <c r="E73" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -3805,12 +3946,12 @@
       <c r="B74" t="s">
         <v>659</v>
       </c>
-      <c r="D74" t="s">
+      <c r="C74" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
         <v>762</v>
-      </c>
-      <c r="E74" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -3820,7 +3961,7 @@
       <c r="B75" t="s">
         <v>660</v>
       </c>
-      <c r="E75" t="b">
+      <c r="C75" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3832,7 +3973,7 @@
       <c r="B76" t="s">
         <v>660</v>
       </c>
-      <c r="E76" t="b">
+      <c r="C76" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3844,7 +3985,7 @@
       <c r="B77" t="s">
         <v>660</v>
       </c>
-      <c r="E77" t="b">
+      <c r="C77" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3856,7 +3997,7 @@
       <c r="B78" t="s">
         <v>660</v>
       </c>
-      <c r="E78" t="b">
+      <c r="C78" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3868,7 +4009,7 @@
       <c r="B79" t="s">
         <v>660</v>
       </c>
-      <c r="E79" t="b">
+      <c r="C79" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3880,7 +4021,7 @@
       <c r="B80" t="s">
         <v>660</v>
       </c>
-      <c r="E80" t="b">
+      <c r="C80" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3892,7 +4033,7 @@
       <c r="B81" t="s">
         <v>660</v>
       </c>
-      <c r="E81" t="b">
+      <c r="C81" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3904,12 +4045,12 @@
       <c r="B82" t="s">
         <v>660</v>
       </c>
-      <c r="D82" t="s">
+      <c r="C82" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
         <v>769</v>
-      </c>
-      <c r="E82" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -3919,12 +4060,12 @@
       <c r="B83" t="s">
         <v>660</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
         <v>770</v>
-      </c>
-      <c r="E83" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -3934,7 +4075,7 @@
       <c r="B84" t="s">
         <v>660</v>
       </c>
-      <c r="E84" t="b">
+      <c r="C84" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3946,7 +4087,7 @@
       <c r="B85" t="s">
         <v>660</v>
       </c>
-      <c r="E85" t="b">
+      <c r="C85" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3958,7 +4099,7 @@
       <c r="B86" t="s">
         <v>660</v>
       </c>
-      <c r="E86" t="b">
+      <c r="C86" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3970,7 +4111,7 @@
       <c r="B87" t="s">
         <v>660</v>
       </c>
-      <c r="E87" t="b">
+      <c r="C87" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3982,7 +4123,7 @@
       <c r="B88" t="s">
         <v>660</v>
       </c>
-      <c r="E88" t="b">
+      <c r="C88" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -3994,12 +4135,12 @@
       <c r="B89" t="s">
         <v>660</v>
       </c>
-      <c r="D89" t="s">
+      <c r="C89" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
         <v>771</v>
-      </c>
-      <c r="E89" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -4009,7 +4150,7 @@
       <c r="B90" t="s">
         <v>660</v>
       </c>
-      <c r="E90" t="b">
+      <c r="C90" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4021,7 +4162,7 @@
       <c r="B91" t="s">
         <v>660</v>
       </c>
-      <c r="E91" t="b">
+      <c r="C91" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4033,12 +4174,12 @@
       <c r="B92" t="s">
         <v>659</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
         <v>693</v>
-      </c>
-      <c r="E92" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -4048,7 +4189,7 @@
       <c r="B93" t="s">
         <v>660</v>
       </c>
-      <c r="E93" t="b">
+      <c r="C93" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4060,7 +4201,7 @@
       <c r="B94" t="s">
         <v>660</v>
       </c>
-      <c r="E94" t="b">
+      <c r="C94" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4072,7 +4213,7 @@
       <c r="B95" t="s">
         <v>660</v>
       </c>
-      <c r="E95" t="b">
+      <c r="C95" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4084,7 +4225,7 @@
       <c r="B96" t="s">
         <v>660</v>
       </c>
-      <c r="E96" t="b">
+      <c r="C96" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4096,7 +4237,7 @@
       <c r="B97" t="s">
         <v>659</v>
       </c>
-      <c r="E97" t="b">
+      <c r="C97" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4108,12 +4249,12 @@
       <c r="B98" t="s">
         <v>659</v>
       </c>
-      <c r="D98" t="s">
+      <c r="C98" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
         <v>694</v>
-      </c>
-      <c r="E98" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -4123,7 +4264,7 @@
       <c r="B99" t="s">
         <v>660</v>
       </c>
-      <c r="E99" t="b">
+      <c r="C99" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4135,7 +4276,7 @@
       <c r="B100" t="s">
         <v>660</v>
       </c>
-      <c r="E100" t="b">
+      <c r="C100" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4147,12 +4288,12 @@
       <c r="B101" t="s">
         <v>660</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
         <v>772</v>
-      </c>
-      <c r="E101" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -4162,7 +4303,7 @@
       <c r="B102" t="s">
         <v>660</v>
       </c>
-      <c r="E102" t="b">
+      <c r="C102" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4174,12 +4315,12 @@
       <c r="B103" t="s">
         <v>660</v>
       </c>
-      <c r="D103" t="s">
+      <c r="C103" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
         <v>773</v>
-      </c>
-      <c r="E103" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -4189,7 +4330,7 @@
       <c r="B104" t="s">
         <v>660</v>
       </c>
-      <c r="E104" t="b">
+      <c r="C104" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4201,15 +4342,15 @@
       <c r="B105" t="s">
         <v>659</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
         <v>669</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>668</v>
-      </c>
-      <c r="E105" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -4219,7 +4360,7 @@
       <c r="B106" t="s">
         <v>659</v>
       </c>
-      <c r="E106" t="b">
+      <c r="C106" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4231,12 +4372,12 @@
       <c r="B107" t="s">
         <v>659</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
         <v>695</v>
-      </c>
-      <c r="E107" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -4246,12 +4387,12 @@
       <c r="B108" t="s">
         <v>659</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
         <v>670</v>
-      </c>
-      <c r="E108" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -4261,7 +4402,7 @@
       <c r="B109" t="s">
         <v>659</v>
       </c>
-      <c r="E109" t="b">
+      <c r="C109" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4273,7 +4414,7 @@
       <c r="B110" t="s">
         <v>660</v>
       </c>
-      <c r="E110" t="b">
+      <c r="C110" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4285,12 +4426,12 @@
       <c r="B111" t="s">
         <v>659</v>
       </c>
-      <c r="D111" t="s">
+      <c r="C111" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
         <v>671</v>
-      </c>
-      <c r="E111" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -4300,7 +4441,7 @@
       <c r="B112" t="s">
         <v>659</v>
       </c>
-      <c r="E112" t="b">
+      <c r="C112" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4312,12 +4453,12 @@
       <c r="B113" t="s">
         <v>659</v>
       </c>
-      <c r="D113" t="s">
+      <c r="C113" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
         <v>672</v>
-      </c>
-      <c r="E113" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -4327,7 +4468,7 @@
       <c r="B114" t="s">
         <v>659</v>
       </c>
-      <c r="E114" t="b">
+      <c r="C114" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4339,7 +4480,7 @@
       <c r="B115" t="s">
         <v>659</v>
       </c>
-      <c r="E115" t="b">
+      <c r="C115" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4351,7 +4492,7 @@
       <c r="B116" t="s">
         <v>660</v>
       </c>
-      <c r="E116" t="b">
+      <c r="C116" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4363,7 +4504,7 @@
       <c r="B117" t="s">
         <v>660</v>
       </c>
-      <c r="E117" t="b">
+      <c r="C117" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4375,7 +4516,7 @@
       <c r="B118" t="s">
         <v>660</v>
       </c>
-      <c r="E118" t="b">
+      <c r="C118" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4387,7 +4528,7 @@
       <c r="B119" t="s">
         <v>660</v>
       </c>
-      <c r="E119" t="b">
+      <c r="C119" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4399,7 +4540,7 @@
       <c r="B120" t="s">
         <v>660</v>
       </c>
-      <c r="E120" t="b">
+      <c r="C120" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4411,7 +4552,7 @@
       <c r="B121" t="s">
         <v>660</v>
       </c>
-      <c r="E121" t="b">
+      <c r="C121" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4423,7 +4564,7 @@
       <c r="B122" t="s">
         <v>660</v>
       </c>
-      <c r="E122" t="b">
+      <c r="C122" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4435,7 +4576,7 @@
       <c r="B123" t="s">
         <v>660</v>
       </c>
-      <c r="E123" t="b">
+      <c r="C123" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4447,7 +4588,7 @@
       <c r="B124" t="s">
         <v>660</v>
       </c>
-      <c r="E124" t="b">
+      <c r="C124" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4459,7 +4600,7 @@
       <c r="B125" t="s">
         <v>660</v>
       </c>
-      <c r="E125" t="b">
+      <c r="C125" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4471,7 +4612,7 @@
       <c r="B126" t="s">
         <v>660</v>
       </c>
-      <c r="E126" t="b">
+      <c r="C126" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4483,7 +4624,7 @@
       <c r="B127" t="s">
         <v>660</v>
       </c>
-      <c r="E127" t="b">
+      <c r="C127" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4495,205 +4636,205 @@
       <c r="B128" t="s">
         <v>660</v>
       </c>
-      <c r="E128" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C128" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>123</v>
       </c>
       <c r="B129" t="s">
         <v>660</v>
       </c>
-      <c r="E129" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C129" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>623</v>
       </c>
       <c r="B130" t="s">
         <v>660</v>
       </c>
-      <c r="E130" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C130" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>124</v>
       </c>
       <c r="B131" t="s">
         <v>660</v>
       </c>
-      <c r="E131" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C131" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>125</v>
       </c>
       <c r="B132" t="s">
         <v>660</v>
       </c>
-      <c r="E132" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C132" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>126</v>
       </c>
       <c r="B133" t="s">
         <v>660</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
         <v>774</v>
       </c>
-      <c r="E133" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>127</v>
       </c>
       <c r="B134" t="s">
         <v>660</v>
       </c>
-      <c r="E134" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C134" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>128</v>
       </c>
       <c r="B135" t="s">
         <v>660</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
         <v>775</v>
       </c>
-      <c r="E135" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>129</v>
       </c>
       <c r="B136" t="s">
         <v>659</v>
       </c>
-      <c r="E136" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C136" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>130</v>
       </c>
       <c r="B137" t="s">
         <v>660</v>
       </c>
-      <c r="E137" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C137" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>131</v>
       </c>
       <c r="B138" t="s">
         <v>659</v>
       </c>
-      <c r="E138" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C138" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>132</v>
       </c>
       <c r="B139" t="s">
         <v>660</v>
       </c>
-      <c r="E139" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C139" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>133</v>
       </c>
       <c r="B140" t="s">
         <v>659</v>
       </c>
-      <c r="E140" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C140" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>134</v>
       </c>
       <c r="B141" t="s">
         <v>659</v>
       </c>
-      <c r="E141" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C141" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>135</v>
       </c>
       <c r="B142" t="s">
         <v>660</v>
       </c>
-      <c r="E142" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C142" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>136</v>
       </c>
       <c r="B143" t="s">
         <v>660</v>
       </c>
-      <c r="E143" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C143" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>137</v>
       </c>
       <c r="B144" t="s">
         <v>660</v>
       </c>
-      <c r="E144" t="b">
+      <c r="C144" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4705,7 +4846,7 @@
       <c r="B145" t="s">
         <v>660</v>
       </c>
-      <c r="E145" t="b">
+      <c r="C145" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4717,7 +4858,7 @@
       <c r="B146" t="s">
         <v>659</v>
       </c>
-      <c r="E146" t="b">
+      <c r="C146" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4729,7 +4870,7 @@
       <c r="B147" t="s">
         <v>659</v>
       </c>
-      <c r="E147" t="b">
+      <c r="C147" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4741,7 +4882,7 @@
       <c r="B148" t="s">
         <v>659</v>
       </c>
-      <c r="E148" t="b">
+      <c r="C148" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4753,7 +4894,7 @@
       <c r="B149" t="s">
         <v>659</v>
       </c>
-      <c r="E149" t="b">
+      <c r="C149" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4765,12 +4906,12 @@
       <c r="B150" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="D150" t="s">
+      <c r="C150" s="2" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
         <v>776</v>
-      </c>
-      <c r="E150" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -4780,7 +4921,7 @@
       <c r="B151" t="s">
         <v>660</v>
       </c>
-      <c r="E151" t="b">
+      <c r="C151" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4792,7 +4933,7 @@
       <c r="B152" t="s">
         <v>659</v>
       </c>
-      <c r="E152" t="b">
+      <c r="C152" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4804,7 +4945,7 @@
       <c r="B153" t="s">
         <v>660</v>
       </c>
-      <c r="E153" t="b">
+      <c r="C153" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4816,7 +4957,7 @@
       <c r="B154" t="s">
         <v>660</v>
       </c>
-      <c r="E154" t="b">
+      <c r="C154" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4828,7 +4969,7 @@
       <c r="B155" t="s">
         <v>660</v>
       </c>
-      <c r="E155" t="b">
+      <c r="C155" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4840,7 +4981,7 @@
       <c r="B156" t="s">
         <v>660</v>
       </c>
-      <c r="E156" t="b">
+      <c r="C156" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4852,7 +4993,7 @@
       <c r="B157" t="s">
         <v>660</v>
       </c>
-      <c r="E157" t="b">
+      <c r="C157" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4864,7 +5005,7 @@
       <c r="B158" t="s">
         <v>660</v>
       </c>
-      <c r="E158" t="b">
+      <c r="C158" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4876,7 +5017,7 @@
       <c r="B159" t="s">
         <v>660</v>
       </c>
-      <c r="E159" t="b">
+      <c r="C159" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -4888,394 +5029,394 @@
       <c r="B160" t="s">
         <v>660</v>
       </c>
-      <c r="E160" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C160" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>152</v>
       </c>
       <c r="B161" t="s">
         <v>660</v>
       </c>
-      <c r="E161" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C161" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>153</v>
       </c>
       <c r="B162" t="s">
         <v>659</v>
       </c>
-      <c r="E162" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C162" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>154</v>
       </c>
       <c r="B163" t="s">
         <v>660</v>
       </c>
-      <c r="E163" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C163" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>155</v>
       </c>
       <c r="B164" t="s">
         <v>660</v>
       </c>
-      <c r="E164" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C164" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>156</v>
       </c>
       <c r="B165" t="s">
         <v>660</v>
       </c>
-      <c r="E165" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C165" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>157</v>
       </c>
       <c r="B166" t="s">
         <v>660</v>
       </c>
-      <c r="E166" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C166" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>158</v>
       </c>
       <c r="B167" t="s">
         <v>660</v>
       </c>
-      <c r="E167" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C167" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>159</v>
       </c>
       <c r="B168" t="s">
         <v>660</v>
       </c>
-      <c r="E168" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C168" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>160</v>
       </c>
       <c r="B169" t="s">
         <v>660</v>
       </c>
-      <c r="E169" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C169" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>161</v>
       </c>
       <c r="B170" t="s">
         <v>660</v>
       </c>
-      <c r="E170" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C170" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>162</v>
       </c>
       <c r="B171" t="s">
         <v>660</v>
       </c>
-      <c r="E171" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C171" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>163</v>
       </c>
       <c r="B172" t="s">
         <v>660</v>
       </c>
-      <c r="E172" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C172" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>164</v>
       </c>
       <c r="B173" t="s">
         <v>660</v>
       </c>
-      <c r="E173" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C173" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>165</v>
       </c>
       <c r="B174" t="s">
         <v>660</v>
       </c>
-      <c r="E174" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C174" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>166</v>
       </c>
       <c r="B175" t="s">
         <v>660</v>
       </c>
-      <c r="E175" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C175" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>167</v>
       </c>
       <c r="B176" t="s">
         <v>660</v>
       </c>
-      <c r="E176" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C176" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>168</v>
       </c>
       <c r="B177" t="s">
         <v>660</v>
       </c>
-      <c r="E177" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C177" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>169</v>
       </c>
       <c r="B178" t="s">
         <v>660</v>
       </c>
-      <c r="E178" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C178" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>170</v>
       </c>
       <c r="B179" t="s">
         <v>660</v>
       </c>
-      <c r="E179" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C179" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>171</v>
       </c>
       <c r="B180" t="s">
         <v>660</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
         <v>777</v>
       </c>
-      <c r="E180" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>172</v>
       </c>
       <c r="B181" t="s">
         <v>660</v>
       </c>
-      <c r="E181" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C181" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>173</v>
       </c>
       <c r="B182" t="s">
         <v>660</v>
       </c>
-      <c r="E182" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C182" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>174</v>
       </c>
       <c r="B183" t="s">
         <v>660</v>
       </c>
-      <c r="E183" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C183" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>175</v>
       </c>
       <c r="B184" t="s">
         <v>660</v>
       </c>
-      <c r="E184" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C184" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>176</v>
       </c>
       <c r="B185" t="s">
         <v>660</v>
       </c>
-      <c r="E185" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C185" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>177</v>
       </c>
       <c r="B186" t="s">
         <v>660</v>
       </c>
-      <c r="E186" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C186" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>625</v>
       </c>
       <c r="B187" t="s">
         <v>660</v>
       </c>
-      <c r="E187" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C187" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>178</v>
       </c>
       <c r="B188" t="s">
         <v>660</v>
       </c>
-      <c r="E188" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C188" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>179</v>
       </c>
       <c r="B189" t="s">
         <v>660</v>
       </c>
-      <c r="E189" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C189" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>180</v>
       </c>
       <c r="B190" t="s">
         <v>660</v>
       </c>
-      <c r="E190" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C190" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>181</v>
       </c>
       <c r="B191" t="s">
         <v>660</v>
       </c>
-      <c r="E191" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C191" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>182</v>
       </c>
       <c r="B192" t="s">
         <v>660</v>
       </c>
-      <c r="E192" t="b">
+      <c r="C192" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5287,7 +5428,7 @@
       <c r="B193" t="s">
         <v>660</v>
       </c>
-      <c r="E193" t="b">
+      <c r="C193" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5299,7 +5440,7 @@
       <c r="B194" t="s">
         <v>660</v>
       </c>
-      <c r="E194" t="b">
+      <c r="C194" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5311,7 +5452,7 @@
       <c r="B195" t="s">
         <v>660</v>
       </c>
-      <c r="E195" t="b">
+      <c r="C195" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5323,7 +5464,7 @@
       <c r="B196" t="s">
         <v>660</v>
       </c>
-      <c r="E196" t="b">
+      <c r="C196" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5335,7 +5476,7 @@
       <c r="B197" t="s">
         <v>660</v>
       </c>
-      <c r="E197" t="b">
+      <c r="C197" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5347,7 +5488,7 @@
       <c r="B198" t="s">
         <v>660</v>
       </c>
-      <c r="E198" t="b">
+      <c r="C198" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5359,12 +5500,12 @@
       <c r="B199" t="s">
         <v>660</v>
       </c>
-      <c r="D199" t="s">
+      <c r="C199" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E199" t="s">
         <v>778</v>
-      </c>
-      <c r="E199" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -5374,7 +5515,7 @@
       <c r="B200" t="s">
         <v>660</v>
       </c>
-      <c r="E200" t="b">
+      <c r="C200" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5386,7 +5527,7 @@
       <c r="B201" t="s">
         <v>660</v>
       </c>
-      <c r="E201" t="b">
+      <c r="C201" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5398,7 +5539,7 @@
       <c r="B202" t="s">
         <v>660</v>
       </c>
-      <c r="E202" t="b">
+      <c r="C202" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5410,7 +5551,7 @@
       <c r="B203" t="s">
         <v>660</v>
       </c>
-      <c r="E203" t="b">
+      <c r="C203" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5422,7 +5563,7 @@
       <c r="B204" t="s">
         <v>660</v>
       </c>
-      <c r="E204" t="b">
+      <c r="C204" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5434,7 +5575,7 @@
       <c r="B205" t="s">
         <v>660</v>
       </c>
-      <c r="E205" t="b">
+      <c r="C205" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5446,12 +5587,12 @@
       <c r="B206" t="s">
         <v>660</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D206" t="s">
         <v>779</v>
-      </c>
-      <c r="E206" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -5461,7 +5602,7 @@
       <c r="B207" t="s">
         <v>660</v>
       </c>
-      <c r="E207" t="b">
+      <c r="C207" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5473,7 +5614,7 @@
       <c r="B208" t="s">
         <v>660</v>
       </c>
-      <c r="E208" t="b">
+      <c r="C208" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5485,7 +5626,7 @@
       <c r="B209" t="s">
         <v>660</v>
       </c>
-      <c r="E209" t="b">
+      <c r="C209" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5497,7 +5638,7 @@
       <c r="B210" t="s">
         <v>660</v>
       </c>
-      <c r="E210" t="b">
+      <c r="C210" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5509,7 +5650,7 @@
       <c r="B211" t="s">
         <v>660</v>
       </c>
-      <c r="E211" t="b">
+      <c r="C211" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5521,7 +5662,7 @@
       <c r="B212" t="s">
         <v>660</v>
       </c>
-      <c r="E212" t="b">
+      <c r="C212" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5533,7 +5674,7 @@
       <c r="B213" t="s">
         <v>660</v>
       </c>
-      <c r="E213" t="b">
+      <c r="C213" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5545,7 +5686,7 @@
       <c r="B214" t="s">
         <v>660</v>
       </c>
-      <c r="E214" t="b">
+      <c r="C214" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5557,7 +5698,7 @@
       <c r="B215" t="s">
         <v>660</v>
       </c>
-      <c r="E215" t="b">
+      <c r="C215" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5569,7 +5710,7 @@
       <c r="B216" t="s">
         <v>660</v>
       </c>
-      <c r="E216" t="b">
+      <c r="C216" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5581,12 +5722,12 @@
       <c r="B217" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="D217" t="s">
+      <c r="C217" s="2" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E217" t="s">
         <v>780</v>
-      </c>
-      <c r="E217" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -5596,7 +5737,7 @@
       <c r="B218" t="s">
         <v>660</v>
       </c>
-      <c r="E218" t="b">
+      <c r="C218" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5608,7 +5749,7 @@
       <c r="B219" t="s">
         <v>660</v>
       </c>
-      <c r="E219" t="b">
+      <c r="C219" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5620,7 +5761,7 @@
       <c r="B220" t="s">
         <v>660</v>
       </c>
-      <c r="E220" t="b">
+      <c r="C220" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5632,15 +5773,15 @@
       <c r="B221" t="s">
         <v>660</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D221" t="s">
         <v>781</v>
       </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
         <v>783</v>
-      </c>
-      <c r="E221" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -5650,15 +5791,15 @@
       <c r="B222" t="s">
         <v>660</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D222" t="s">
         <v>782</v>
       </c>
-      <c r="D222" t="s">
+      <c r="E222" t="s">
         <v>784</v>
-      </c>
-      <c r="E222" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -5668,7 +5809,7 @@
       <c r="B223" t="s">
         <v>660</v>
       </c>
-      <c r="E223" t="b">
+      <c r="C223" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5680,7 +5821,7 @@
       <c r="B224" t="s">
         <v>660</v>
       </c>
-      <c r="E224" t="b">
+      <c r="C224" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5692,7 +5833,7 @@
       <c r="B225" t="s">
         <v>659</v>
       </c>
-      <c r="E225" t="b">
+      <c r="C225" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5704,12 +5845,12 @@
       <c r="B226" t="s">
         <v>659</v>
       </c>
-      <c r="D226" t="s">
+      <c r="C226" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E226" t="s">
         <v>696</v>
-      </c>
-      <c r="E226" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -5719,7 +5860,7 @@
       <c r="B227" t="s">
         <v>660</v>
       </c>
-      <c r="E227" t="b">
+      <c r="C227" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5731,7 +5872,7 @@
       <c r="B228" t="s">
         <v>660</v>
       </c>
-      <c r="E228" t="b">
+      <c r="C228" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5743,7 +5884,7 @@
       <c r="B229" t="s">
         <v>660</v>
       </c>
-      <c r="E229" t="b">
+      <c r="C229" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5755,7 +5896,7 @@
       <c r="B230" t="s">
         <v>660</v>
       </c>
-      <c r="E230" t="b">
+      <c r="C230" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5767,7 +5908,7 @@
       <c r="B231" t="s">
         <v>660</v>
       </c>
-      <c r="E231" t="b">
+      <c r="C231" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5779,7 +5920,7 @@
       <c r="B232" t="s">
         <v>660</v>
       </c>
-      <c r="E232" t="b">
+      <c r="C232" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5791,7 +5932,7 @@
       <c r="B233" t="s">
         <v>660</v>
       </c>
-      <c r="E233" t="b">
+      <c r="C233" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5803,7 +5944,7 @@
       <c r="B234" t="s">
         <v>660</v>
       </c>
-      <c r="E234" t="b">
+      <c r="C234" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5815,7 +5956,7 @@
       <c r="B235" t="s">
         <v>660</v>
       </c>
-      <c r="E235" t="b">
+      <c r="C235" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5827,7 +5968,7 @@
       <c r="B236" t="s">
         <v>660</v>
       </c>
-      <c r="E236" t="b">
+      <c r="C236" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5839,12 +5980,12 @@
       <c r="B237" t="s">
         <v>660</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D237" t="s">
         <v>785</v>
-      </c>
-      <c r="E237" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -5854,7 +5995,7 @@
       <c r="B238" t="s">
         <v>660</v>
       </c>
-      <c r="E238" t="b">
+      <c r="C238" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5866,7 +6007,7 @@
       <c r="B239" t="s">
         <v>660</v>
       </c>
-      <c r="E239" t="b">
+      <c r="C239" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5878,7 +6019,7 @@
       <c r="B240" t="s">
         <v>660</v>
       </c>
-      <c r="E240" t="b">
+      <c r="C240" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5890,7 +6031,7 @@
       <c r="B241" t="s">
         <v>660</v>
       </c>
-      <c r="E241" t="b">
+      <c r="C241" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5902,7 +6043,7 @@
       <c r="B242" t="s">
         <v>660</v>
       </c>
-      <c r="E242" t="b">
+      <c r="C242" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5914,7 +6055,7 @@
       <c r="B243" t="s">
         <v>660</v>
       </c>
-      <c r="E243" t="b">
+      <c r="C243" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5926,7 +6067,7 @@
       <c r="B244" t="s">
         <v>660</v>
       </c>
-      <c r="E244" t="b">
+      <c r="C244" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5938,7 +6079,7 @@
       <c r="B245" t="s">
         <v>660</v>
       </c>
-      <c r="E245" t="b">
+      <c r="C245" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -5950,12 +6091,12 @@
       <c r="B246" t="s">
         <v>660</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D246" t="s">
         <v>793</v>
-      </c>
-      <c r="E246" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
@@ -5965,15 +6106,15 @@
       <c r="B247" t="s">
         <v>660</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
         <v>794</v>
       </c>
-      <c r="D247" t="s">
+      <c r="E247" t="s">
         <v>795</v>
-      </c>
-      <c r="E247" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -5983,12 +6124,12 @@
       <c r="B248" t="s">
         <v>660</v>
       </c>
-      <c r="D248" t="s">
+      <c r="C248" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E248" t="s">
         <v>786</v>
-      </c>
-      <c r="E248" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -5998,7 +6139,7 @@
       <c r="B249" t="s">
         <v>660</v>
       </c>
-      <c r="E249" t="b">
+      <c r="C249" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6010,15 +6151,15 @@
       <c r="B250" t="s">
         <v>659</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D250" t="s">
         <v>673</v>
       </c>
-      <c r="D250" t="s">
+      <c r="E250" t="s">
         <v>674</v>
-      </c>
-      <c r="E250" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -6028,7 +6169,7 @@
       <c r="B251" t="s">
         <v>660</v>
       </c>
-      <c r="E251" t="b">
+      <c r="C251" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6040,7 +6181,7 @@
       <c r="B252" t="s">
         <v>660</v>
       </c>
-      <c r="E252" t="b">
+      <c r="C252" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6052,7 +6193,7 @@
       <c r="B253" t="s">
         <v>660</v>
       </c>
-      <c r="E253" t="b">
+      <c r="C253" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6064,7 +6205,7 @@
       <c r="B254" t="s">
         <v>660</v>
       </c>
-      <c r="E254" t="b">
+      <c r="C254" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6076,7 +6217,7 @@
       <c r="B255" t="s">
         <v>660</v>
       </c>
-      <c r="E255" t="b">
+      <c r="C255" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6088,7 +6229,7 @@
       <c r="B256" t="s">
         <v>660</v>
       </c>
-      <c r="E256" t="b">
+      <c r="C256" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6100,7 +6241,7 @@
       <c r="B257" t="s">
         <v>660</v>
       </c>
-      <c r="E257" t="b">
+      <c r="C257" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6112,7 +6253,7 @@
       <c r="B258" t="s">
         <v>660</v>
       </c>
-      <c r="E258" t="b">
+      <c r="C258" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6124,7 +6265,7 @@
       <c r="B259" t="s">
         <v>660</v>
       </c>
-      <c r="E259" t="b">
+      <c r="C259" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6136,7 +6277,7 @@
       <c r="B260" t="s">
         <v>660</v>
       </c>
-      <c r="E260" t="b">
+      <c r="C260" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6148,7 +6289,7 @@
       <c r="B261" t="s">
         <v>660</v>
       </c>
-      <c r="E261" t="b">
+      <c r="C261" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6160,7 +6301,7 @@
       <c r="B262" t="s">
         <v>660</v>
       </c>
-      <c r="E262" t="b">
+      <c r="C262" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6172,7 +6313,7 @@
       <c r="B263" t="s">
         <v>660</v>
       </c>
-      <c r="E263" t="b">
+      <c r="C263" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6184,15 +6325,15 @@
       <c r="B264" t="s">
         <v>660</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D264" t="s">
         <v>787</v>
       </c>
-      <c r="D264" t="s">
+      <c r="E264" t="s">
         <v>789</v>
-      </c>
-      <c r="E264" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -6202,7 +6343,7 @@
       <c r="B265" t="s">
         <v>660</v>
       </c>
-      <c r="E265" t="b">
+      <c r="C265" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6214,7 +6355,7 @@
       <c r="B266" t="s">
         <v>660</v>
       </c>
-      <c r="E266" t="b">
+      <c r="C266" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6226,7 +6367,7 @@
       <c r="B267" t="s">
         <v>660</v>
       </c>
-      <c r="E267" t="b">
+      <c r="C267" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6238,7 +6379,7 @@
       <c r="B268" t="s">
         <v>660</v>
       </c>
-      <c r="E268" t="b">
+      <c r="C268" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6250,7 +6391,7 @@
       <c r="B269" t="s">
         <v>660</v>
       </c>
-      <c r="E269" t="b">
+      <c r="C269" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6262,7 +6403,7 @@
       <c r="B270" t="s">
         <v>660</v>
       </c>
-      <c r="E270" t="b">
+      <c r="C270" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6274,7 +6415,7 @@
       <c r="B271" t="s">
         <v>660</v>
       </c>
-      <c r="E271" t="b">
+      <c r="C271" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6286,7 +6427,7 @@
       <c r="B272" t="s">
         <v>660</v>
       </c>
-      <c r="E272" t="b">
+      <c r="C272" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6298,7 +6439,7 @@
       <c r="B273" t="s">
         <v>660</v>
       </c>
-      <c r="E273" t="b">
+      <c r="C273" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6310,7 +6451,7 @@
       <c r="B274" t="s">
         <v>660</v>
       </c>
-      <c r="E274" t="b">
+      <c r="C274" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6322,7 +6463,7 @@
       <c r="B275" t="s">
         <v>659</v>
       </c>
-      <c r="E275" t="b">
+      <c r="C275" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6334,7 +6475,7 @@
       <c r="B276" t="s">
         <v>660</v>
       </c>
-      <c r="E276" t="b">
+      <c r="C276" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6346,7 +6487,7 @@
       <c r="B277" t="s">
         <v>660</v>
       </c>
-      <c r="E277" t="b">
+      <c r="C277" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6358,12 +6499,12 @@
       <c r="B278" t="s">
         <v>659</v>
       </c>
-      <c r="D278" t="s">
+      <c r="C278" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E278" t="s">
         <v>675</v>
-      </c>
-      <c r="E278" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -6373,12 +6514,12 @@
       <c r="B279" t="s">
         <v>660</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D279" t="s">
         <v>788</v>
-      </c>
-      <c r="E279" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -6388,15 +6529,15 @@
       <c r="B280" t="s">
         <v>659</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D280" t="s">
         <v>677</v>
       </c>
-      <c r="D280" t="s">
+      <c r="E280" t="s">
         <v>676</v>
-      </c>
-      <c r="E280" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -6406,7 +6547,7 @@
       <c r="B281" t="s">
         <v>660</v>
       </c>
-      <c r="E281" t="b">
+      <c r="C281" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6418,7 +6559,7 @@
       <c r="B282" t="s">
         <v>660</v>
       </c>
-      <c r="E282" t="b">
+      <c r="C282" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6430,7 +6571,7 @@
       <c r="B283" t="s">
         <v>660</v>
       </c>
-      <c r="E283" t="b">
+      <c r="C283" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6442,7 +6583,7 @@
       <c r="B284" t="s">
         <v>660</v>
       </c>
-      <c r="E284" t="b">
+      <c r="C284" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6454,7 +6595,7 @@
       <c r="B285" t="s">
         <v>660</v>
       </c>
-      <c r="E285" t="b">
+      <c r="C285" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6466,7 +6607,7 @@
       <c r="B286" t="s">
         <v>660</v>
       </c>
-      <c r="E286" t="b">
+      <c r="C286" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6478,12 +6619,12 @@
       <c r="B287" t="s">
         <v>659</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D287" t="s">
         <v>697</v>
-      </c>
-      <c r="E287" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -6493,391 +6634,391 @@
       <c r="B288" t="s">
         <v>660</v>
       </c>
-      <c r="E288" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C288" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>270</v>
       </c>
       <c r="B289" t="s">
         <v>660</v>
       </c>
-      <c r="E289" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C289" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>271</v>
       </c>
       <c r="B290" t="s">
         <v>660</v>
       </c>
-      <c r="E290" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C290" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>272</v>
       </c>
       <c r="B291" t="s">
         <v>660</v>
       </c>
-      <c r="E291" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C291" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>273</v>
       </c>
       <c r="B292" t="s">
         <v>660</v>
       </c>
-      <c r="E292" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C292" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>274</v>
       </c>
       <c r="B293" t="s">
         <v>660</v>
       </c>
-      <c r="E293" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C293" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>275</v>
       </c>
       <c r="B294" t="s">
         <v>660</v>
       </c>
-      <c r="E294" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C294" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>635</v>
       </c>
       <c r="B295" t="s">
         <v>660</v>
       </c>
-      <c r="E295" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C295" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>276</v>
       </c>
       <c r="B296" t="s">
         <v>660</v>
       </c>
-      <c r="E296" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C296" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>277</v>
       </c>
       <c r="B297" t="s">
         <v>660</v>
       </c>
-      <c r="E297" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C297" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>278</v>
       </c>
       <c r="B298" t="s">
         <v>660</v>
       </c>
-      <c r="E298" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C298" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>279</v>
       </c>
       <c r="B299" t="s">
         <v>660</v>
       </c>
-      <c r="E299" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C299" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>280</v>
       </c>
       <c r="B300" t="s">
         <v>660</v>
       </c>
-      <c r="E300" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C300" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>281</v>
       </c>
       <c r="B301" t="s">
         <v>660</v>
       </c>
-      <c r="E301" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C301" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>282</v>
       </c>
       <c r="B302" t="s">
         <v>660</v>
       </c>
-      <c r="E302" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C302" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>283</v>
       </c>
       <c r="B303" t="s">
         <v>660</v>
       </c>
-      <c r="E303" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C303" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>284</v>
       </c>
       <c r="B304" t="s">
         <v>660</v>
       </c>
-      <c r="E304" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C304" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>636</v>
       </c>
       <c r="B305" t="s">
         <v>660</v>
       </c>
-      <c r="E305" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C305" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>285</v>
       </c>
       <c r="B306" t="s">
         <v>660</v>
       </c>
-      <c r="E306" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C306" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>286</v>
       </c>
       <c r="B307" t="s">
         <v>660</v>
       </c>
-      <c r="E307" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C307" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>287</v>
       </c>
       <c r="B308" t="s">
         <v>660</v>
       </c>
-      <c r="E308" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C308" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>637</v>
       </c>
       <c r="B309" t="s">
         <v>660</v>
       </c>
-      <c r="E309" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C309" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>288</v>
       </c>
       <c r="B310" t="s">
         <v>660</v>
       </c>
-      <c r="E310" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C310" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>289</v>
       </c>
       <c r="B311" t="s">
         <v>660</v>
       </c>
-      <c r="E311" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C311" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>290</v>
       </c>
       <c r="B312" t="s">
         <v>660</v>
       </c>
-      <c r="E312" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C312" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>291</v>
       </c>
       <c r="B313" t="s">
         <v>660</v>
       </c>
-      <c r="E313" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C313" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>292</v>
       </c>
       <c r="B314" t="s">
         <v>660</v>
       </c>
-      <c r="E314" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C314" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>293</v>
       </c>
       <c r="B315" t="s">
         <v>660</v>
       </c>
-      <c r="E315" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C315" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>294</v>
       </c>
       <c r="B316" t="s">
         <v>660</v>
       </c>
-      <c r="E316" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C316" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>295</v>
       </c>
       <c r="B317" t="s">
         <v>660</v>
       </c>
-      <c r="E317" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C317" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>296</v>
       </c>
       <c r="B318" t="s">
         <v>660</v>
       </c>
-      <c r="E318" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C318" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>297</v>
       </c>
       <c r="B319" t="s">
         <v>660</v>
       </c>
-      <c r="E319" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C319" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>298</v>
       </c>
       <c r="B320" t="s">
         <v>660</v>
       </c>
-      <c r="E320" t="b">
+      <c r="C320" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6889,7 +7030,7 @@
       <c r="B321" t="s">
         <v>660</v>
       </c>
-      <c r="E321" t="b">
+      <c r="C321" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6901,7 +7042,7 @@
       <c r="B322" t="s">
         <v>660</v>
       </c>
-      <c r="E322" t="b">
+      <c r="C322" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6913,7 +7054,7 @@
       <c r="B323" t="s">
         <v>660</v>
       </c>
-      <c r="E323" t="b">
+      <c r="C323" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6925,7 +7066,7 @@
       <c r="B324" t="s">
         <v>660</v>
       </c>
-      <c r="E324" t="b">
+      <c r="C324" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6937,7 +7078,7 @@
       <c r="B325" t="s">
         <v>660</v>
       </c>
-      <c r="E325" t="b">
+      <c r="C325" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6949,7 +7090,7 @@
       <c r="B326" t="s">
         <v>660</v>
       </c>
-      <c r="E326" t="b">
+      <c r="C326" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6961,7 +7102,7 @@
       <c r="B327" t="s">
         <v>660</v>
       </c>
-      <c r="E327" t="b">
+      <c r="C327" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6973,7 +7114,7 @@
       <c r="B328" t="s">
         <v>660</v>
       </c>
-      <c r="E328" t="b">
+      <c r="C328" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6985,7 +7126,7 @@
       <c r="B329" t="s">
         <v>660</v>
       </c>
-      <c r="E329" t="b">
+      <c r="C329" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -6997,7 +7138,7 @@
       <c r="B330" t="s">
         <v>660</v>
       </c>
-      <c r="E330" t="b">
+      <c r="C330" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7009,7 +7150,7 @@
       <c r="B331" t="s">
         <v>660</v>
       </c>
-      <c r="E331" t="b">
+      <c r="C331" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7021,15 +7162,15 @@
       <c r="B332" t="s">
         <v>660</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C332" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D332" t="s">
         <v>790</v>
       </c>
-      <c r="D332" t="s">
+      <c r="E332" t="s">
         <v>792</v>
-      </c>
-      <c r="E332" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
@@ -7039,7 +7180,7 @@
       <c r="B333" t="s">
         <v>660</v>
       </c>
-      <c r="E333" t="b">
+      <c r="C333" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7051,7 +7192,7 @@
       <c r="B334" t="s">
         <v>660</v>
       </c>
-      <c r="E334" t="b">
+      <c r="C334" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7063,12 +7204,12 @@
       <c r="B335" t="s">
         <v>660</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C335" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D335" t="s">
         <v>791</v>
-      </c>
-      <c r="E335" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -7078,583 +7219,583 @@
       <c r="B336" t="s">
         <v>660</v>
       </c>
-      <c r="E336" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C336" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>640</v>
       </c>
       <c r="B337" t="s">
         <v>660</v>
       </c>
-      <c r="E337" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C337" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>312</v>
       </c>
       <c r="B338" t="s">
         <v>660</v>
       </c>
-      <c r="E338" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C338" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>313</v>
       </c>
       <c r="B339" t="s">
         <v>660</v>
       </c>
-      <c r="E339" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C339" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>314</v>
       </c>
       <c r="B340" t="s">
         <v>660</v>
       </c>
-      <c r="E340" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C340" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>315</v>
       </c>
       <c r="B341" t="s">
         <v>660</v>
       </c>
-      <c r="E341" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C341" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>316</v>
       </c>
       <c r="B342" t="s">
         <v>660</v>
       </c>
-      <c r="E342" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C342" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>641</v>
       </c>
       <c r="B343" t="s">
         <v>660</v>
       </c>
-      <c r="E343" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C343" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>317</v>
       </c>
       <c r="B344" t="s">
         <v>660</v>
       </c>
-      <c r="E344" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C344" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>318</v>
       </c>
       <c r="B345" t="s">
         <v>659</v>
       </c>
-      <c r="E345" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C345" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>319</v>
       </c>
       <c r="B346" t="s">
         <v>660</v>
       </c>
-      <c r="E346" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C346" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>320</v>
       </c>
       <c r="B347" t="s">
         <v>660</v>
       </c>
-      <c r="E347" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C347" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>321</v>
       </c>
       <c r="B348" t="s">
         <v>660</v>
       </c>
-      <c r="E348" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C348" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>322</v>
       </c>
       <c r="B349" t="s">
         <v>660</v>
       </c>
-      <c r="E349" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C349" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>642</v>
       </c>
       <c r="B350" t="s">
         <v>660</v>
       </c>
-      <c r="E350" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C350" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>323</v>
       </c>
       <c r="B351" t="s">
         <v>660</v>
       </c>
-      <c r="E351" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C351" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>324</v>
       </c>
       <c r="B352" t="s">
         <v>660</v>
       </c>
-      <c r="E352" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C352" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>643</v>
       </c>
       <c r="B353" t="s">
         <v>660</v>
       </c>
-      <c r="E353" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C353" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>325</v>
       </c>
       <c r="B354" t="s">
         <v>660</v>
       </c>
-      <c r="E354" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C354" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>326</v>
       </c>
       <c r="B355" t="s">
         <v>660</v>
       </c>
-      <c r="E355" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C355" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>327</v>
       </c>
       <c r="B356" t="s">
         <v>660</v>
       </c>
-      <c r="E356" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C356" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>644</v>
       </c>
       <c r="B357" t="s">
         <v>660</v>
       </c>
-      <c r="E357" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C357" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>328</v>
       </c>
       <c r="B358" t="s">
         <v>660</v>
       </c>
-      <c r="E358" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C358" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>329</v>
       </c>
       <c r="B359" t="s">
         <v>660</v>
       </c>
-      <c r="E359" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C359" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>330</v>
       </c>
       <c r="B360" t="s">
         <v>660</v>
       </c>
-      <c r="E360" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C360" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>331</v>
       </c>
       <c r="B361" t="s">
         <v>660</v>
       </c>
-      <c r="E361" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C361" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>332</v>
       </c>
       <c r="B362" t="s">
         <v>660</v>
       </c>
-      <c r="E362" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C362" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>333</v>
       </c>
       <c r="B363" t="s">
         <v>660</v>
       </c>
-      <c r="E363" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C363" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>334</v>
       </c>
       <c r="B364" t="s">
         <v>660</v>
       </c>
-      <c r="E364" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C364" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>335</v>
       </c>
       <c r="B365" t="s">
         <v>660</v>
       </c>
-      <c r="E365" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C365" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>336</v>
       </c>
       <c r="B366" t="s">
         <v>660</v>
       </c>
-      <c r="E366" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C366" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>337</v>
       </c>
       <c r="B367" t="s">
         <v>660</v>
       </c>
-      <c r="E367" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C367" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>338</v>
       </c>
       <c r="B368" t="s">
         <v>660</v>
       </c>
-      <c r="E368" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C368" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>339</v>
       </c>
       <c r="B369" t="s">
         <v>659</v>
       </c>
-      <c r="E369" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C369" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>340</v>
       </c>
       <c r="B370" t="s">
         <v>659</v>
       </c>
-      <c r="E370" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C370" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>341</v>
       </c>
       <c r="B371" t="s">
         <v>659</v>
       </c>
-      <c r="E371" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C371" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>342</v>
       </c>
       <c r="B372" t="s">
         <v>660</v>
       </c>
-      <c r="E372" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C372" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>343</v>
       </c>
       <c r="B373" t="s">
         <v>659</v>
       </c>
-      <c r="E373" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C373" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>344</v>
       </c>
       <c r="B374" t="s">
         <v>659</v>
       </c>
-      <c r="E374" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C374" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>345</v>
       </c>
       <c r="B375" t="s">
         <v>660</v>
       </c>
-      <c r="E375" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C375" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>346</v>
       </c>
       <c r="B376" t="s">
         <v>659</v>
       </c>
-      <c r="E376" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C376" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>347</v>
       </c>
       <c r="B377" t="s">
         <v>660</v>
       </c>
-      <c r="E377" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C377" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>348</v>
       </c>
       <c r="B378" t="s">
         <v>660</v>
       </c>
-      <c r="E378" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C378" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>349</v>
       </c>
       <c r="B379" t="s">
         <v>660</v>
       </c>
-      <c r="E379" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C379" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>350</v>
       </c>
       <c r="B380" t="s">
         <v>660</v>
       </c>
-      <c r="E380" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C380" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>351</v>
       </c>
       <c r="B381" t="s">
         <v>660</v>
       </c>
-      <c r="E381" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C381" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>352</v>
       </c>
       <c r="B382" t="s">
         <v>660</v>
       </c>
-      <c r="E382" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C382" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>353</v>
       </c>
       <c r="B383" t="s">
         <v>659</v>
       </c>
-      <c r="E383" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C383" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>354</v>
       </c>
       <c r="B384" t="s">
         <v>660</v>
       </c>
-      <c r="E384" t="b">
+      <c r="C384" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7666,12 +7807,12 @@
       <c r="B385" t="s">
         <v>659</v>
       </c>
-      <c r="D385" t="s">
+      <c r="C385" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E385" t="s">
         <v>698</v>
-      </c>
-      <c r="E385" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
@@ -7681,7 +7822,7 @@
       <c r="B386" t="s">
         <v>659</v>
       </c>
-      <c r="E386" t="b">
+      <c r="C386" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7693,7 +7834,7 @@
       <c r="B387" t="s">
         <v>659</v>
       </c>
-      <c r="E387" t="b">
+      <c r="C387" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7705,7 +7846,7 @@
       <c r="B388" t="s">
         <v>660</v>
       </c>
-      <c r="E388" t="b">
+      <c r="C388" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7717,7 +7858,7 @@
       <c r="B389" t="s">
         <v>660</v>
       </c>
-      <c r="E389" t="b">
+      <c r="C389" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7729,7 +7870,7 @@
       <c r="B390" t="s">
         <v>660</v>
       </c>
-      <c r="E390" t="b">
+      <c r="C390" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7741,7 +7882,7 @@
       <c r="B391" t="s">
         <v>659</v>
       </c>
-      <c r="E391" t="b">
+      <c r="C391" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7753,9 +7894,12 @@
       <c r="B392" t="s">
         <v>660</v>
       </c>
-      <c r="E392" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C392" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E392" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
@@ -7765,7 +7909,7 @@
       <c r="B393" t="s">
         <v>660</v>
       </c>
-      <c r="E393" t="b">
+      <c r="C393" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7777,7 +7921,7 @@
       <c r="B394" t="s">
         <v>660</v>
       </c>
-      <c r="E394" t="b">
+      <c r="C394" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7789,7 +7933,7 @@
       <c r="B395" t="s">
         <v>659</v>
       </c>
-      <c r="E395" t="b">
+      <c r="C395" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7801,7 +7945,7 @@
       <c r="B396" t="s">
         <v>660</v>
       </c>
-      <c r="E396" t="b">
+      <c r="C396" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7813,7 +7957,7 @@
       <c r="B397" t="s">
         <v>660</v>
       </c>
-      <c r="E397" t="b">
+      <c r="C397" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7825,7 +7969,7 @@
       <c r="B398" t="s">
         <v>660</v>
       </c>
-      <c r="E398" t="b">
+      <c r="C398" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7837,7 +7981,7 @@
       <c r="B399" t="s">
         <v>660</v>
       </c>
-      <c r="E399" t="b">
+      <c r="C399" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7849,7 +7993,7 @@
       <c r="B400" t="s">
         <v>660</v>
       </c>
-      <c r="E400" t="b">
+      <c r="C400" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7861,7 +8005,7 @@
       <c r="B401" t="s">
         <v>660</v>
       </c>
-      <c r="E401" t="b">
+      <c r="C401" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7873,7 +8017,7 @@
       <c r="B402" t="s">
         <v>660</v>
       </c>
-      <c r="E402" t="b">
+      <c r="C402" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7885,7 +8029,7 @@
       <c r="B403" t="s">
         <v>659</v>
       </c>
-      <c r="E403" t="b">
+      <c r="C403" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7897,7 +8041,7 @@
       <c r="B404" t="s">
         <v>660</v>
       </c>
-      <c r="E404" t="b">
+      <c r="C404" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7909,7 +8053,7 @@
       <c r="B405" t="s">
         <v>660</v>
       </c>
-      <c r="E405" t="b">
+      <c r="C405" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7921,7 +8065,7 @@
       <c r="B406" t="s">
         <v>660</v>
       </c>
-      <c r="E406" t="b">
+      <c r="C406" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7933,7 +8077,7 @@
       <c r="B407" t="s">
         <v>660</v>
       </c>
-      <c r="E407" t="b">
+      <c r="C407" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7945,7 +8089,7 @@
       <c r="B408" t="s">
         <v>660</v>
       </c>
-      <c r="E408" t="b">
+      <c r="C408" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7957,7 +8101,7 @@
       <c r="B409" t="s">
         <v>660</v>
       </c>
-      <c r="E409" t="b">
+      <c r="C409" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7969,9 +8113,12 @@
       <c r="B410" t="s">
         <v>660</v>
       </c>
-      <c r="E410" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C410" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E410" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
@@ -7981,7 +8128,7 @@
       <c r="B411" t="s">
         <v>660</v>
       </c>
-      <c r="E411" t="b">
+      <c r="C411" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -7993,7 +8140,7 @@
       <c r="B412" t="s">
         <v>660</v>
       </c>
-      <c r="E412" t="b">
+      <c r="C412" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8005,7 +8152,7 @@
       <c r="B413" t="s">
         <v>659</v>
       </c>
-      <c r="E413" t="b">
+      <c r="C413" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8017,7 +8164,7 @@
       <c r="B414" t="s">
         <v>660</v>
       </c>
-      <c r="E414" t="b">
+      <c r="C414" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8029,7 +8176,7 @@
       <c r="B415" t="s">
         <v>660</v>
       </c>
-      <c r="E415" t="b">
+      <c r="C415" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8041,199 +8188,205 @@
       <c r="B416" t="s">
         <v>660</v>
       </c>
-      <c r="E416" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C416" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>386</v>
       </c>
       <c r="B417" t="s">
         <v>660</v>
       </c>
-      <c r="E417" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C417" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D417" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>387</v>
       </c>
       <c r="B418" t="s">
         <v>660</v>
       </c>
-      <c r="E418" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C418" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>388</v>
       </c>
       <c r="B419" t="s">
         <v>660</v>
       </c>
-      <c r="E419" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C419" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>389</v>
       </c>
       <c r="B420" t="s">
         <v>659</v>
       </c>
-      <c r="E420" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C420" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>390</v>
       </c>
       <c r="B421" t="s">
         <v>660</v>
       </c>
-      <c r="E421" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C421" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>391</v>
       </c>
       <c r="B422" t="s">
         <v>660</v>
       </c>
-      <c r="E422" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C422" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>392</v>
       </c>
       <c r="B423" t="s">
         <v>659</v>
       </c>
-      <c r="E423" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C423" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>393</v>
       </c>
       <c r="B424" t="s">
         <v>659</v>
       </c>
-      <c r="E424" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C424" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>646</v>
       </c>
       <c r="B425" t="s">
         <v>660</v>
       </c>
-      <c r="E425" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C425" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>394</v>
       </c>
       <c r="B426" t="s">
         <v>660</v>
       </c>
-      <c r="E426" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C426" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D426" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>395</v>
       </c>
       <c r="B427" t="s">
         <v>660</v>
       </c>
-      <c r="E427" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C427" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>396</v>
       </c>
       <c r="B428" t="s">
         <v>660</v>
       </c>
-      <c r="E428" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C428" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>397</v>
       </c>
       <c r="B429" t="s">
         <v>660</v>
       </c>
-      <c r="E429" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C429" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>647</v>
       </c>
       <c r="B430" t="s">
         <v>659</v>
       </c>
-      <c r="E430" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C430" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>398</v>
       </c>
       <c r="B431" t="s">
         <v>660</v>
       </c>
-      <c r="E431" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C431" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>399</v>
       </c>
       <c r="B432" t="s">
         <v>660</v>
       </c>
-      <c r="E432" t="b">
+      <c r="C432" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8245,7 +8398,7 @@
       <c r="B433" t="s">
         <v>659</v>
       </c>
-      <c r="E433" t="b">
+      <c r="C433" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8257,9 +8410,15 @@
       <c r="B434" t="s">
         <v>660</v>
       </c>
-      <c r="E434" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C434" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D434" t="s">
+        <v>800</v>
+      </c>
+      <c r="E434" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
@@ -8269,9 +8428,12 @@
       <c r="B435" t="s">
         <v>660</v>
       </c>
-      <c r="E435" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C435" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D435" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
@@ -8281,9 +8443,15 @@
       <c r="B436" t="s">
         <v>660</v>
       </c>
-      <c r="E436" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C436" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D436" t="s">
+        <v>802</v>
+      </c>
+      <c r="E436" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
@@ -8293,7 +8461,7 @@
       <c r="B437" t="s">
         <v>660</v>
       </c>
-      <c r="E437" t="b">
+      <c r="C437" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8305,15 +8473,15 @@
       <c r="B438" t="s">
         <v>659</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C438" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D438" t="s">
         <v>700</v>
       </c>
-      <c r="D438" t="s">
+      <c r="E438" t="s">
         <v>699</v>
-      </c>
-      <c r="E438" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
@@ -8323,7 +8491,7 @@
       <c r="B439" t="s">
         <v>660</v>
       </c>
-      <c r="E439" t="b">
+      <c r="C439" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8335,7 +8503,7 @@
       <c r="B440" t="s">
         <v>660</v>
       </c>
-      <c r="E440" t="b">
+      <c r="C440" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8347,7 +8515,7 @@
       <c r="B441" t="s">
         <v>659</v>
       </c>
-      <c r="E441" t="b">
+      <c r="C441" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8359,7 +8527,7 @@
       <c r="B442" t="s">
         <v>660</v>
       </c>
-      <c r="E442" t="b">
+      <c r="C442" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8371,7 +8539,7 @@
       <c r="B443" t="s">
         <v>660</v>
       </c>
-      <c r="E443" t="b">
+      <c r="C443" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8383,9 +8551,12 @@
       <c r="B444" t="s">
         <v>660</v>
       </c>
-      <c r="E444" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C444" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E444" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
@@ -8395,7 +8566,7 @@
       <c r="B445" t="s">
         <v>660</v>
       </c>
-      <c r="E445" t="b">
+      <c r="C445" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8407,7 +8578,7 @@
       <c r="B446" t="s">
         <v>660</v>
       </c>
-      <c r="E446" t="b">
+      <c r="C446" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8419,7 +8590,7 @@
       <c r="B447" t="s">
         <v>660</v>
       </c>
-      <c r="E447" t="b">
+      <c r="C447" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8431,7 +8602,7 @@
       <c r="B448" t="s">
         <v>659</v>
       </c>
-      <c r="E448" t="b">
+      <c r="C448" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8443,7 +8614,7 @@
       <c r="B449" t="s">
         <v>660</v>
       </c>
-      <c r="E449" t="b">
+      <c r="C449" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8455,7 +8626,7 @@
       <c r="B450" t="s">
         <v>660</v>
       </c>
-      <c r="E450" t="b">
+      <c r="C450" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8467,7 +8638,7 @@
       <c r="B451" t="s">
         <v>660</v>
       </c>
-      <c r="E451" t="b">
+      <c r="C451" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8479,7 +8650,7 @@
       <c r="B452" t="s">
         <v>659</v>
       </c>
-      <c r="E452" t="b">
+      <c r="C452" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8491,7 +8662,7 @@
       <c r="B453" t="s">
         <v>660</v>
       </c>
-      <c r="E453" t="b">
+      <c r="C453" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8503,9 +8674,12 @@
       <c r="B454" t="s">
         <v>660</v>
       </c>
-      <c r="E454" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C454" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E454" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
@@ -8515,12 +8689,12 @@
       <c r="B455" t="s">
         <v>659</v>
       </c>
-      <c r="C455" t="s">
+      <c r="C455" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D455" t="s">
         <v>701</v>
-      </c>
-      <c r="E455" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
@@ -8530,7 +8704,7 @@
       <c r="B456" t="s">
         <v>659</v>
       </c>
-      <c r="E456" t="b">
+      <c r="C456" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8542,15 +8716,15 @@
       <c r="B457" t="s">
         <v>659</v>
       </c>
-      <c r="C457" t="s">
+      <c r="C457" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D457" t="s">
         <v>702</v>
       </c>
-      <c r="D457" t="s">
+      <c r="E457" t="s">
         <v>704</v>
-      </c>
-      <c r="E457" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
@@ -8560,12 +8734,12 @@
       <c r="B458" t="s">
         <v>659</v>
       </c>
-      <c r="D458" t="s">
+      <c r="C458" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E458" t="s">
         <v>705</v>
-      </c>
-      <c r="E458" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
@@ -8575,7 +8749,7 @@
       <c r="B459" t="s">
         <v>660</v>
       </c>
-      <c r="E459" t="b">
+      <c r="C459" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8587,7 +8761,7 @@
       <c r="B460" t="s">
         <v>660</v>
       </c>
-      <c r="E460" t="b">
+      <c r="C460" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8599,7 +8773,7 @@
       <c r="B461" t="s">
         <v>660</v>
       </c>
-      <c r="E461" t="b">
+      <c r="C461" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8611,7 +8785,7 @@
       <c r="B462" t="s">
         <v>660</v>
       </c>
-      <c r="E462" t="b">
+      <c r="C462" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8623,7 +8797,7 @@
       <c r="B463" t="s">
         <v>660</v>
       </c>
-      <c r="E463" t="b">
+      <c r="C463" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8635,15 +8809,15 @@
       <c r="B464" t="s">
         <v>659</v>
       </c>
-      <c r="C464" t="s">
+      <c r="C464" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D464" t="s">
         <v>703</v>
       </c>
-      <c r="D464" t="s">
+      <c r="E464" t="s">
         <v>706</v>
-      </c>
-      <c r="E464" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.3">
@@ -8653,7 +8827,7 @@
       <c r="B465" t="s">
         <v>659</v>
       </c>
-      <c r="E465" t="b">
+      <c r="C465" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8665,7 +8839,7 @@
       <c r="B466" t="s">
         <v>659</v>
       </c>
-      <c r="E466" t="b">
+      <c r="C466" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8677,7 +8851,7 @@
       <c r="B467" t="s">
         <v>660</v>
       </c>
-      <c r="E467" t="b">
+      <c r="C467" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8689,7 +8863,7 @@
       <c r="B468" t="s">
         <v>660</v>
       </c>
-      <c r="E468" t="b">
+      <c r="C468" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8701,12 +8875,12 @@
       <c r="B469" t="s">
         <v>659</v>
       </c>
-      <c r="D469" t="s">
+      <c r="C469" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E469" t="s">
         <v>707</v>
-      </c>
-      <c r="E469" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
@@ -8716,7 +8890,7 @@
       <c r="B470" t="s">
         <v>659</v>
       </c>
-      <c r="E470" t="b">
+      <c r="C470" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8728,12 +8902,12 @@
       <c r="B471" t="s">
         <v>659</v>
       </c>
-      <c r="D471" t="s">
+      <c r="C471" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E471" t="s">
         <v>708</v>
-      </c>
-      <c r="E471" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
@@ -8743,7 +8917,7 @@
       <c r="B472" t="s">
         <v>659</v>
       </c>
-      <c r="E472" t="b">
+      <c r="C472" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8755,15 +8929,15 @@
       <c r="B473" t="s">
         <v>659</v>
       </c>
-      <c r="C473" t="s">
+      <c r="C473" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D473" t="s">
         <v>714</v>
       </c>
-      <c r="D473" t="s">
+      <c r="E473" t="s">
         <v>709</v>
-      </c>
-      <c r="E473" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
@@ -8773,7 +8947,7 @@
       <c r="B474" t="s">
         <v>659</v>
       </c>
-      <c r="E474" t="b">
+      <c r="C474" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8785,7 +8959,7 @@
       <c r="B475" t="s">
         <v>659</v>
       </c>
-      <c r="E475" t="b">
+      <c r="C475" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8797,12 +8971,12 @@
       <c r="B476" t="s">
         <v>659</v>
       </c>
-      <c r="D476" t="s">
+      <c r="C476" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E476" t="s">
         <v>710</v>
-      </c>
-      <c r="E476" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
@@ -8812,12 +8986,12 @@
       <c r="B477" t="s">
         <v>659</v>
       </c>
-      <c r="C477" t="s">
+      <c r="C477" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D477" t="s">
         <v>715</v>
-      </c>
-      <c r="E477" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.3">
@@ -8827,12 +9001,12 @@
       <c r="B478" t="s">
         <v>659</v>
       </c>
-      <c r="D478" t="s">
+      <c r="C478" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E478" t="s">
         <v>711</v>
-      </c>
-      <c r="E478" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
@@ -8842,7 +9016,7 @@
       <c r="B479" t="s">
         <v>660</v>
       </c>
-      <c r="E479" t="b">
+      <c r="C479" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8854,7 +9028,7 @@
       <c r="B480" t="s">
         <v>660</v>
       </c>
-      <c r="E480" t="b">
+      <c r="C480" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8866,7 +9040,7 @@
       <c r="B481" t="s">
         <v>659</v>
       </c>
-      <c r="E481" t="b">
+      <c r="C481" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8878,7 +9052,7 @@
       <c r="B482" t="s">
         <v>660</v>
       </c>
-      <c r="E482" t="b">
+      <c r="C482" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8890,12 +9064,12 @@
       <c r="B483" t="s">
         <v>659</v>
       </c>
-      <c r="C483" t="s">
+      <c r="C483" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D483" t="s">
         <v>716</v>
-      </c>
-      <c r="E483" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
@@ -8905,7 +9079,7 @@
       <c r="B484" t="s">
         <v>660</v>
       </c>
-      <c r="E484" t="b">
+      <c r="C484" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8917,7 +9091,7 @@
       <c r="B485" t="s">
         <v>659</v>
       </c>
-      <c r="E485" t="b">
+      <c r="C485" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8929,15 +9103,15 @@
       <c r="B486" t="s">
         <v>659</v>
       </c>
-      <c r="C486" t="s">
+      <c r="C486" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D486" t="s">
         <v>717</v>
       </c>
-      <c r="D486" t="s">
+      <c r="E486" t="s">
         <v>712</v>
-      </c>
-      <c r="E486" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
@@ -8947,15 +9121,15 @@
       <c r="B487" t="s">
         <v>659</v>
       </c>
-      <c r="C487" t="s">
+      <c r="C487" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D487" t="s">
         <v>718</v>
       </c>
-      <c r="D487" t="s">
+      <c r="E487" t="s">
         <v>713</v>
-      </c>
-      <c r="E487" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
@@ -8965,7 +9139,7 @@
       <c r="B488" t="s">
         <v>659</v>
       </c>
-      <c r="E488" t="b">
+      <c r="C488" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -8977,15 +9151,15 @@
       <c r="B489" t="s">
         <v>659</v>
       </c>
-      <c r="C489" t="s">
+      <c r="C489" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D489" t="s">
         <v>720</v>
       </c>
-      <c r="D489" t="s">
+      <c r="E489" t="s">
         <v>721</v>
-      </c>
-      <c r="E489" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
@@ -8995,15 +9169,15 @@
       <c r="B490" t="s">
         <v>659</v>
       </c>
-      <c r="C490" t="s">
+      <c r="C490" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D490" t="s">
         <v>722</v>
       </c>
-      <c r="D490" t="s">
+      <c r="E490" t="s">
         <v>729</v>
-      </c>
-      <c r="E490" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
@@ -9013,7 +9187,7 @@
       <c r="B491" t="s">
         <v>659</v>
       </c>
-      <c r="E491" t="b">
+      <c r="C491" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9025,7 +9199,7 @@
       <c r="B492" t="s">
         <v>660</v>
       </c>
-      <c r="E492" t="b">
+      <c r="C492" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9037,7 +9211,7 @@
       <c r="B493" t="s">
         <v>660</v>
       </c>
-      <c r="E493" t="b">
+      <c r="C493" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9049,7 +9223,7 @@
       <c r="B494" t="s">
         <v>659</v>
       </c>
-      <c r="E494" t="b">
+      <c r="C494" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9061,7 +9235,7 @@
       <c r="B495" t="s">
         <v>659</v>
       </c>
-      <c r="E495" t="b">
+      <c r="C495" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9073,7 +9247,7 @@
       <c r="B496" t="s">
         <v>660</v>
       </c>
-      <c r="E496" t="b">
+      <c r="C496" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9085,7 +9259,7 @@
       <c r="B497" t="s">
         <v>660</v>
       </c>
-      <c r="E497" t="b">
+      <c r="C497" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9097,7 +9271,7 @@
       <c r="B498" t="s">
         <v>660</v>
       </c>
-      <c r="E498" t="b">
+      <c r="C498" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9109,7 +9283,7 @@
       <c r="B499" t="s">
         <v>660</v>
       </c>
-      <c r="E499" t="b">
+      <c r="C499" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9121,7 +9295,7 @@
       <c r="B500" t="s">
         <v>660</v>
       </c>
-      <c r="E500" t="b">
+      <c r="C500" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9133,7 +9307,7 @@
       <c r="B501" t="s">
         <v>659</v>
       </c>
-      <c r="E501" t="b">
+      <c r="C501" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9145,7 +9319,7 @@
       <c r="B502" t="s">
         <v>659</v>
       </c>
-      <c r="E502" t="b">
+      <c r="C502" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9157,7 +9331,7 @@
       <c r="B503" t="s">
         <v>659</v>
       </c>
-      <c r="E503" t="b">
+      <c r="C503" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9169,12 +9343,12 @@
       <c r="B504" t="s">
         <v>659</v>
       </c>
-      <c r="C504" t="s">
+      <c r="C504" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D504" t="s">
         <v>723</v>
-      </c>
-      <c r="E504" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
@@ -9184,7 +9358,7 @@
       <c r="B505" t="s">
         <v>659</v>
       </c>
-      <c r="E505" t="b">
+      <c r="C505" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9196,9 +9370,15 @@
       <c r="B506" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="E506" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C506" s="2" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D506" t="s">
+        <v>804</v>
+      </c>
+      <c r="E506" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
@@ -9208,9 +9388,15 @@
       <c r="B507" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="E507" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C507" s="2" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D507" t="s">
+        <v>805</v>
+      </c>
+      <c r="E507" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
@@ -9220,7 +9406,7 @@
       <c r="B508" t="s">
         <v>659</v>
       </c>
-      <c r="E508" t="b">
+      <c r="C508" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9232,15 +9418,15 @@
       <c r="B509" t="s">
         <v>659</v>
       </c>
-      <c r="C509" t="s">
+      <c r="C509" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D509" t="s">
         <v>724</v>
       </c>
-      <c r="D509" t="s">
+      <c r="E509" t="s">
         <v>730</v>
-      </c>
-      <c r="E509" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
@@ -9250,7 +9436,7 @@
       <c r="B510" t="s">
         <v>660</v>
       </c>
-      <c r="E510" t="b">
+      <c r="C510" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9262,7 +9448,7 @@
       <c r="B511" t="s">
         <v>660</v>
       </c>
-      <c r="E511" t="b">
+      <c r="C511" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9274,12 +9460,12 @@
       <c r="B512" t="s">
         <v>659</v>
       </c>
-      <c r="C512" t="s">
+      <c r="C512" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D512" t="s">
         <v>725</v>
-      </c>
-      <c r="E512" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
@@ -9289,12 +9475,12 @@
       <c r="B513" t="s">
         <v>659</v>
       </c>
-      <c r="D513" t="s">
+      <c r="C513" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E513" t="s">
         <v>731</v>
-      </c>
-      <c r="E513" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
@@ -9304,9 +9490,12 @@
       <c r="B514" t="s">
         <v>660</v>
       </c>
-      <c r="E514" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C514" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E514" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
@@ -9316,7 +9505,7 @@
       <c r="B515" t="s">
         <v>660</v>
       </c>
-      <c r="E515" t="b">
+      <c r="C515" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9328,7 +9517,7 @@
       <c r="B516" t="s">
         <v>660</v>
       </c>
-      <c r="E516" t="b">
+      <c r="C516" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9340,7 +9529,7 @@
       <c r="B517" t="s">
         <v>660</v>
       </c>
-      <c r="E517" t="b">
+      <c r="C517" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9352,7 +9541,7 @@
       <c r="B518" t="s">
         <v>660</v>
       </c>
-      <c r="E518" t="b">
+      <c r="C518" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9364,7 +9553,7 @@
       <c r="B519" t="s">
         <v>659</v>
       </c>
-      <c r="E519" t="b">
+      <c r="C519" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9376,7 +9565,7 @@
       <c r="B520" t="s">
         <v>660</v>
       </c>
-      <c r="E520" t="b">
+      <c r="C520" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9388,7 +9577,7 @@
       <c r="B521" t="s">
         <v>660</v>
       </c>
-      <c r="E521" t="b">
+      <c r="C521" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9400,7 +9589,7 @@
       <c r="B522" t="s">
         <v>659</v>
       </c>
-      <c r="E522" t="b">
+      <c r="C522" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9412,12 +9601,12 @@
       <c r="B523" t="s">
         <v>659</v>
       </c>
-      <c r="C523" t="s">
+      <c r="C523" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D523" t="s">
         <v>726</v>
-      </c>
-      <c r="E523" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.3">
@@ -9427,12 +9616,12 @@
       <c r="B524" t="s">
         <v>659</v>
       </c>
-      <c r="C524" t="s">
+      <c r="C524" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D524" t="s">
         <v>727</v>
-      </c>
-      <c r="E524" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.3">
@@ -9442,12 +9631,12 @@
       <c r="B525" t="s">
         <v>659</v>
       </c>
-      <c r="C525" t="s">
+      <c r="C525" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D525" t="s">
         <v>728</v>
-      </c>
-      <c r="E525" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.3">
@@ -9457,7 +9646,7 @@
       <c r="B526" t="s">
         <v>659</v>
       </c>
-      <c r="E526" t="b">
+      <c r="C526" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9469,7 +9658,7 @@
       <c r="B527" t="s">
         <v>659</v>
       </c>
-      <c r="E527" t="b">
+      <c r="C527" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9481,7 +9670,7 @@
       <c r="B528" t="s">
         <v>659</v>
       </c>
-      <c r="E528" t="b">
+      <c r="C528" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9493,7 +9682,7 @@
       <c r="B529" t="s">
         <v>659</v>
       </c>
-      <c r="E529" t="b">
+      <c r="C529" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9505,7 +9694,7 @@
       <c r="B530" t="s">
         <v>659</v>
       </c>
-      <c r="E530" t="b">
+      <c r="C530" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9517,7 +9706,7 @@
       <c r="B531" t="s">
         <v>659</v>
       </c>
-      <c r="E531" t="b">
+      <c r="C531" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9529,15 +9718,15 @@
       <c r="B532" t="s">
         <v>659</v>
       </c>
-      <c r="C532" t="s">
+      <c r="C532" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D532" t="s">
         <v>732</v>
       </c>
-      <c r="D532" t="s">
+      <c r="E532" t="s">
         <v>735</v>
-      </c>
-      <c r="E532" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.3">
@@ -9547,12 +9736,12 @@
       <c r="B533" t="s">
         <v>659</v>
       </c>
-      <c r="C533" t="s">
+      <c r="C533" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D533" t="s">
         <v>733</v>
-      </c>
-      <c r="E533" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.3">
@@ -9562,12 +9751,12 @@
       <c r="B534" t="s">
         <v>659</v>
       </c>
-      <c r="C534" t="s">
+      <c r="C534" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D534" t="s">
         <v>734</v>
-      </c>
-      <c r="E534" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.3">
@@ -9577,7 +9766,7 @@
       <c r="B535" t="s">
         <v>659</v>
       </c>
-      <c r="E535" t="b">
+      <c r="C535" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9589,12 +9778,12 @@
       <c r="B536" t="s">
         <v>659</v>
       </c>
-      <c r="D536" t="s">
+      <c r="C536" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E536" t="s">
         <v>736</v>
-      </c>
-      <c r="E536" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">
@@ -9604,7 +9793,7 @@
       <c r="B537" t="s">
         <v>659</v>
       </c>
-      <c r="E537" t="b">
+      <c r="C537" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9616,9 +9805,12 @@
       <c r="B538" t="s">
         <v>660</v>
       </c>
-      <c r="E538" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C538" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D538" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.3">
@@ -9628,9 +9820,15 @@
       <c r="B539" t="s">
         <v>660</v>
       </c>
-      <c r="E539" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C539" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D539" t="s">
+        <v>807</v>
+      </c>
+      <c r="E539" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
@@ -9640,9 +9838,15 @@
       <c r="B540" t="s">
         <v>660</v>
       </c>
-      <c r="E540" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C540" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D540" t="s">
+        <v>808</v>
+      </c>
+      <c r="E540" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.3">
@@ -9652,7 +9856,7 @@
       <c r="B541" t="s">
         <v>660</v>
       </c>
-      <c r="E541" t="b">
+      <c r="C541" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9664,7 +9868,7 @@
       <c r="B542" t="s">
         <v>660</v>
       </c>
-      <c r="E542" t="b">
+      <c r="C542" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9676,7 +9880,7 @@
       <c r="B543" t="s">
         <v>660</v>
       </c>
-      <c r="E543" t="b">
+      <c r="C543" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9688,7 +9892,7 @@
       <c r="B544" t="s">
         <v>660</v>
       </c>
-      <c r="E544" t="b">
+      <c r="C544" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9700,7 +9904,7 @@
       <c r="B545" t="s">
         <v>660</v>
       </c>
-      <c r="E545" t="b">
+      <c r="C545" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9712,7 +9916,7 @@
       <c r="B546" t="s">
         <v>660</v>
       </c>
-      <c r="E546" t="b">
+      <c r="C546" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9724,7 +9928,7 @@
       <c r="B547" t="s">
         <v>659</v>
       </c>
-      <c r="E547" t="b">
+      <c r="C547" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9736,7 +9940,7 @@
       <c r="B548" t="s">
         <v>659</v>
       </c>
-      <c r="E548" t="b">
+      <c r="C548" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9748,7 +9952,7 @@
       <c r="B549" t="s">
         <v>660</v>
       </c>
-      <c r="E549" t="b">
+      <c r="C549" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9760,7 +9964,7 @@
       <c r="B550" t="s">
         <v>660</v>
       </c>
-      <c r="E550" t="b">
+      <c r="C550" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9772,7 +9976,7 @@
       <c r="B551" t="s">
         <v>660</v>
       </c>
-      <c r="E551" t="b">
+      <c r="C551" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9784,12 +9988,12 @@
       <c r="B552" t="s">
         <v>659</v>
       </c>
-      <c r="C552" t="s">
+      <c r="C552" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D552" t="s">
         <v>741</v>
-      </c>
-      <c r="E552" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.3">
@@ -9799,7 +10003,7 @@
       <c r="B553" t="s">
         <v>660</v>
       </c>
-      <c r="E553" t="b">
+      <c r="C553" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9811,7 +10015,7 @@
       <c r="B554" t="s">
         <v>660</v>
       </c>
-      <c r="E554" t="b">
+      <c r="C554" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9823,7 +10027,7 @@
       <c r="B555" t="s">
         <v>660</v>
       </c>
-      <c r="E555" t="b">
+      <c r="C555" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9835,9 +10039,12 @@
       <c r="B556" t="s">
         <v>660</v>
       </c>
-      <c r="E556" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C556" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D556" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.3">
@@ -9847,9 +10054,12 @@
       <c r="B557" t="s">
         <v>660</v>
       </c>
-      <c r="E557" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C557" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E557" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.3">
@@ -9859,7 +10069,7 @@
       <c r="B558" t="s">
         <v>660</v>
       </c>
-      <c r="E558" t="b">
+      <c r="C558" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9871,9 +10081,15 @@
       <c r="B559" t="s">
         <v>660</v>
       </c>
-      <c r="E559" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C559" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D559" t="s">
+        <v>810</v>
+      </c>
+      <c r="E559" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.3">
@@ -9883,7 +10099,7 @@
       <c r="B560" t="s">
         <v>660</v>
       </c>
-      <c r="E560" t="b">
+      <c r="C560" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9895,7 +10111,7 @@
       <c r="B561" t="s">
         <v>660</v>
       </c>
-      <c r="E561" t="b">
+      <c r="C561" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9907,7 +10123,7 @@
       <c r="B562" t="s">
         <v>659</v>
       </c>
-      <c r="E562" t="b">
+      <c r="C562" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9919,15 +10135,15 @@
       <c r="B563" t="s">
         <v>659</v>
       </c>
-      <c r="C563" t="s">
+      <c r="C563" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D563" t="s">
         <v>742</v>
       </c>
-      <c r="D563" t="s">
+      <c r="E563" t="s">
         <v>737</v>
-      </c>
-      <c r="E563" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.3">
@@ -9937,12 +10153,12 @@
       <c r="B564" t="s">
         <v>659</v>
       </c>
-      <c r="D564" t="s">
+      <c r="C564" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E564" t="s">
         <v>738</v>
-      </c>
-      <c r="E564" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.3">
@@ -9952,12 +10168,12 @@
       <c r="B565" t="s">
         <v>659</v>
       </c>
-      <c r="D565" t="s">
+      <c r="C565" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E565" t="s">
         <v>739</v>
-      </c>
-      <c r="E565" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.3">
@@ -9967,7 +10183,7 @@
       <c r="B566" t="s">
         <v>660</v>
       </c>
-      <c r="E566" t="b">
+      <c r="C566" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9979,7 +10195,7 @@
       <c r="B567" t="s">
         <v>660</v>
       </c>
-      <c r="E567" t="b">
+      <c r="C567" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -9991,9 +10207,15 @@
       <c r="B568" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="E568" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C568" s="2" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D568" t="s">
+        <v>811</v>
+      </c>
+      <c r="E568" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.3">
@@ -10003,7 +10225,7 @@
       <c r="B569" t="s">
         <v>659</v>
       </c>
-      <c r="E569" t="b">
+      <c r="C569" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10015,7 +10237,7 @@
       <c r="B570" t="s">
         <v>660</v>
       </c>
-      <c r="E570" t="b">
+      <c r="C570" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10027,12 +10249,12 @@
       <c r="B571" t="s">
         <v>659</v>
       </c>
-      <c r="D571" t="s">
+      <c r="C571" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E571" t="s">
         <v>740</v>
-      </c>
-      <c r="E571" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.3">
@@ -10042,7 +10264,7 @@
       <c r="B572" t="s">
         <v>659</v>
       </c>
-      <c r="E572" t="b">
+      <c r="C572" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10054,7 +10276,7 @@
       <c r="B573" t="s">
         <v>660</v>
       </c>
-      <c r="E573" t="b">
+      <c r="C573" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10066,7 +10288,7 @@
       <c r="B574" t="s">
         <v>660</v>
       </c>
-      <c r="E574" t="b">
+      <c r="C574" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10078,12 +10300,12 @@
       <c r="B575" t="s">
         <v>659</v>
       </c>
-      <c r="C575" t="s">
+      <c r="C575" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D575" t="s">
         <v>743</v>
-      </c>
-      <c r="E575" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.3">
@@ -10093,7 +10315,7 @@
       <c r="B576" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="E576" t="b">
+      <c r="C576" s="2" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10105,12 +10327,12 @@
       <c r="B577" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C577" t="s">
+      <c r="C577" s="2" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D577" t="s">
         <v>744</v>
-      </c>
-      <c r="E577" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.3">
@@ -10120,7 +10342,7 @@
       <c r="B578" t="s">
         <v>660</v>
       </c>
-      <c r="E578" t="b">
+      <c r="C578" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10132,7 +10354,7 @@
       <c r="B579" t="s">
         <v>659</v>
       </c>
-      <c r="E579" t="b">
+      <c r="C579" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10144,7 +10366,7 @@
       <c r="B580" t="s">
         <v>660</v>
       </c>
-      <c r="E580" t="b">
+      <c r="C580" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10156,9 +10378,12 @@
       <c r="B581" t="s">
         <v>660</v>
       </c>
-      <c r="E581" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C581" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D581" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.3">
@@ -10168,7 +10393,7 @@
       <c r="B582" t="s">
         <v>660</v>
       </c>
-      <c r="E582" t="b">
+      <c r="C582" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10180,12 +10405,12 @@
       <c r="B583" t="s">
         <v>659</v>
       </c>
-      <c r="C583" t="s">
+      <c r="C583" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D583" t="s">
         <v>745</v>
-      </c>
-      <c r="E583" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.3">
@@ -10195,7 +10420,7 @@
       <c r="B584" t="s">
         <v>660</v>
       </c>
-      <c r="E584" t="b">
+      <c r="C584" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10207,7 +10432,7 @@
       <c r="B585" t="s">
         <v>660</v>
       </c>
-      <c r="E585" t="b">
+      <c r="C585" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10219,7 +10444,7 @@
       <c r="B586" t="s">
         <v>660</v>
       </c>
-      <c r="E586" t="b">
+      <c r="C586" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10231,7 +10456,7 @@
       <c r="B587" t="s">
         <v>660</v>
       </c>
-      <c r="E587" t="b">
+      <c r="C587" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10243,7 +10468,7 @@
       <c r="B588" t="s">
         <v>660</v>
       </c>
-      <c r="E588" t="b">
+      <c r="C588" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10255,9 +10480,15 @@
       <c r="B589" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="E589" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C589" s="2" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D589" t="s">
+        <v>813</v>
+      </c>
+      <c r="E589" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.3">
@@ -10267,7 +10498,7 @@
       <c r="B590" t="s">
         <v>659</v>
       </c>
-      <c r="E590" t="b">
+      <c r="C590" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10279,7 +10510,7 @@
       <c r="B591" t="s">
         <v>659</v>
       </c>
-      <c r="E591" t="b">
+      <c r="C591" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10291,7 +10522,7 @@
       <c r="B592" t="s">
         <v>659</v>
       </c>
-      <c r="E592" t="b">
+      <c r="C592" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10303,15 +10534,15 @@
       <c r="B593" t="s">
         <v>659</v>
       </c>
-      <c r="C593" t="s">
+      <c r="C593" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D593" t="s">
         <v>746</v>
       </c>
-      <c r="D593" t="s">
+      <c r="E593" t="s">
         <v>749</v>
-      </c>
-      <c r="E593" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.3">
@@ -10321,15 +10552,15 @@
       <c r="B594" t="s">
         <v>659</v>
       </c>
-      <c r="C594" t="s">
+      <c r="C594" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D594" t="s">
         <v>747</v>
       </c>
-      <c r="D594" t="s">
+      <c r="E594" t="s">
         <v>750</v>
-      </c>
-      <c r="E594" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.3">
@@ -10339,7 +10570,7 @@
       <c r="B595" t="s">
         <v>659</v>
       </c>
-      <c r="E595" t="b">
+      <c r="C595" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10351,7 +10582,7 @@
       <c r="B596" t="s">
         <v>659</v>
       </c>
-      <c r="E596" t="b">
+      <c r="C596" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10363,7 +10594,7 @@
       <c r="B597" t="s">
         <v>660</v>
       </c>
-      <c r="E597" t="b">
+      <c r="C597" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10375,7 +10606,7 @@
       <c r="B598" t="s">
         <v>660</v>
       </c>
-      <c r="E598" t="b">
+      <c r="C598" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10387,7 +10618,7 @@
       <c r="B599" t="s">
         <v>660</v>
       </c>
-      <c r="E599" t="b">
+      <c r="C599" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10399,7 +10630,7 @@
       <c r="B600" t="s">
         <v>660</v>
       </c>
-      <c r="E600" t="b">
+      <c r="C600" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10411,7 +10642,7 @@
       <c r="B601" t="s">
         <v>660</v>
       </c>
-      <c r="E601" t="b">
+      <c r="C601" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10423,9 +10654,12 @@
       <c r="B602" t="s">
         <v>660</v>
       </c>
-      <c r="E602" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C602" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E602" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.3">
@@ -10435,7 +10669,7 @@
       <c r="B603" t="s">
         <v>660</v>
       </c>
-      <c r="E603" t="b">
+      <c r="C603" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10447,7 +10681,7 @@
       <c r="B604" t="s">
         <v>660</v>
       </c>
-      <c r="E604" t="b">
+      <c r="C604" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10459,7 +10693,7 @@
       <c r="B605" t="s">
         <v>660</v>
       </c>
-      <c r="E605" t="b">
+      <c r="C605" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10471,7 +10705,7 @@
       <c r="B606" t="s">
         <v>659</v>
       </c>
-      <c r="E606" t="b">
+      <c r="C606" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10483,7 +10717,7 @@
       <c r="B607" t="s">
         <v>660</v>
       </c>
-      <c r="E607" t="b">
+      <c r="C607" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10495,7 +10729,7 @@
       <c r="B608" t="s">
         <v>659</v>
       </c>
-      <c r="E608" t="b">
+      <c r="C608" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10507,7 +10741,7 @@
       <c r="B609" t="s">
         <v>660</v>
       </c>
-      <c r="E609" t="b">
+      <c r="C609" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10519,15 +10753,15 @@
       <c r="B610" t="s">
         <v>659</v>
       </c>
-      <c r="C610" t="s">
+      <c r="C610" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D610" t="s">
         <v>748</v>
       </c>
-      <c r="D610" t="s">
+      <c r="E610" t="s">
         <v>751</v>
-      </c>
-      <c r="E610" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.3">
@@ -10537,7 +10771,7 @@
       <c r="B611" t="s">
         <v>659</v>
       </c>
-      <c r="E611" t="b">
+      <c r="C611" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10549,15 +10783,15 @@
       <c r="B612" t="s">
         <v>659</v>
       </c>
-      <c r="C612" t="s">
+      <c r="C612" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D612" t="s">
         <v>757</v>
       </c>
-      <c r="D612" t="s">
+      <c r="E612" t="s">
         <v>753</v>
-      </c>
-      <c r="E612" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.3">
@@ -10567,7 +10801,7 @@
       <c r="B613" t="s">
         <v>659</v>
       </c>
-      <c r="E613" t="b">
+      <c r="C613" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10579,7 +10813,7 @@
       <c r="B614" t="s">
         <v>660</v>
       </c>
-      <c r="E614" t="b">
+      <c r="C614" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10591,15 +10825,15 @@
       <c r="B615" t="s">
         <v>659</v>
       </c>
-      <c r="C615" t="s">
+      <c r="C615" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D615" t="s">
         <v>758</v>
       </c>
-      <c r="D615" t="s">
+      <c r="E615" t="s">
         <v>754</v>
-      </c>
-      <c r="E615" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.3">
@@ -10609,7 +10843,7 @@
       <c r="B616" t="s">
         <v>660</v>
       </c>
-      <c r="E616" t="b">
+      <c r="C616" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10621,7 +10855,7 @@
       <c r="B617" t="s">
         <v>660</v>
       </c>
-      <c r="E617" t="b">
+      <c r="C617" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10633,9 +10867,12 @@
       <c r="B618" t="s">
         <v>660</v>
       </c>
-      <c r="E618" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C618" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E618" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.3">
@@ -10645,9 +10882,15 @@
       <c r="B619" t="s">
         <v>660</v>
       </c>
-      <c r="E619" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C619" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D619" t="s">
+        <v>814</v>
+      </c>
+      <c r="E619" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.3">
@@ -10657,7 +10900,7 @@
       <c r="B620" t="s">
         <v>660</v>
       </c>
-      <c r="E620" t="b">
+      <c r="C620" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10669,7 +10912,7 @@
       <c r="B621" t="s">
         <v>660</v>
       </c>
-      <c r="E621" t="b">
+      <c r="C621" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10681,7 +10924,7 @@
       <c r="B622" t="s">
         <v>660</v>
       </c>
-      <c r="E622" t="b">
+      <c r="C622" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10693,9 +10936,12 @@
       <c r="B623" t="s">
         <v>660</v>
       </c>
-      <c r="E623" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C623" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E623" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.3">
@@ -10705,7 +10951,7 @@
       <c r="B624" t="s">
         <v>659</v>
       </c>
-      <c r="E624" t="b">
+      <c r="C624" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10717,7 +10963,7 @@
       <c r="B625" t="s">
         <v>660</v>
       </c>
-      <c r="E625" t="b">
+      <c r="C625" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10729,12 +10975,12 @@
       <c r="B626" t="s">
         <v>659</v>
       </c>
-      <c r="D626" t="s">
+      <c r="C626" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E626" t="s">
         <v>755</v>
-      </c>
-      <c r="E626" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.3">
@@ -10744,12 +10990,12 @@
       <c r="B627" t="s">
         <v>659</v>
       </c>
-      <c r="C627" t="s">
+      <c r="C627" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D627" t="s">
         <v>759</v>
-      </c>
-      <c r="E627" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.3">
@@ -10759,7 +11005,7 @@
       <c r="B628" t="s">
         <v>659</v>
       </c>
-      <c r="E628" t="b">
+      <c r="C628" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10771,9 +11017,12 @@
       <c r="B629" t="s">
         <v>660</v>
       </c>
-      <c r="E629" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C629" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E629" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.3">
@@ -10783,7 +11032,7 @@
       <c r="B630" t="s">
         <v>660</v>
       </c>
-      <c r="E630" t="b">
+      <c r="C630" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10795,9 +11044,15 @@
       <c r="B631" t="s">
         <v>660</v>
       </c>
-      <c r="E631" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C631" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D631" t="s">
+        <v>815</v>
+      </c>
+      <c r="E631" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.3">
@@ -10807,7 +11062,7 @@
       <c r="B632" t="s">
         <v>660</v>
       </c>
-      <c r="E632" t="b">
+      <c r="C632" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10819,7 +11074,7 @@
       <c r="B633" t="s">
         <v>660</v>
       </c>
-      <c r="E633" t="b">
+      <c r="C633" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10831,7 +11086,7 @@
       <c r="B634" t="s">
         <v>660</v>
       </c>
-      <c r="E634" t="b">
+      <c r="C634" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10843,7 +11098,7 @@
       <c r="B635" t="s">
         <v>660</v>
       </c>
-      <c r="E635" t="b">
+      <c r="C635" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10855,9 +11110,12 @@
       <c r="B636" t="s">
         <v>660</v>
       </c>
-      <c r="E636" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C636" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D636" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.3">
@@ -10867,7 +11125,7 @@
       <c r="B637" t="s">
         <v>660</v>
       </c>
-      <c r="E637" t="b">
+      <c r="C637" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10879,7 +11137,7 @@
       <c r="B638" t="s">
         <v>660</v>
       </c>
-      <c r="E638" t="b">
+      <c r="C638" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10891,9 +11149,12 @@
       <c r="B639" t="s">
         <v>660</v>
       </c>
-      <c r="E639" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C639" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E639" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.3">
@@ -10903,10 +11164,15 @@
       <c r="B640" t="s">
         <v>660</v>
       </c>
-      <c r="C640" s="1"/>
-      <c r="E640" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C640" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D640" t="s">
+        <v>817</v>
+      </c>
+      <c r="E640" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.3">
@@ -10916,9 +11182,12 @@
       <c r="B641" t="s">
         <v>660</v>
       </c>
-      <c r="E641" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C641" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D641" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.3">
@@ -10928,7 +11197,7 @@
       <c r="B642" t="s">
         <v>660</v>
       </c>
-      <c r="E642" t="b">
+      <c r="C642" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10940,9 +11209,12 @@
       <c r="B643" t="s">
         <v>660</v>
       </c>
-      <c r="E643" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C643" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="E643" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.3">
@@ -10952,7 +11224,7 @@
       <c r="B644" t="s">
         <v>660</v>
       </c>
-      <c r="E644" t="b">
+      <c r="C644" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10964,7 +11236,7 @@
       <c r="B645" t="s">
         <v>660</v>
       </c>
-      <c r="E645" t="b">
+      <c r="C645" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -10976,12 +11248,12 @@
       <c r="B646" t="s">
         <v>659</v>
       </c>
-      <c r="C646" t="s">
+      <c r="C646" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D646" t="s">
         <v>760</v>
-      </c>
-      <c r="E646" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.3">
@@ -10991,7 +11263,7 @@
       <c r="B647" t="s">
         <v>659</v>
       </c>
-      <c r="E647" t="b">
+      <c r="C647" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -11003,7 +11275,7 @@
       <c r="B648" t="s">
         <v>660</v>
       </c>
-      <c r="E648" t="b">
+      <c r="C648" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -11015,7 +11287,7 @@
       <c r="B649" t="s">
         <v>660</v>
       </c>
-      <c r="E649" t="b">
+      <c r="C649" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -11027,9 +11299,12 @@
       <c r="B650" t="s">
         <v>660</v>
       </c>
-      <c r="E650" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C650" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D650" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.3">
@@ -11039,7 +11314,7 @@
       <c r="B651" t="s">
         <v>659</v>
       </c>
-      <c r="E651" t="b">
+      <c r="C651" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -11051,7 +11326,7 @@
       <c r="B652" t="s">
         <v>659</v>
       </c>
-      <c r="E652" t="b">
+      <c r="C652" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -11063,7 +11338,7 @@
       <c r="B653" t="s">
         <v>660</v>
       </c>
-      <c r="E653" t="b">
+      <c r="C653" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -11075,9 +11350,15 @@
       <c r="B654" t="s">
         <v>660</v>
       </c>
-      <c r="E654" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+      <c r="C654" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D654" t="s">
+        <v>841</v>
+      </c>
+      <c r="E654" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.3">
@@ -11087,7 +11368,7 @@
       <c r="B655" t="s">
         <v>660</v>
       </c>
-      <c r="E655" t="b">
+      <c r="C655" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>0</v>
       </c>
@@ -11099,15 +11380,15 @@
       <c r="B656" t="s">
         <v>659</v>
       </c>
-      <c r="C656" t="s">
+      <c r="C656" t="b">
+        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
+        <v>1</v>
+      </c>
+      <c r="D656" t="s">
         <v>761</v>
       </c>
-      <c r="D656" t="s">
+      <c r="E656" t="s">
         <v>756</v>
-      </c>
-      <c r="E656" t="b">
-        <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17623C12-17D3-4A99-973F-DAF97E26E2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BCA8FC-ED4F-474C-9174-570D6549506D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="844">
   <si>
     <t>taxon</t>
   </si>
@@ -2549,6 +2549,9 @@
   </si>
   <si>
     <t>www/media/fiches/zodarion_italicum_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/scotophaeus_scutulatus_femelle.webp</t>
   </si>
 </sst>
 </file>
@@ -2960,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A633" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E655" sqref="E655"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4910,6 +4913,9 @@
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>1</v>
       </c>
+      <c r="D150" t="s">
+        <v>843</v>
+      </c>
       <c r="E150" t="s">
         <v>776</v>
       </c>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BCA8FC-ED4F-474C-9174-570D6549506D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CE82C5-169B-4307-809F-C1D6C6C4ADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="845">
   <si>
     <t>taxon</t>
   </si>
@@ -2552,6 +2552,9 @@
   </si>
   <si>
     <t>www/media/fiches/scotophaeus_scutulatus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/neriene_montana_femelle.webp</t>
   </si>
 </sst>
 </file>
@@ -2963,8 +2966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D151" sqref="D151"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D279" sqref="D279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6509,6 +6512,9 @@
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>1</v>
       </c>
+      <c r="D278" t="s">
+        <v>844</v>
+      </c>
       <c r="E278" t="s">
         <v>675</v>
       </c>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CE82C5-169B-4307-809F-C1D6C6C4ADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6823AD12-3932-431C-9D5C-E3D2CA3D6A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2491,12 +2491,6 @@
     <t>www/media/fiches/tibellus_oblongus_male.webp</t>
   </si>
   <si>
-    <t>www/media/pseudeuophrys_lanigera_male.webp</t>
-  </si>
-  <si>
-    <t>www/media/pseudeuophrys_erratica_male.webp</t>
-  </si>
-  <si>
     <t>www/media/fiches/salticus_zebraenus_male.webp</t>
   </si>
   <si>
@@ -2555,6 +2549,12 @@
   </si>
   <si>
     <t>www/media/fiches/neriene_montana_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/pseudeuophrys_erratica_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/pseudeuophrys_lanigera_male.webp</t>
   </si>
 </sst>
 </file>
@@ -2966,8 +2966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D279" sqref="D279"/>
+    <sheetView tabSelected="1" topLeftCell="A489" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E508" sqref="E508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4917,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E150" t="s">
         <v>776</v>
@@ -6513,7 +6513,7 @@
         <v>1</v>
       </c>
       <c r="D278" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E278" t="s">
         <v>675</v>
@@ -9390,7 +9390,7 @@
         <v>804</v>
       </c>
       <c r="E506" t="s">
-        <v>824</v>
+        <v>843</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
@@ -9408,7 +9408,7 @@
         <v>805</v>
       </c>
       <c r="E507" t="s">
-        <v>823</v>
+        <v>844</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
@@ -9507,7 +9507,7 @@
         <v>1</v>
       </c>
       <c r="E514" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
@@ -9840,7 +9840,7 @@
         <v>807</v>
       </c>
       <c r="E539" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
@@ -9858,7 +9858,7 @@
         <v>808</v>
       </c>
       <c r="E540" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.3">
@@ -10071,7 +10071,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.3">
@@ -10101,7 +10101,7 @@
         <v>810</v>
       </c>
       <c r="E559" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.3">
@@ -10227,7 +10227,7 @@
         <v>811</v>
       </c>
       <c r="E568" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.3">
@@ -10500,7 +10500,7 @@
         <v>813</v>
       </c>
       <c r="E589" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.3">
@@ -10671,7 +10671,7 @@
         <v>1</v>
       </c>
       <c r="E602" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.3">
@@ -10884,7 +10884,7 @@
         <v>1</v>
       </c>
       <c r="E618" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.3">
@@ -10902,7 +10902,7 @@
         <v>814</v>
       </c>
       <c r="E619" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.3">
@@ -10953,7 +10953,7 @@
         <v>1</v>
       </c>
       <c r="E623" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.3">
@@ -11034,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="E629" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.3">
@@ -11064,7 +11064,7 @@
         <v>815</v>
       </c>
       <c r="E631" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.3">
@@ -11166,7 +11166,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.3">
@@ -11184,7 +11184,7 @@
         <v>817</v>
       </c>
       <c r="E640" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.3">
@@ -11226,7 +11226,7 @@
         <v>1</v>
       </c>
       <c r="E643" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.3">
@@ -11367,10 +11367,10 @@
         <v>1</v>
       </c>
       <c r="D654" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E654" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.3">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6823AD12-3932-431C-9D5C-E3D2CA3D6A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E3065A-3DF3-4B59-AEE9-D0BB87F3FD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="846">
   <si>
     <t>taxon</t>
   </si>
@@ -2555,6 +2555,9 @@
   </si>
   <si>
     <t>www/media/fiches/pseudeuophrys_lanigera_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/araneus_triguttatus_femelle.webp</t>
   </si>
 </sst>
 </file>
@@ -2966,8 +2969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A489" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E508" sqref="E508"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3419,7 +3422,10 @@
       </c>
       <c r="C34" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E3065A-3DF3-4B59-AEE9-D0BB87F3FD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20F6A8E-9312-4F01-B811-F1877683D16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="847">
   <si>
     <t>taxon</t>
   </si>
@@ -2558,6 +2558,9 @@
   </si>
   <si>
     <t>www/media/fiches/araneus_triguttatus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/enoplognatha_mandibularis_femelle.webp</t>
   </si>
 </sst>
 </file>
@@ -2969,8 +2972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A539" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D558" sqref="D558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10076,6 +10079,9 @@
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>1</v>
       </c>
+      <c r="D557" t="s">
+        <v>846</v>
+      </c>
       <c r="E557" t="s">
         <v>826</v>
       </c>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20F6A8E-9312-4F01-B811-F1877683D16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC17C8D-80BF-4EFF-ABFE-EFD422E75F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="850">
   <si>
     <t>taxon</t>
   </si>
@@ -2561,6 +2561,15 @@
   </si>
   <si>
     <t>www/media/fiches/enoplognatha_mandibularis_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/pardosa_hortensis_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/pardosa_prativaga_male.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/eratigena_saeva_femelle.webp</t>
   </si>
 </sst>
 </file>
@@ -2972,8 +2981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A539" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D558" sqref="D558"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3113,7 +3122,10 @@
       </c>
       <c r="C10" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -7919,6 +7931,9 @@
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>1</v>
       </c>
+      <c r="D392" t="s">
+        <v>847</v>
+      </c>
       <c r="E392" t="s">
         <v>796</v>
       </c>
@@ -7992,7 +8007,10 @@
       </c>
       <c r="C398" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E398" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC17C8D-80BF-4EFF-ABFE-EFD422E75F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1A300E-A91E-4AE8-AB28-767F6BEA85F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="851">
   <si>
     <t>taxon</t>
   </si>
@@ -2570,6 +2570,9 @@
   </si>
   <si>
     <t>www/media/fiches/eratigena_saeva_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/clubiona_terrestris_femelle.webp</t>
   </si>
 </sst>
 </file>
@@ -2981,8 +2984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4166,6 +4169,9 @@
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>1</v>
       </c>
+      <c r="D89" t="s">
+        <v>850</v>
+      </c>
       <c r="E89" t="s">
         <v>771</v>
       </c>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1A300E-A91E-4AE8-AB28-767F6BEA85F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84776515-2C4C-4D0C-B25E-25755FA9A315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="852">
   <si>
     <t>taxon</t>
   </si>
@@ -2573,6 +2573,9 @@
   </si>
   <si>
     <t>www/media/fiches/clubiona_terrestris_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/civizelotes_civicus_femelle.webp</t>
   </si>
 </sst>
 </file>
@@ -2984,8 +2987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4527,7 +4530,10 @@
       </c>
       <c r="C116" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84776515-2C4C-4D0C-B25E-25755FA9A315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73513C62-E174-4883-AFB5-A04032DD0853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="856">
   <si>
     <t>taxon</t>
   </si>
@@ -2576,6 +2576,18 @@
   </si>
   <si>
     <t>www/media/fiches/civizelotes_civicus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/amaurobius_fenestralis_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/araneus_angulatus_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/porrhomma_microphthalmum_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/zora_spinimana_femelle.webp</t>
   </si>
 </sst>
 </file>
@@ -2987,8 +2999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A625" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D533" sqref="D533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3251,7 +3263,10 @@
       </c>
       <c r="C20" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3371,7 +3386,10 @@
       </c>
       <c r="C29" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -6876,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>636</v>
       </c>
@@ -6885,10 +6903,13 @@
       </c>
       <c r="C305" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D305" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>285</v>
       </c>
@@ -6900,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>286</v>
       </c>
@@ -6912,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>287</v>
       </c>
@@ -6924,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>637</v>
       </c>
@@ -6936,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>288</v>
       </c>
@@ -6948,7 +6969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>289</v>
       </c>
@@ -6960,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>290</v>
       </c>
@@ -6972,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>291</v>
       </c>
@@ -6984,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>292</v>
       </c>
@@ -6996,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>293</v>
       </c>
@@ -7008,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>294</v>
       </c>
@@ -7020,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>295</v>
       </c>
@@ -7032,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>296</v>
       </c>
@@ -7044,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>297</v>
       </c>
@@ -7056,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>298</v>
       </c>
@@ -8316,7 +8337,10 @@
       </c>
       <c r="C422" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D422" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73513C62-E174-4883-AFB5-A04032DD0853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70978014-950F-4C47-8BA1-B324D823138C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="857">
   <si>
     <t>taxon</t>
   </si>
@@ -2588,6 +2588,9 @@
   </si>
   <si>
     <t>www/media/fiches/zora_spinimana_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/runcinia_grammica_femelle.webp</t>
   </si>
 </sst>
 </file>
@@ -2999,8 +3002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A625" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D533" sqref="D533"/>
+    <sheetView tabSelected="1" topLeftCell="A622" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D627" sqref="D627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11057,6 +11060,9 @@
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
         <v>1</v>
       </c>
+      <c r="D626" t="s">
+        <v>856</v>
+      </c>
       <c r="E626" t="s">
         <v>755</v>
       </c>

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70978014-950F-4C47-8BA1-B324D823138C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090DE7E1-01C4-4E21-86BF-26130009AD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="858">
   <si>
     <t>taxon</t>
   </si>
@@ -2591,6 +2591,9 @@
   </si>
   <si>
     <t>www/media/fiches/runcinia_grammica_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/clubiona_lutescens_femelle.webp</t>
   </si>
 </sst>
 </file>
@@ -3002,8 +3005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A622" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D627" sqref="D627"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4065,7 +4068,10 @@
       </c>
       <c r="C79" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090DE7E1-01C4-4E21-86BF-26130009AD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7367FDB-06DB-48D5-A3D8-025E39B03A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="859">
   <si>
     <t>taxon</t>
   </si>
@@ -2594,6 +2594,9 @@
   </si>
   <si>
     <t>www/media/fiches/clubiona_lutescens_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/piratula_hygrophila_femelle.webp</t>
   </si>
 </sst>
 </file>
@@ -3005,8 +3008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E656"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A386" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D405" sqref="D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8124,7 +8127,10 @@
       </c>
       <c r="C404" t="b">
         <f>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D404" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">

--- a/photos.xlsx
+++ b/photos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\web\araignees_idf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7367FDB-06DB-48D5-A3D8-025E39B03A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6B31C2-1DFF-4748-A56D-8D2C7063875E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="860">
   <si>
     <t>taxon</t>
   </si>
@@ -2597,6 +2597,9 @@
   </si>
   <si>
     <t>www/media/fiches/piratula_hygrophila_femelle.webp</t>
+  </si>
+  <si>
+    <t>www/media/fiches/pardosa_saltans_male.webp</t>
   </si>
 </sst>
 </file>
@@ -2656,7 +2659,56 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2679,7 +2731,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8CF3FEBE-EC73-416E-8610-F705B8D6D336}" name="taxon"/>
     <tableColumn id="4" xr3:uid="{666FCC22-DD53-4830-B712-02B264DDA363}" name="id à vue"/>
-    <tableColumn id="6" xr3:uid="{6FBFF4C7-96B5-4733-BA2F-DBB356BBCD3F}" name="fiche" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{6FBFF4C7-96B5-4733-BA2F-DBB356BBCD3F}" name="fiche" dataDxfId="7">
       <calculatedColumnFormula>OR(Tableau1[[#This Row],[femelle]]&lt;&gt;"", Tableau1[[#This Row],[male]]&lt;&gt;"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{84160676-7B2A-4A0C-94B1-2901F12B1A91}" name="femelle"/>
@@ -3008,8 +3060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http:/